--- a/2024_m5out_stats.xlsx
+++ b/2024_m5out_stats.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu-18.04\home\soliman\m5out_stats\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03D556DF-5138-45B0-9004-5DF56C4009A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C58BFA25-ED2A-4457-8453-FC3B67D35CBD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2772" yWindow="0" windowWidth="30864" windowHeight="16656" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3120" yWindow="0" windowWidth="30864" windowHeight="16656" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -294,69 +294,69 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet2!$H$2:$H$21</c:f>
+              <c:f>Sheet2!$R$2:$R$21</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="20"/>
                 <c:pt idx="0">
-                  <c:v>30.484772929999998</c:v>
+                  <c:v>5.8437037037037037E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>33.495472223999997</c:v>
+                  <c:v>0.1163288888888889</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>550.24448446600002</c:v>
+                  <c:v>0.14689037037037039</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>857.964816928</c:v>
+                  <c:v>0.16861777777777781</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>898.14575429800004</c:v>
+                  <c:v>0.19123703703703701</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1616.673130158</c:v>
+                  <c:v>0.2053051851851852</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2441.164227102</c:v>
+                  <c:v>0.2115822222222222</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2957.497221398</c:v>
+                  <c:v>0.22127555555555559</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>3482.358079178</c:v>
+                  <c:v>0.2264474074074074</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>3668.4633743919999</c:v>
+                  <c:v>0.2407037037037037</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>3896.6569152820002</c:v>
+                  <c:v>0.24370518518518519</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>3956.2778397819998</c:v>
+                  <c:v>0.25374814814814822</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>4121.8112404379999</c:v>
+                  <c:v>0.25802962962962961</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>4283.2122488920004</c:v>
+                  <c:v>0.26276444444444452</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>4232.6800218479993</c:v>
+                  <c:v>0.26994518518518518</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>4341.9412168180006</c:v>
+                  <c:v>0.27506814814814817</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>4413.8810595620007</c:v>
+                  <c:v>0.27801037037037041</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>4477.9156827119996</c:v>
+                  <c:v>0.28239259259259258</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>4429.9565475199997</c:v>
+                  <c:v>0.28497185185185192</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>4349.9391321839994</c:v>
+                  <c:v>0.28940740740740739</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -477,69 +477,69 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet2!$H$22:$H$41</c:f>
+              <c:f>Sheet2!$R$22:$R$41</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="20"/>
                 <c:pt idx="0">
-                  <c:v>32.359928762000003</c:v>
+                  <c:v>5.8437037037037037E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>34.923122606</c:v>
+                  <c:v>0.1163140740740741</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>576.08147942200003</c:v>
+                  <c:v>0.14769185185185191</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>874.39395847599997</c:v>
+                  <c:v>0.1691111111111111</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>923.87671232799994</c:v>
+                  <c:v>0.19273037037037041</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2073.4364348919999</c:v>
+                  <c:v>0.20209185185185191</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2586.8861244660002</c:v>
+                  <c:v>0.2081392592592593</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2785.4355970040001</c:v>
+                  <c:v>0.21785185185185191</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>2630.528804086</c:v>
+                  <c:v>0.22415555555555561</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>2699.395974258</c:v>
+                  <c:v>0.23308592592592589</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>2734.2290027539998</c:v>
+                  <c:v>0.24063407407407411</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>2984.2397479360002</c:v>
+                  <c:v>0.24702074074074071</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>3135.010241636</c:v>
+                  <c:v>0.25509777777777781</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>3236.466121724</c:v>
+                  <c:v>0.2580088888888889</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>3345.9744000000001</c:v>
+                  <c:v>0.26429925925925918</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>3467.8322340720001</c:v>
+                  <c:v>0.26742962962962957</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>3608.7532195019999</c:v>
+                  <c:v>0.27251407407407408</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>3643.2865462340001</c:v>
+                  <c:v>0.27592444444444442</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>3731.3311908539999</c:v>
+                  <c:v>0.27961481481481482</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>3787.0638278800002</c:v>
+                  <c:v>0.28310518518518518</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -556,7 +556,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet2!$T$55</c:f>
+              <c:f>Sheet2!$T$42</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -636,69 +636,69 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet2!$H$42:$H$61</c:f>
+              <c:f>Sheet2!$R$42:$R$61</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="20"/>
                 <c:pt idx="0">
-                  <c:v>36.987888861999998</c:v>
+                  <c:v>5.8432592592592592E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>42.035251842000001</c:v>
+                  <c:v>0.1162814814814815</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>626.86833903000002</c:v>
+                  <c:v>0.14607407407407411</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>839.14941861399996</c:v>
+                  <c:v>0.16778962962962959</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1227.5315171740001</c:v>
+                  <c:v>0.18744888888888889</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1964.218883384</c:v>
+                  <c:v>0.1973037037037037</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2437.7760099100001</c:v>
+                  <c:v>0.20641629629629629</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2721.683975676</c:v>
+                  <c:v>0.21700592592592591</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>2636.8408608740001</c:v>
+                  <c:v>0.2251259259259259</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>2752.4149124340001</c:v>
+                  <c:v>0.2340548148148148</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>2547.4524787360001</c:v>
+                  <c:v>0.2408044444444444</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>2640.820614576</c:v>
+                  <c:v>0.24580740740740739</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>2614.683447804</c:v>
+                  <c:v>0.25118222222222231</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>2591.4794478240001</c:v>
+                  <c:v>0.25329481481481481</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>2807.649476136</c:v>
+                  <c:v>0.25677481481481479</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>3002.4331656119998</c:v>
+                  <c:v>0.26052444444444439</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>3142.8073023440002</c:v>
+                  <c:v>0.26358518518518509</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>3267.0857867300001</c:v>
+                  <c:v>0.26688444444444442</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>3422.4636130280001</c:v>
+                  <c:v>0.27179407407407408</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>3470.722203838</c:v>
+                  <c:v>0.27498666666666671</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -881,16 +881,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>22</xdr:col>
-      <xdr:colOff>497093</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>6500</xdr:rowOff>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>434339</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>51325</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>33</xdr:col>
-      <xdr:colOff>107577</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>1</xdr:rowOff>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>44823</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>44825</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1217,7 +1217,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:T301"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="W26" sqref="W26"/>
     </sheetView>
   </sheetViews>
@@ -19913,8 +19913,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:T61"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="Y35" sqref="Y35"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="AC33" sqref="AC33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/2024_m5out_stats.xlsx
+++ b/2024_m5out_stats.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu-18.04\home\soliman\m5out_stats\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C58BFA25-ED2A-4457-8453-FC3B67D35CBD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B310AA2A-28A3-4D0D-AFAE-390E9F745277}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3120" yWindow="0" windowWidth="30864" windowHeight="16656" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="760" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="761" uniqueCount="29">
   <si>
     <t>injection_rate</t>
   </si>
@@ -108,6 +108,9 @@
   </si>
   <si>
     <t>adaptive</t>
+  </si>
+  <si>
+    <t>vcs</t>
   </si>
 </sst>
 </file>
@@ -1215,28 +1218,28 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:T301"/>
+  <dimension ref="A1:U301"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="W26" sqref="W26"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="12.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="22.33203125" customWidth="1"/>
-    <col min="4" max="4" width="18.5546875" customWidth="1"/>
-    <col min="5" max="5" width="25.77734375" customWidth="1"/>
-    <col min="6" max="6" width="17.6640625" customWidth="1"/>
-    <col min="7" max="7" width="22.44140625" customWidth="1"/>
+    <col min="1" max="1" width="12.36328125" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="22.36328125" customWidth="1"/>
+    <col min="4" max="4" width="18.54296875" customWidth="1"/>
+    <col min="5" max="5" width="25.81640625" customWidth="1"/>
+    <col min="6" max="6" width="17.6328125" customWidth="1"/>
+    <col min="7" max="7" width="22.453125" customWidth="1"/>
     <col min="8" max="8" width="21" customWidth="1"/>
     <col min="9" max="9" width="29" customWidth="1"/>
-    <col min="10" max="10" width="29.6640625" customWidth="1"/>
-    <col min="11" max="11" width="25.77734375" customWidth="1"/>
-    <col min="12" max="17" width="8.88671875" customWidth="1"/>
+    <col min="10" max="10" width="29.6328125" customWidth="1"/>
+    <col min="11" max="11" width="25.81640625" customWidth="1"/>
+    <col min="12" max="17" width="8.90625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1297,8 +1300,11 @@
       <c r="T1" s="1" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U1" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="2" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>0.05</v>
       </c>
@@ -1359,8 +1365,11 @@
       <c r="T2" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>0.1</v>
       </c>
@@ -1421,8 +1430,11 @@
       <c r="T3" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>0.15</v>
       </c>
@@ -1483,8 +1495,11 @@
       <c r="T4" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>0.2</v>
       </c>
@@ -1545,8 +1560,11 @@
       <c r="T5" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>0.25</v>
       </c>
@@ -1607,8 +1625,11 @@
       <c r="T6" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>0.3</v>
       </c>
@@ -1669,8 +1690,11 @@
       <c r="T7" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>0.35</v>
       </c>
@@ -1731,8 +1755,11 @@
       <c r="T8" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U8">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>0.4</v>
       </c>
@@ -1793,8 +1820,11 @@
       <c r="T9" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U9">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>0.45</v>
       </c>
@@ -1855,8 +1885,11 @@
       <c r="T10" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U10">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A11">
         <v>0.5</v>
       </c>
@@ -1917,8 +1950,11 @@
       <c r="T11" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U11">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A12">
         <v>0.55000000000000004</v>
       </c>
@@ -1979,8 +2015,11 @@
       <c r="T12" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U12">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A13">
         <v>0.6</v>
       </c>
@@ -2041,8 +2080,11 @@
       <c r="T13" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U13">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A14">
         <v>0.65</v>
       </c>
@@ -2103,8 +2145,11 @@
       <c r="T14" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U14">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A15">
         <v>0.7</v>
       </c>
@@ -2165,8 +2210,11 @@
       <c r="T15" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U15">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A16">
         <v>0.75</v>
       </c>
@@ -2227,8 +2275,11 @@
       <c r="T16" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="17" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U16">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A17">
         <v>0.8</v>
       </c>
@@ -2289,8 +2340,11 @@
       <c r="T17" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="18" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U17">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A18">
         <v>0.85</v>
       </c>
@@ -2351,8 +2405,11 @@
       <c r="T18" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="19" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U18">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A19">
         <v>0.9</v>
       </c>
@@ -2413,8 +2470,11 @@
       <c r="T19" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="20" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U19">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A20">
         <v>0.95</v>
       </c>
@@ -2475,8 +2535,11 @@
       <c r="T20" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="21" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U20">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A21">
         <v>1</v>
       </c>
@@ -2537,8 +2600,11 @@
       <c r="T21" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="22" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U21">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A22">
         <v>0.05</v>
       </c>
@@ -2599,8 +2665,11 @@
       <c r="T22" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="23" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U22">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A23">
         <v>0.1</v>
       </c>
@@ -2661,8 +2730,11 @@
       <c r="T23" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="24" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U23">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A24">
         <v>0.15</v>
       </c>
@@ -2723,8 +2795,11 @@
       <c r="T24" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="25" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U24">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A25">
         <v>0.2</v>
       </c>
@@ -2785,8 +2860,11 @@
       <c r="T25" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="26" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="26" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A26">
         <v>0.25</v>
       </c>
@@ -2847,8 +2925,11 @@
       <c r="T26" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="27" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U26">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A27">
         <v>0.3</v>
       </c>
@@ -2909,8 +2990,11 @@
       <c r="T27" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="28" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U27">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A28">
         <v>0.35</v>
       </c>
@@ -2971,8 +3055,11 @@
       <c r="T28" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="29" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U28">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="29" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A29">
         <v>0.4</v>
       </c>
@@ -3033,8 +3120,11 @@
       <c r="T29" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="30" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U29">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="30" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A30">
         <v>0.45</v>
       </c>
@@ -3095,8 +3185,11 @@
       <c r="T30" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="31" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U30">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="31" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A31">
         <v>0.5</v>
       </c>
@@ -3157,8 +3250,11 @@
       <c r="T31" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="32" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U31">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="32" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A32">
         <v>0.55000000000000004</v>
       </c>
@@ -3219,8 +3315,11 @@
       <c r="T32" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="33" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U32">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A33">
         <v>0.6</v>
       </c>
@@ -3281,8 +3380,11 @@
       <c r="T33" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="34" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U33">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A34">
         <v>0.65</v>
       </c>
@@ -3343,8 +3445,11 @@
       <c r="T34" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="35" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U34">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="35" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A35">
         <v>0.7</v>
       </c>
@@ -3405,8 +3510,11 @@
       <c r="T35" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="36" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U35">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="36" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A36">
         <v>0.75</v>
       </c>
@@ -3467,8 +3575,11 @@
       <c r="T36" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="37" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U36">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A37">
         <v>0.8</v>
       </c>
@@ -3529,8 +3640,11 @@
       <c r="T37" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="38" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U37">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="38" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A38">
         <v>0.85</v>
       </c>
@@ -3591,8 +3705,11 @@
       <c r="T38" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="39" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U38">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A39">
         <v>0.9</v>
       </c>
@@ -3653,8 +3770,11 @@
       <c r="T39" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="40" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U39">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="40" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A40">
         <v>0.95</v>
       </c>
@@ -3715,8 +3835,11 @@
       <c r="T40" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="41" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U40">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="41" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A41">
         <v>1</v>
       </c>
@@ -3777,8 +3900,11 @@
       <c r="T41" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="42" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U41">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A42">
         <v>0.05</v>
       </c>
@@ -3839,8 +3965,11 @@
       <c r="T42" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="43" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U42">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="43" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A43">
         <v>0.1</v>
       </c>
@@ -3901,8 +4030,11 @@
       <c r="T43" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="44" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U43">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A44">
         <v>0.15</v>
       </c>
@@ -3963,8 +4095,11 @@
       <c r="T44" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="45" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U44">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="45" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A45">
         <v>0.2</v>
       </c>
@@ -4025,8 +4160,11 @@
       <c r="T45" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="46" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U45">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A46">
         <v>0.25</v>
       </c>
@@ -4087,8 +4225,11 @@
       <c r="T46" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="47" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U46">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A47">
         <v>0.3</v>
       </c>
@@ -4149,8 +4290,11 @@
       <c r="T47" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="48" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U47">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A48">
         <v>0.35</v>
       </c>
@@ -4211,8 +4355,11 @@
       <c r="T48" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="49" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U48">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A49">
         <v>0.4</v>
       </c>
@@ -4273,8 +4420,11 @@
       <c r="T49" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="50" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U49">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A50">
         <v>0.45</v>
       </c>
@@ -4335,8 +4485,11 @@
       <c r="T50" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="51" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U50">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="51" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A51">
         <v>0.5</v>
       </c>
@@ -4397,8 +4550,11 @@
       <c r="T51" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="52" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U51">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="52" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A52">
         <v>0.55000000000000004</v>
       </c>
@@ -4459,8 +4615,11 @@
       <c r="T52" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="53" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U52">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A53">
         <v>0.6</v>
       </c>
@@ -4521,8 +4680,11 @@
       <c r="T53" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="54" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U53">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="54" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A54">
         <v>0.65</v>
       </c>
@@ -4583,8 +4745,11 @@
       <c r="T54" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="55" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U54">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A55">
         <v>0.7</v>
       </c>
@@ -4645,8 +4810,11 @@
       <c r="T55" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="56" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U55">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="56" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A56">
         <v>0.75</v>
       </c>
@@ -4707,8 +4875,11 @@
       <c r="T56" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="57" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U56">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="57" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A57">
         <v>0.8</v>
       </c>
@@ -4769,8 +4940,11 @@
       <c r="T57" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="58" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U57">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A58">
         <v>0.85</v>
       </c>
@@ -4831,8 +5005,11 @@
       <c r="T58" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="59" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U58">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A59">
         <v>0.9</v>
       </c>
@@ -4893,8 +5070,11 @@
       <c r="T59" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="60" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U59">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A60">
         <v>0.95</v>
       </c>
@@ -4955,8 +5135,11 @@
       <c r="T60" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="61" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U60">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A61">
         <v>1</v>
       </c>
@@ -5017,8 +5200,11 @@
       <c r="T61" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="62" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U61">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="62" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A62">
         <v>0.05</v>
       </c>
@@ -5079,8 +5265,11 @@
       <c r="T62" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="63" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U62">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A63">
         <v>0.1</v>
       </c>
@@ -5141,8 +5330,11 @@
       <c r="T63" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="64" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U63">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="64" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A64">
         <v>0.15</v>
       </c>
@@ -5203,8 +5395,11 @@
       <c r="T64" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="65" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U64">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="65" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A65">
         <v>0.2</v>
       </c>
@@ -5265,8 +5460,11 @@
       <c r="T65" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="66" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U65">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="66" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A66">
         <v>0.25</v>
       </c>
@@ -5327,8 +5525,11 @@
       <c r="T66" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="67" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U66">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A67">
         <v>0.3</v>
       </c>
@@ -5389,8 +5590,11 @@
       <c r="T67" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="68" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U67">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="68" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A68">
         <v>0.35</v>
       </c>
@@ -5451,8 +5655,11 @@
       <c r="T68" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="69" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U68">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="69" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A69">
         <v>0.4</v>
       </c>
@@ -5513,8 +5720,11 @@
       <c r="T69" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="70" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U69">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="70" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A70">
         <v>0.45</v>
       </c>
@@ -5575,8 +5785,11 @@
       <c r="T70" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="71" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U70">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="71" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A71">
         <v>0.5</v>
       </c>
@@ -5637,8 +5850,11 @@
       <c r="T71" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="72" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U71">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="72" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A72">
         <v>0.55000000000000004</v>
       </c>
@@ -5699,8 +5915,11 @@
       <c r="T72" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="73" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U72">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A73">
         <v>0.6</v>
       </c>
@@ -5761,8 +5980,11 @@
       <c r="T73" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="74" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U73">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="74" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A74">
         <v>0.65</v>
       </c>
@@ -5823,8 +6045,11 @@
       <c r="T74" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="75" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U74">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="75" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A75">
         <v>0.7</v>
       </c>
@@ -5885,8 +6110,11 @@
       <c r="T75" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="76" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U75">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="76" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A76">
         <v>0.75</v>
       </c>
@@ -5947,8 +6175,11 @@
       <c r="T76" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="77" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U76">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A77">
         <v>0.8</v>
       </c>
@@ -6009,8 +6240,11 @@
       <c r="T77" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="78" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U77">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="78" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A78">
         <v>0.85</v>
       </c>
@@ -6071,8 +6305,11 @@
       <c r="T78" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="79" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U78">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="79" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A79">
         <v>0.9</v>
       </c>
@@ -6133,8 +6370,11 @@
       <c r="T79" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="80" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U79">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="80" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A80">
         <v>0.95</v>
       </c>
@@ -6195,8 +6435,11 @@
       <c r="T80" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="81" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U80">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A81">
         <v>1</v>
       </c>
@@ -6257,8 +6500,11 @@
       <c r="T81" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="82" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U81">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A82">
         <v>0.05</v>
       </c>
@@ -6319,8 +6565,11 @@
       <c r="T82" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="83" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U82">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="83" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A83">
         <v>0.1</v>
       </c>
@@ -6381,8 +6630,11 @@
       <c r="T83" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="84" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U83">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A84">
         <v>0.15</v>
       </c>
@@ -6443,8 +6695,11 @@
       <c r="T84" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="85" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U84">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="85" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A85">
         <v>0.2</v>
       </c>
@@ -6505,8 +6760,11 @@
       <c r="T85" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="86" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U85">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="86" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A86">
         <v>0.25</v>
       </c>
@@ -6567,8 +6825,11 @@
       <c r="T86" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="87" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U86">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="87" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A87">
         <v>0.3</v>
       </c>
@@ -6629,8 +6890,11 @@
       <c r="T87" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="88" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U87">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="88" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A88">
         <v>0.35</v>
       </c>
@@ -6691,8 +6955,11 @@
       <c r="T88" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="89" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U88">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="89" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A89">
         <v>0.4</v>
       </c>
@@ -6753,8 +7020,11 @@
       <c r="T89" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="90" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U89">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A90">
         <v>0.45</v>
       </c>
@@ -6815,8 +7085,11 @@
       <c r="T90" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="91" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U90">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="91" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A91">
         <v>0.5</v>
       </c>
@@ -6877,8 +7150,11 @@
       <c r="T91" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="92" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U91">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A92">
         <v>0.55000000000000004</v>
       </c>
@@ -6939,8 +7215,11 @@
       <c r="T92" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="93" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U92">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="93" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A93">
         <v>0.6</v>
       </c>
@@ -7001,8 +7280,11 @@
       <c r="T93" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="94" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U93">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="94" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A94">
         <v>0.65</v>
       </c>
@@ -7063,8 +7345,11 @@
       <c r="T94" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="95" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U94">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A95">
         <v>0.7</v>
       </c>
@@ -7125,8 +7410,11 @@
       <c r="T95" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="96" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U95">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="96" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A96">
         <v>0.75</v>
       </c>
@@ -7187,8 +7475,11 @@
       <c r="T96" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="97" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U96">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="97" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A97">
         <v>0.8</v>
       </c>
@@ -7249,8 +7540,11 @@
       <c r="T97" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="98" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U97">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="98" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A98">
         <v>0.85</v>
       </c>
@@ -7311,8 +7605,11 @@
       <c r="T98" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="99" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U98">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="99" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A99">
         <v>0.9</v>
       </c>
@@ -7373,8 +7670,11 @@
       <c r="T99" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="100" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U99">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="100" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A100">
         <v>0.95</v>
       </c>
@@ -7435,8 +7735,11 @@
       <c r="T100" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="101" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U100">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A101">
         <v>1</v>
       </c>
@@ -7497,8 +7800,11 @@
       <c r="T101" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="102" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U101">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="102" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A102">
         <v>0.05</v>
       </c>
@@ -7559,8 +7865,11 @@
       <c r="T102" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="103" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U102">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="103" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A103">
         <v>0.1</v>
       </c>
@@ -7621,8 +7930,11 @@
       <c r="T103" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="104" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U103">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="104" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A104">
         <v>0.15</v>
       </c>
@@ -7683,8 +7995,11 @@
       <c r="T104" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="105" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U104">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="105" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A105">
         <v>0.2</v>
       </c>
@@ -7745,8 +8060,11 @@
       <c r="T105" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="106" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U105">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="106" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A106">
         <v>0.25</v>
       </c>
@@ -7807,8 +8125,11 @@
       <c r="T106" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="107" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U106">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="107" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A107">
         <v>0.3</v>
       </c>
@@ -7869,8 +8190,11 @@
       <c r="T107" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="108" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U107">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="108" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A108">
         <v>0.35</v>
       </c>
@@ -7931,8 +8255,11 @@
       <c r="T108" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="109" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U108">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="109" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A109">
         <v>0.4</v>
       </c>
@@ -7993,8 +8320,11 @@
       <c r="T109" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="110" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U109">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="110" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A110">
         <v>0.45</v>
       </c>
@@ -8055,8 +8385,11 @@
       <c r="T110" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="111" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U110">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="111" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A111">
         <v>0.5</v>
       </c>
@@ -8117,8 +8450,11 @@
       <c r="T111" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="112" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U111">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="112" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A112">
         <v>0.55000000000000004</v>
       </c>
@@ -8179,8 +8515,11 @@
       <c r="T112" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="113" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U112">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="113" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A113">
         <v>0.6</v>
       </c>
@@ -8241,8 +8580,11 @@
       <c r="T113" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="114" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U113">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="114" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A114">
         <v>0.65</v>
       </c>
@@ -8303,8 +8645,11 @@
       <c r="T114" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="115" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U114">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="115" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A115">
         <v>0.7</v>
       </c>
@@ -8365,8 +8710,11 @@
       <c r="T115" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="116" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U115">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="116" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A116">
         <v>0.75</v>
       </c>
@@ -8427,8 +8775,11 @@
       <c r="T116" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="117" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U116">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="117" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A117">
         <v>0.8</v>
       </c>
@@ -8489,8 +8840,11 @@
       <c r="T117" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="118" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U117">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="118" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A118">
         <v>0.85</v>
       </c>
@@ -8551,8 +8905,11 @@
       <c r="T118" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="119" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U118">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="119" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A119">
         <v>0.9</v>
       </c>
@@ -8613,8 +8970,11 @@
       <c r="T119" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="120" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U119">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="120" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A120">
         <v>0.95</v>
       </c>
@@ -8675,8 +9035,11 @@
       <c r="T120" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="121" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U120">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="121" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A121">
         <v>1</v>
       </c>
@@ -8737,8 +9100,11 @@
       <c r="T121" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="122" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U121">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="122" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A122">
         <v>0.05</v>
       </c>
@@ -8799,8 +9165,11 @@
       <c r="T122" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="123" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U122">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="123" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A123">
         <v>0.1</v>
       </c>
@@ -8861,8 +9230,11 @@
       <c r="T123" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="124" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U123">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="124" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A124">
         <v>0.15</v>
       </c>
@@ -8923,8 +9295,11 @@
       <c r="T124" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="125" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U124">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="125" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A125">
         <v>0.2</v>
       </c>
@@ -8985,8 +9360,11 @@
       <c r="T125" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="126" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U125">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="126" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A126">
         <v>0.25</v>
       </c>
@@ -9047,8 +9425,11 @@
       <c r="T126" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="127" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U126">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="127" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A127">
         <v>0.3</v>
       </c>
@@ -9109,8 +9490,11 @@
       <c r="T127" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="128" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U127">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="128" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A128">
         <v>0.35</v>
       </c>
@@ -9171,8 +9555,11 @@
       <c r="T128" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="129" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U128">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="129" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A129">
         <v>0.4</v>
       </c>
@@ -9233,8 +9620,11 @@
       <c r="T129" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="130" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U129">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="130" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A130">
         <v>0.45</v>
       </c>
@@ -9295,8 +9685,11 @@
       <c r="T130" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="131" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U130">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="131" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A131">
         <v>0.5</v>
       </c>
@@ -9357,8 +9750,11 @@
       <c r="T131" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="132" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U131">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="132" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A132">
         <v>0.55000000000000004</v>
       </c>
@@ -9419,8 +9815,11 @@
       <c r="T132" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="133" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U132">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="133" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A133">
         <v>0.6</v>
       </c>
@@ -9481,8 +9880,11 @@
       <c r="T133" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="134" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U133">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="134" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A134">
         <v>0.65</v>
       </c>
@@ -9543,8 +9945,11 @@
       <c r="T134" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="135" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U134">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="135" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A135">
         <v>0.7</v>
       </c>
@@ -9605,8 +10010,11 @@
       <c r="T135" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="136" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U135">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="136" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A136">
         <v>0.75</v>
       </c>
@@ -9667,8 +10075,11 @@
       <c r="T136" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="137" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U136">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="137" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A137">
         <v>0.8</v>
       </c>
@@ -9729,8 +10140,11 @@
       <c r="T137" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="138" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U137">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="138" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A138">
         <v>0.85</v>
       </c>
@@ -9791,8 +10205,11 @@
       <c r="T138" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="139" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U138">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="139" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A139">
         <v>0.9</v>
       </c>
@@ -9853,8 +10270,11 @@
       <c r="T139" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="140" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U139">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="140" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A140">
         <v>0.95</v>
       </c>
@@ -9915,8 +10335,11 @@
       <c r="T140" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="141" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U140">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="141" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A141">
         <v>1</v>
       </c>
@@ -9977,8 +10400,11 @@
       <c r="T141" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="142" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U141">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="142" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A142">
         <v>0.05</v>
       </c>
@@ -10039,8 +10465,11 @@
       <c r="T142" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="143" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U142">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="143" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A143">
         <v>0.1</v>
       </c>
@@ -10101,8 +10530,11 @@
       <c r="T143" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="144" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U143">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="144" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A144">
         <v>0.15</v>
       </c>
@@ -10163,8 +10595,11 @@
       <c r="T144" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="145" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U144">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="145" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A145">
         <v>0.2</v>
       </c>
@@ -10225,8 +10660,11 @@
       <c r="T145" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="146" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U145">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="146" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A146">
         <v>0.25</v>
       </c>
@@ -10287,8 +10725,11 @@
       <c r="T146" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="147" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U146">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="147" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A147">
         <v>0.3</v>
       </c>
@@ -10349,8 +10790,11 @@
       <c r="T147" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="148" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U147">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="148" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A148">
         <v>0.35</v>
       </c>
@@ -10411,8 +10855,11 @@
       <c r="T148" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="149" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U148">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="149" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A149">
         <v>0.4</v>
       </c>
@@ -10473,8 +10920,11 @@
       <c r="T149" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="150" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U149">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="150" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A150">
         <v>0.45</v>
       </c>
@@ -10535,8 +10985,11 @@
       <c r="T150" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="151" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U150">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="151" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A151">
         <v>0.5</v>
       </c>
@@ -10597,8 +11050,11 @@
       <c r="T151" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="152" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U151">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="152" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A152">
         <v>0.55000000000000004</v>
       </c>
@@ -10659,8 +11115,11 @@
       <c r="T152" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="153" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U152">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="153" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A153">
         <v>0.6</v>
       </c>
@@ -10721,8 +11180,11 @@
       <c r="T153" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="154" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U153">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="154" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A154">
         <v>0.65</v>
       </c>
@@ -10783,8 +11245,11 @@
       <c r="T154" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="155" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U154">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="155" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A155">
         <v>0.7</v>
       </c>
@@ -10845,8 +11310,11 @@
       <c r="T155" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="156" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U155">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="156" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A156">
         <v>0.75</v>
       </c>
@@ -10907,8 +11375,11 @@
       <c r="T156" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="157" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U156">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="157" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A157">
         <v>0.8</v>
       </c>
@@ -10969,8 +11440,11 @@
       <c r="T157" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="158" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U157">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="158" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A158">
         <v>0.85</v>
       </c>
@@ -11031,8 +11505,11 @@
       <c r="T158" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="159" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U158">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="159" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A159">
         <v>0.9</v>
       </c>
@@ -11093,8 +11570,11 @@
       <c r="T159" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="160" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U159">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="160" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A160">
         <v>0.95</v>
       </c>
@@ -11155,8 +11635,11 @@
       <c r="T160" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="161" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U160">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="161" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A161">
         <v>1</v>
       </c>
@@ -11217,8 +11700,11 @@
       <c r="T161" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="162" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U161">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="162" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A162">
         <v>0.05</v>
       </c>
@@ -11279,8 +11765,11 @@
       <c r="T162" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="163" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U162">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="163" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A163">
         <v>0.1</v>
       </c>
@@ -11341,8 +11830,11 @@
       <c r="T163" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="164" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U163">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="164" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A164">
         <v>0.15</v>
       </c>
@@ -11403,8 +11895,11 @@
       <c r="T164" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="165" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U164">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="165" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A165">
         <v>0.2</v>
       </c>
@@ -11465,8 +11960,11 @@
       <c r="T165" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="166" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U165">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="166" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A166">
         <v>0.25</v>
       </c>
@@ -11527,8 +12025,11 @@
       <c r="T166" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="167" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U166">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="167" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A167">
         <v>0.3</v>
       </c>
@@ -11589,8 +12090,11 @@
       <c r="T167" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="168" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U167">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="168" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A168">
         <v>0.35</v>
       </c>
@@ -11651,8 +12155,11 @@
       <c r="T168" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="169" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U168">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="169" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A169">
         <v>0.4</v>
       </c>
@@ -11713,8 +12220,11 @@
       <c r="T169" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="170" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U169">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="170" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A170">
         <v>0.45</v>
       </c>
@@ -11775,8 +12285,11 @@
       <c r="T170" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="171" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U170">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="171" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A171">
         <v>0.5</v>
       </c>
@@ -11837,8 +12350,11 @@
       <c r="T171" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="172" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U171">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="172" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A172">
         <v>0.55000000000000004</v>
       </c>
@@ -11899,8 +12415,11 @@
       <c r="T172" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="173" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U172">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="173" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A173">
         <v>0.6</v>
       </c>
@@ -11961,8 +12480,11 @@
       <c r="T173" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="174" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U173">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="174" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A174">
         <v>0.65</v>
       </c>
@@ -12023,8 +12545,11 @@
       <c r="T174" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="175" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U174">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="175" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A175">
         <v>0.7</v>
       </c>
@@ -12085,8 +12610,11 @@
       <c r="T175" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="176" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U175">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="176" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A176">
         <v>0.75</v>
       </c>
@@ -12147,8 +12675,11 @@
       <c r="T176" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="177" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U176">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="177" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A177">
         <v>0.8</v>
       </c>
@@ -12209,8 +12740,11 @@
       <c r="T177" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="178" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U177">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="178" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A178">
         <v>0.85</v>
       </c>
@@ -12271,8 +12805,11 @@
       <c r="T178" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="179" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U178">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="179" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A179">
         <v>0.9</v>
       </c>
@@ -12333,8 +12870,11 @@
       <c r="T179" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="180" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U179">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="180" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A180">
         <v>0.95</v>
       </c>
@@ -12395,8 +12935,11 @@
       <c r="T180" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="181" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U180">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="181" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A181">
         <v>1</v>
       </c>
@@ -12457,8 +13000,11 @@
       <c r="T181" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="182" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U181">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="182" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A182">
         <v>0.05</v>
       </c>
@@ -12519,8 +13065,11 @@
       <c r="T182" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="183" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U182">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="183" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A183">
         <v>0.1</v>
       </c>
@@ -12581,8 +13130,11 @@
       <c r="T183" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="184" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U183">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="184" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A184">
         <v>0.15</v>
       </c>
@@ -12643,8 +13195,11 @@
       <c r="T184" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="185" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U184">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="185" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A185">
         <v>0.2</v>
       </c>
@@ -12705,8 +13260,11 @@
       <c r="T185" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="186" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U185">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="186" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A186">
         <v>0.25</v>
       </c>
@@ -12767,8 +13325,11 @@
       <c r="T186" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="187" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U186">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="187" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A187">
         <v>0.3</v>
       </c>
@@ -12829,8 +13390,11 @@
       <c r="T187" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="188" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U187">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="188" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A188">
         <v>0.35</v>
       </c>
@@ -12891,8 +13455,11 @@
       <c r="T188" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="189" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U188">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="189" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A189">
         <v>0.4</v>
       </c>
@@ -12953,8 +13520,11 @@
       <c r="T189" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="190" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U189">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="190" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A190">
         <v>0.45</v>
       </c>
@@ -13015,8 +13585,11 @@
       <c r="T190" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="191" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U190">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="191" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A191">
         <v>0.5</v>
       </c>
@@ -13077,8 +13650,11 @@
       <c r="T191" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="192" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U191">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="192" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A192">
         <v>0.55000000000000004</v>
       </c>
@@ -13139,8 +13715,11 @@
       <c r="T192" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="193" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U192">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="193" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A193">
         <v>0.6</v>
       </c>
@@ -13201,8 +13780,11 @@
       <c r="T193" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="194" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U193">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="194" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A194">
         <v>0.65</v>
       </c>
@@ -13263,8 +13845,11 @@
       <c r="T194" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="195" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U194">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="195" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A195">
         <v>0.7</v>
       </c>
@@ -13325,8 +13910,11 @@
       <c r="T195" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="196" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U195">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="196" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A196">
         <v>0.75</v>
       </c>
@@ -13387,8 +13975,11 @@
       <c r="T196" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="197" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U196">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="197" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A197">
         <v>0.8</v>
       </c>
@@ -13449,8 +14040,11 @@
       <c r="T197" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="198" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U197">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="198" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A198">
         <v>0.85</v>
       </c>
@@ -13511,8 +14105,11 @@
       <c r="T198" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="199" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U198">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="199" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A199">
         <v>0.9</v>
       </c>
@@ -13573,8 +14170,11 @@
       <c r="T199" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="200" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U199">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="200" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A200">
         <v>0.95</v>
       </c>
@@ -13635,8 +14235,11 @@
       <c r="T200" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="201" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U200">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="201" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A201">
         <v>1</v>
       </c>
@@ -13697,8 +14300,11 @@
       <c r="T201" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="202" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U201">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="202" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A202">
         <v>0.05</v>
       </c>
@@ -13759,8 +14365,11 @@
       <c r="T202" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="203" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U202">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="203" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A203">
         <v>0.1</v>
       </c>
@@ -13821,8 +14430,11 @@
       <c r="T203" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="204" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U203">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="204" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A204">
         <v>0.15</v>
       </c>
@@ -13883,8 +14495,11 @@
       <c r="T204" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="205" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U204">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="205" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A205">
         <v>0.2</v>
       </c>
@@ -13945,8 +14560,11 @@
       <c r="T205" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="206" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U205">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="206" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A206">
         <v>0.25</v>
       </c>
@@ -14007,8 +14625,11 @@
       <c r="T206" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="207" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U206">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="207" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A207">
         <v>0.3</v>
       </c>
@@ -14069,8 +14690,11 @@
       <c r="T207" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="208" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U207">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="208" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A208">
         <v>0.35</v>
       </c>
@@ -14131,8 +14755,11 @@
       <c r="T208" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="209" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U208">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="209" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A209">
         <v>0.4</v>
       </c>
@@ -14193,8 +14820,11 @@
       <c r="T209" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="210" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U209">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="210" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A210">
         <v>0.45</v>
       </c>
@@ -14255,8 +14885,11 @@
       <c r="T210" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="211" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U210">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="211" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A211">
         <v>0.5</v>
       </c>
@@ -14317,8 +14950,11 @@
       <c r="T211" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="212" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U211">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="212" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A212">
         <v>0.55000000000000004</v>
       </c>
@@ -14379,8 +15015,11 @@
       <c r="T212" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="213" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U212">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="213" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A213">
         <v>0.6</v>
       </c>
@@ -14441,8 +15080,11 @@
       <c r="T213" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="214" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U213">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="214" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A214">
         <v>0.65</v>
       </c>
@@ -14503,8 +15145,11 @@
       <c r="T214" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="215" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U214">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="215" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A215">
         <v>0.7</v>
       </c>
@@ -14565,8 +15210,11 @@
       <c r="T215" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="216" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U215">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="216" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A216">
         <v>0.75</v>
       </c>
@@ -14627,8 +15275,11 @@
       <c r="T216" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="217" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U216">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="217" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A217">
         <v>0.8</v>
       </c>
@@ -14689,8 +15340,11 @@
       <c r="T217" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="218" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U217">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="218" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A218">
         <v>0.85</v>
       </c>
@@ -14751,8 +15405,11 @@
       <c r="T218" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="219" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U218">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="219" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A219">
         <v>0.9</v>
       </c>
@@ -14813,8 +15470,11 @@
       <c r="T219" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="220" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U219">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="220" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A220">
         <v>0.95</v>
       </c>
@@ -14875,8 +15535,11 @@
       <c r="T220" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="221" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U220">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="221" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A221">
         <v>1</v>
       </c>
@@ -14937,8 +15600,11 @@
       <c r="T221" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="222" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U221">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="222" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A222">
         <v>0.05</v>
       </c>
@@ -14999,8 +15665,11 @@
       <c r="T222" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="223" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U222">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="223" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A223">
         <v>0.1</v>
       </c>
@@ -15061,8 +15730,11 @@
       <c r="T223" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="224" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U223">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="224" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A224">
         <v>0.15</v>
       </c>
@@ -15123,8 +15795,11 @@
       <c r="T224" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="225" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U224">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="225" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A225">
         <v>0.2</v>
       </c>
@@ -15185,8 +15860,11 @@
       <c r="T225" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="226" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U225">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="226" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A226">
         <v>0.25</v>
       </c>
@@ -15247,8 +15925,11 @@
       <c r="T226" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="227" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U226">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="227" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A227">
         <v>0.3</v>
       </c>
@@ -15309,8 +15990,11 @@
       <c r="T227" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="228" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U227">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="228" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A228">
         <v>0.35</v>
       </c>
@@ -15371,8 +16055,11 @@
       <c r="T228" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="229" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U228">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="229" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A229">
         <v>0.4</v>
       </c>
@@ -15433,8 +16120,11 @@
       <c r="T229" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="230" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U229">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="230" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A230">
         <v>0.45</v>
       </c>
@@ -15495,8 +16185,11 @@
       <c r="T230" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="231" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U230">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="231" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A231">
         <v>0.5</v>
       </c>
@@ -15557,8 +16250,11 @@
       <c r="T231" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="232" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U231">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="232" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A232">
         <v>0.55000000000000004</v>
       </c>
@@ -15619,8 +16315,11 @@
       <c r="T232" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="233" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U232">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="233" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A233">
         <v>0.6</v>
       </c>
@@ -15681,8 +16380,11 @@
       <c r="T233" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="234" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U233">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="234" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A234">
         <v>0.65</v>
       </c>
@@ -15743,8 +16445,11 @@
       <c r="T234" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="235" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U234">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="235" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A235">
         <v>0.7</v>
       </c>
@@ -15805,8 +16510,11 @@
       <c r="T235" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="236" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U235">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="236" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A236">
         <v>0.75</v>
       </c>
@@ -15867,8 +16575,11 @@
       <c r="T236" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="237" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U236">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="237" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A237">
         <v>0.8</v>
       </c>
@@ -15929,8 +16640,11 @@
       <c r="T237" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="238" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U237">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="238" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A238">
         <v>0.85</v>
       </c>
@@ -15991,8 +16705,11 @@
       <c r="T238" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="239" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U238">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="239" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A239">
         <v>0.9</v>
       </c>
@@ -16053,8 +16770,11 @@
       <c r="T239" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="240" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U239">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="240" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A240">
         <v>0.95</v>
       </c>
@@ -16115,8 +16835,11 @@
       <c r="T240" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="241" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U240">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="241" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A241">
         <v>1</v>
       </c>
@@ -16177,8 +16900,11 @@
       <c r="T241" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="242" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U241">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="242" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A242">
         <v>0.05</v>
       </c>
@@ -16239,8 +16965,11 @@
       <c r="T242" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="243" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U242">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="243" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A243">
         <v>0.1</v>
       </c>
@@ -16301,8 +17030,11 @@
       <c r="T243" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="244" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U243">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="244" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A244">
         <v>0.15</v>
       </c>
@@ -16363,8 +17095,11 @@
       <c r="T244" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="245" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U244">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="245" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A245">
         <v>0.2</v>
       </c>
@@ -16425,8 +17160,11 @@
       <c r="T245" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="246" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U245">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="246" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A246">
         <v>0.25</v>
       </c>
@@ -16487,8 +17225,11 @@
       <c r="T246" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="247" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U246">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="247" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A247">
         <v>0.3</v>
       </c>
@@ -16549,8 +17290,11 @@
       <c r="T247" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="248" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U247">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="248" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A248">
         <v>0.35</v>
       </c>
@@ -16611,8 +17355,11 @@
       <c r="T248" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="249" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U248">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="249" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A249">
         <v>0.4</v>
       </c>
@@ -16673,8 +17420,11 @@
       <c r="T249" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="250" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U249">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="250" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A250">
         <v>0.45</v>
       </c>
@@ -16735,8 +17485,11 @@
       <c r="T250" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="251" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U250">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="251" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A251">
         <v>0.5</v>
       </c>
@@ -16797,8 +17550,11 @@
       <c r="T251" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="252" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U251">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="252" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A252">
         <v>0.55000000000000004</v>
       </c>
@@ -16859,8 +17615,11 @@
       <c r="T252" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="253" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U252">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="253" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A253">
         <v>0.6</v>
       </c>
@@ -16921,8 +17680,11 @@
       <c r="T253" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="254" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U253">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="254" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A254">
         <v>0.65</v>
       </c>
@@ -16983,8 +17745,11 @@
       <c r="T254" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="255" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U254">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="255" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A255">
         <v>0.7</v>
       </c>
@@ -17045,8 +17810,11 @@
       <c r="T255" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="256" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U255">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="256" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A256">
         <v>0.75</v>
       </c>
@@ -17107,8 +17875,11 @@
       <c r="T256" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="257" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U256">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="257" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A257">
         <v>0.8</v>
       </c>
@@ -17169,8 +17940,11 @@
       <c r="T257" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="258" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U257">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="258" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A258">
         <v>0.85</v>
       </c>
@@ -17231,8 +18005,11 @@
       <c r="T258" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="259" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U258">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="259" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A259">
         <v>0.9</v>
       </c>
@@ -17293,8 +18070,11 @@
       <c r="T259" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="260" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U259">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="260" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A260">
         <v>0.95</v>
       </c>
@@ -17355,8 +18135,11 @@
       <c r="T260" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="261" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U260">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="261" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A261">
         <v>1</v>
       </c>
@@ -17417,8 +18200,11 @@
       <c r="T261" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="262" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U261">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="262" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A262">
         <v>0.05</v>
       </c>
@@ -17479,8 +18265,11 @@
       <c r="T262" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="263" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U262">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="263" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A263">
         <v>0.1</v>
       </c>
@@ -17541,8 +18330,11 @@
       <c r="T263" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="264" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U263">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="264" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A264">
         <v>0.15</v>
       </c>
@@ -17603,8 +18395,11 @@
       <c r="T264" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="265" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U264">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="265" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A265">
         <v>0.2</v>
       </c>
@@ -17665,8 +18460,11 @@
       <c r="T265" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="266" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U265">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="266" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A266">
         <v>0.25</v>
       </c>
@@ -17727,8 +18525,11 @@
       <c r="T266" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="267" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U266">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="267" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A267">
         <v>0.3</v>
       </c>
@@ -17789,8 +18590,11 @@
       <c r="T267" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="268" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U267">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="268" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A268">
         <v>0.35</v>
       </c>
@@ -17851,8 +18655,11 @@
       <c r="T268" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="269" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U268">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="269" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A269">
         <v>0.4</v>
       </c>
@@ -17913,8 +18720,11 @@
       <c r="T269" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="270" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U269">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="270" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A270">
         <v>0.45</v>
       </c>
@@ -17975,8 +18785,11 @@
       <c r="T270" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="271" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U270">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="271" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A271">
         <v>0.5</v>
       </c>
@@ -18037,8 +18850,11 @@
       <c r="T271" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="272" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U271">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="272" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A272">
         <v>0.55000000000000004</v>
       </c>
@@ -18099,8 +18915,11 @@
       <c r="T272" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="273" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U272">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="273" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A273">
         <v>0.6</v>
       </c>
@@ -18161,8 +18980,11 @@
       <c r="T273" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="274" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U273">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="274" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A274">
         <v>0.65</v>
       </c>
@@ -18223,8 +19045,11 @@
       <c r="T274" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="275" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U274">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="275" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A275">
         <v>0.7</v>
       </c>
@@ -18285,8 +19110,11 @@
       <c r="T275" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="276" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U275">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="276" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A276">
         <v>0.75</v>
       </c>
@@ -18347,8 +19175,11 @@
       <c r="T276" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="277" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U276">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="277" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A277">
         <v>0.8</v>
       </c>
@@ -18409,8 +19240,11 @@
       <c r="T277" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="278" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U277">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="278" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A278">
         <v>0.85</v>
       </c>
@@ -18471,8 +19305,11 @@
       <c r="T278" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="279" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U278">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="279" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A279">
         <v>0.9</v>
       </c>
@@ -18533,8 +19370,11 @@
       <c r="T279" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="280" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U279">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="280" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A280">
         <v>0.95</v>
       </c>
@@ -18595,8 +19435,11 @@
       <c r="T280" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="281" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U280">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="281" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A281">
         <v>1</v>
       </c>
@@ -18657,8 +19500,11 @@
       <c r="T281" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="282" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U281">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="282" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A282">
         <v>0.05</v>
       </c>
@@ -18719,8 +19565,11 @@
       <c r="T282" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="283" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U282">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="283" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A283">
         <v>0.1</v>
       </c>
@@ -18781,8 +19630,11 @@
       <c r="T283" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="284" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U283">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="284" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A284">
         <v>0.15</v>
       </c>
@@ -18843,8 +19695,11 @@
       <c r="T284" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="285" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U284">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="285" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A285">
         <v>0.2</v>
       </c>
@@ -18905,8 +19760,11 @@
       <c r="T285" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="286" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U285">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="286" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A286">
         <v>0.25</v>
       </c>
@@ -18967,8 +19825,11 @@
       <c r="T286" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="287" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U286">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="287" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A287">
         <v>0.3</v>
       </c>
@@ -19029,8 +19890,11 @@
       <c r="T287" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="288" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U287">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="288" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A288">
         <v>0.35</v>
       </c>
@@ -19091,8 +19955,11 @@
       <c r="T288" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="289" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U288">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="289" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A289">
         <v>0.4</v>
       </c>
@@ -19153,8 +20020,11 @@
       <c r="T289" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="290" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U289">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="290" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A290">
         <v>0.45</v>
       </c>
@@ -19215,8 +20085,11 @@
       <c r="T290" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="291" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U290">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="291" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A291">
         <v>0.5</v>
       </c>
@@ -19277,8 +20150,11 @@
       <c r="T291" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="292" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U291">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="292" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A292">
         <v>0.55000000000000004</v>
       </c>
@@ -19339,8 +20215,11 @@
       <c r="T292" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="293" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U292">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="293" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A293">
         <v>0.6</v>
       </c>
@@ -19401,8 +20280,11 @@
       <c r="T293" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="294" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U293">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="294" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A294">
         <v>0.65</v>
       </c>
@@ -19463,8 +20345,11 @@
       <c r="T294" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="295" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U294">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="295" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A295">
         <v>0.7</v>
       </c>
@@ -19525,8 +20410,11 @@
       <c r="T295" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="296" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U295">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="296" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A296">
         <v>0.75</v>
       </c>
@@ -19587,8 +20475,11 @@
       <c r="T296" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="297" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U296">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="297" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A297">
         <v>0.8</v>
       </c>
@@ -19649,8 +20540,11 @@
       <c r="T297" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="298" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U297">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="298" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A298">
         <v>0.85</v>
       </c>
@@ -19711,8 +20605,11 @@
       <c r="T298" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="299" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U298">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="299" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A299">
         <v>0.9</v>
       </c>
@@ -19773,8 +20670,11 @@
       <c r="T299" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="300" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U299">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="300" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A300">
         <v>0.95</v>
       </c>
@@ -19835,8 +20735,11 @@
       <c r="T300" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="301" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U300">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="301" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A301">
         <v>1</v>
       </c>
@@ -19896,6 +20799,9 @@
       </c>
       <c r="T301" t="s">
         <v>27</v>
+      </c>
+      <c r="U301">
+        <v>3</v>
       </c>
     </row>
   </sheetData>
@@ -19913,13 +20819,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:T61"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="AC33" sqref="AC33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -19981,7 +20887,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>0.05</v>
       </c>
@@ -20043,7 +20949,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>0.1</v>
       </c>
@@ -20105,7 +21011,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>0.15</v>
       </c>
@@ -20167,7 +21073,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>0.2</v>
       </c>
@@ -20229,7 +21135,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>0.25</v>
       </c>
@@ -20291,7 +21197,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>0.3</v>
       </c>
@@ -20353,7 +21259,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>0.35</v>
       </c>
@@ -20415,7 +21321,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>0.4</v>
       </c>
@@ -20477,7 +21383,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>0.45</v>
       </c>
@@ -20539,7 +21445,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A11">
         <v>0.5</v>
       </c>
@@ -20601,7 +21507,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A12">
         <v>0.55000000000000004</v>
       </c>
@@ -20663,7 +21569,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A13">
         <v>0.6</v>
       </c>
@@ -20725,7 +21631,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A14">
         <v>0.65</v>
       </c>
@@ -20787,7 +21693,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A15">
         <v>0.7</v>
       </c>
@@ -20849,7 +21755,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A16">
         <v>0.75</v>
       </c>
@@ -20911,7 +21817,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="17" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A17">
         <v>0.8</v>
       </c>
@@ -20973,7 +21879,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="18" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A18">
         <v>0.85</v>
       </c>
@@ -21035,7 +21941,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="19" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A19">
         <v>0.9</v>
       </c>
@@ -21097,7 +22003,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="20" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A20">
         <v>0.95</v>
       </c>
@@ -21159,7 +22065,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="21" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A21">
         <v>1</v>
       </c>
@@ -21221,7 +22127,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="22" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A22">
         <v>0.05</v>
       </c>
@@ -21283,7 +22189,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="23" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A23">
         <v>0.1</v>
       </c>
@@ -21345,7 +22251,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="24" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A24">
         <v>0.15</v>
       </c>
@@ -21407,7 +22313,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="25" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A25">
         <v>0.2</v>
       </c>
@@ -21469,7 +22375,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="26" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A26">
         <v>0.25</v>
       </c>
@@ -21531,7 +22437,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="27" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A27">
         <v>0.3</v>
       </c>
@@ -21593,7 +22499,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="28" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A28">
         <v>0.35</v>
       </c>
@@ -21655,7 +22561,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="29" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A29">
         <v>0.4</v>
       </c>
@@ -21717,7 +22623,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="30" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A30">
         <v>0.45</v>
       </c>
@@ -21779,7 +22685,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="31" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A31">
         <v>0.5</v>
       </c>
@@ -21841,7 +22747,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="32" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A32">
         <v>0.55000000000000004</v>
       </c>
@@ -21903,7 +22809,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="33" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A33">
         <v>0.6</v>
       </c>
@@ -21965,7 +22871,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="34" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A34">
         <v>0.65</v>
       </c>
@@ -22027,7 +22933,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="35" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A35">
         <v>0.7</v>
       </c>
@@ -22089,7 +22995,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="36" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A36">
         <v>0.75</v>
       </c>
@@ -22151,7 +23057,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="37" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A37">
         <v>0.8</v>
       </c>
@@ -22213,7 +23119,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="38" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A38">
         <v>0.85</v>
       </c>
@@ -22275,7 +23181,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="39" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A39">
         <v>0.9</v>
       </c>
@@ -22337,7 +23243,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="40" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A40">
         <v>0.95</v>
       </c>
@@ -22399,7 +23305,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="41" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A41">
         <v>1</v>
       </c>
@@ -22461,7 +23367,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="42" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A42">
         <v>0.05</v>
       </c>
@@ -22523,7 +23429,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="43" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A43">
         <v>0.1</v>
       </c>
@@ -22585,7 +23491,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="44" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A44">
         <v>0.15</v>
       </c>
@@ -22647,7 +23553,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="45" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A45">
         <v>0.2</v>
       </c>
@@ -22709,7 +23615,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="46" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A46">
         <v>0.25</v>
       </c>
@@ -22771,7 +23677,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="47" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A47">
         <v>0.3</v>
       </c>
@@ -22833,7 +23739,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="48" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A48">
         <v>0.35</v>
       </c>
@@ -22895,7 +23801,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="49" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A49">
         <v>0.4</v>
       </c>
@@ -22957,7 +23863,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="50" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A50">
         <v>0.45</v>
       </c>
@@ -23019,7 +23925,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="51" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A51">
         <v>0.5</v>
       </c>
@@ -23081,7 +23987,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="52" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A52">
         <v>0.55000000000000004</v>
       </c>
@@ -23143,7 +24049,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="53" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A53">
         <v>0.6</v>
       </c>
@@ -23205,7 +24111,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="54" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A54">
         <v>0.65</v>
       </c>
@@ -23267,7 +24173,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="55" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A55">
         <v>0.7</v>
       </c>
@@ -23329,7 +24235,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="56" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A56">
         <v>0.75</v>
       </c>
@@ -23391,7 +24297,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="57" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A57">
         <v>0.8</v>
       </c>
@@ -23453,7 +24359,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="58" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A58">
         <v>0.85</v>
       </c>
@@ -23515,7 +24421,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="59" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A59">
         <v>0.9</v>
       </c>
@@ -23577,7 +24483,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="60" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A60">
         <v>0.95</v>
       </c>
@@ -23639,7 +24545,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="61" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A61">
         <v>1</v>
       </c>

--- a/2024_m5out_stats.xlsx
+++ b/2024_m5out_stats.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu-18.04\home\soliman\m5out_stats\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D95508F-9F8F-45A5-8743-535A3F48622A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6E7B3B3-9402-4293-B984-7FF29728BD12}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,14 +17,14 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$U$501</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$U$601</definedName>
   </definedNames>
   <calcPr calcId="0" refMode="R1C1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1161" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1361" uniqueCount="29">
   <si>
     <t>injection_rate</t>
   </si>
@@ -367,7 +367,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-2C80-4A5E-8532-6FAA6A69DF35}"/>
+              <c16:uniqueId val="{00000000-3A19-45EB-A82C-31CF15042B8C}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -550,7 +550,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-2C80-4A5E-8532-6FAA6A69DF35}"/>
+              <c16:uniqueId val="{00000001-3A19-45EB-A82C-31CF15042B8C}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -717,7 +717,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-2C80-4A5E-8532-6FAA6A69DF35}"/>
+              <c16:uniqueId val="{00000002-3A19-45EB-A82C-31CF15042B8C}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1226,10 +1226,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:U501"/>
+  <dimension ref="A1:U601"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="F1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="V8" sqref="V8"/>
+      <selection activeCell="V5" sqref="V5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -33812,6 +33812,6506 @@
         <v>3</v>
       </c>
     </row>
+    <row r="502" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A502">
+        <v>0.05</v>
+      </c>
+      <c r="B502" t="s">
+        <v>27</v>
+      </c>
+      <c r="C502">
+        <v>25000</v>
+      </c>
+      <c r="D502">
+        <v>36.819887430000001</v>
+      </c>
+      <c r="E502">
+        <v>34.819507123999998</v>
+      </c>
+      <c r="F502">
+        <v>2.0003803059999998</v>
+      </c>
+      <c r="G502">
+        <v>33.13582011199999</v>
+      </c>
+      <c r="H502">
+        <v>36.854547613999998</v>
+      </c>
+      <c r="I502">
+        <v>34.854369507999998</v>
+      </c>
+      <c r="J502">
+        <v>2.0001781040000002</v>
+      </c>
+      <c r="K502">
+        <v>34.834266784666667</v>
+      </c>
+      <c r="L502">
+        <v>39503</v>
+      </c>
+      <c r="M502">
+        <v>39442</v>
+      </c>
+      <c r="N502">
+        <v>16867</v>
+      </c>
+      <c r="O502">
+        <v>16844</v>
+      </c>
+      <c r="P502">
+        <v>0.99845581348252033</v>
+      </c>
+      <c r="Q502">
+        <v>0.99863639058516629</v>
+      </c>
+      <c r="R502">
+        <v>5.8432592592592592E-2</v>
+      </c>
+      <c r="S502">
+        <v>2.4954074074074069E-2</v>
+      </c>
+      <c r="T502" t="s">
+        <v>23</v>
+      </c>
+      <c r="U502">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="503" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A503">
+        <v>0.1</v>
+      </c>
+      <c r="B503" t="s">
+        <v>27</v>
+      </c>
+      <c r="C503">
+        <v>25000</v>
+      </c>
+      <c r="D503">
+        <v>43.374499962000002</v>
+      </c>
+      <c r="E503">
+        <v>41.345389455999999</v>
+      </c>
+      <c r="F503">
+        <v>2.0291105059999999</v>
+      </c>
+      <c r="G503">
+        <v>36.797398736000012</v>
+      </c>
+      <c r="H503">
+        <v>40.841737942000002</v>
+      </c>
+      <c r="I503">
+        <v>38.828165835999997</v>
+      </c>
+      <c r="J503">
+        <v>2.013572108</v>
+      </c>
+      <c r="K503">
+        <v>38.839308195999998</v>
+      </c>
+      <c r="L503">
+        <v>78608</v>
+      </c>
+      <c r="M503">
+        <v>78494</v>
+      </c>
+      <c r="N503">
+        <v>33720</v>
+      </c>
+      <c r="O503">
+        <v>33672</v>
+      </c>
+      <c r="P503">
+        <v>0.99854976592713207</v>
+      </c>
+      <c r="Q503">
+        <v>0.99857651245551604</v>
+      </c>
+      <c r="R503">
+        <v>0.11628740740740739</v>
+      </c>
+      <c r="S503">
+        <v>4.9884444444444447E-2</v>
+      </c>
+      <c r="T503" t="s">
+        <v>23</v>
+      </c>
+      <c r="U503">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="504" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A504">
+        <v>0.15</v>
+      </c>
+      <c r="B504" t="s">
+        <v>27</v>
+      </c>
+      <c r="C504">
+        <v>25000</v>
+      </c>
+      <c r="D504">
+        <v>1158.981539358</v>
+      </c>
+      <c r="E504">
+        <v>84.753139861999998</v>
+      </c>
+      <c r="F504">
+        <v>1074.2283994960001</v>
+      </c>
+      <c r="G504">
+        <v>58.959059542000013</v>
+      </c>
+      <c r="H504">
+        <v>525.63835038399998</v>
+      </c>
+      <c r="I504">
+        <v>57.945744120000001</v>
+      </c>
+      <c r="J504">
+        <v>467.69260626599998</v>
+      </c>
+      <c r="K504">
+        <v>61.247729545333343</v>
+      </c>
+      <c r="L504">
+        <v>103403</v>
+      </c>
+      <c r="M504">
+        <v>103030</v>
+      </c>
+      <c r="N504">
+        <v>47519</v>
+      </c>
+      <c r="O504">
+        <v>47405</v>
+      </c>
+      <c r="P504">
+        <v>0.99639275456224674</v>
+      </c>
+      <c r="Q504">
+        <v>0.99760095961615358</v>
+      </c>
+      <c r="R504">
+        <v>0.15263703703703699</v>
+      </c>
+      <c r="S504">
+        <v>7.0229629629629628E-2</v>
+      </c>
+      <c r="T504" t="s">
+        <v>23</v>
+      </c>
+      <c r="U504">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="505" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A505">
+        <v>0.2</v>
+      </c>
+      <c r="B505" t="s">
+        <v>27</v>
+      </c>
+      <c r="C505">
+        <v>25000</v>
+      </c>
+      <c r="D505">
+        <v>2108.5460247840001</v>
+      </c>
+      <c r="E505">
+        <v>80.295632212000001</v>
+      </c>
+      <c r="F505">
+        <v>2028.250392572</v>
+      </c>
+      <c r="G505">
+        <v>59.429755432666667</v>
+      </c>
+      <c r="H505">
+        <v>855.76117139600001</v>
+      </c>
+      <c r="I505">
+        <v>54.592201928000001</v>
+      </c>
+      <c r="J505">
+        <v>801.168969468</v>
+      </c>
+      <c r="K505">
+        <v>61.86301704466667</v>
+      </c>
+      <c r="L505">
+        <v>117596</v>
+      </c>
+      <c r="M505">
+        <v>117176</v>
+      </c>
+      <c r="N505">
+        <v>59496</v>
+      </c>
+      <c r="O505">
+        <v>59348</v>
+      </c>
+      <c r="P505">
+        <v>0.99642844994727708</v>
+      </c>
+      <c r="Q505">
+        <v>0.99751243781094523</v>
+      </c>
+      <c r="R505">
+        <v>0.1735940740740741</v>
+      </c>
+      <c r="S505">
+        <v>8.7922962962962953E-2</v>
+      </c>
+      <c r="T505" t="s">
+        <v>23</v>
+      </c>
+      <c r="U505">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="506" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A506">
+        <v>0.25</v>
+      </c>
+      <c r="B506" t="s">
+        <v>27</v>
+      </c>
+      <c r="C506">
+        <v>25000</v>
+      </c>
+      <c r="D506">
+        <v>2280.8653868000001</v>
+      </c>
+      <c r="E506">
+        <v>75.486048502000003</v>
+      </c>
+      <c r="F506">
+        <v>2205.3793382980002</v>
+      </c>
+      <c r="G506">
+        <v>59.684539611999988</v>
+      </c>
+      <c r="H506">
+        <v>868.95910942</v>
+      </c>
+      <c r="I506">
+        <v>53.337088399999999</v>
+      </c>
+      <c r="J506">
+        <v>815.62202102000003</v>
+      </c>
+      <c r="K506">
+        <v>62.294968207333334</v>
+      </c>
+      <c r="L506">
+        <v>132405</v>
+      </c>
+      <c r="M506">
+        <v>131993</v>
+      </c>
+      <c r="N506">
+        <v>71629</v>
+      </c>
+      <c r="O506">
+        <v>71459</v>
+      </c>
+      <c r="P506">
+        <v>0.99688833503266494</v>
+      </c>
+      <c r="Q506">
+        <v>0.99762665959318153</v>
+      </c>
+      <c r="R506">
+        <v>0.19554518518518521</v>
+      </c>
+      <c r="S506">
+        <v>0.1058651851851852</v>
+      </c>
+      <c r="T506" t="s">
+        <v>23</v>
+      </c>
+      <c r="U506">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="507" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A507">
+        <v>0.3</v>
+      </c>
+      <c r="B507" t="s">
+        <v>27</v>
+      </c>
+      <c r="C507">
+        <v>25000</v>
+      </c>
+      <c r="D507">
+        <v>2471.2414270280001</v>
+      </c>
+      <c r="E507">
+        <v>80.001025796000008</v>
+      </c>
+      <c r="F507">
+        <v>2391.2404012299999</v>
+      </c>
+      <c r="G507">
+        <v>69.361171974000001</v>
+      </c>
+      <c r="H507">
+        <v>1070.0786802340001</v>
+      </c>
+      <c r="I507">
+        <v>64.678400117999999</v>
+      </c>
+      <c r="J507">
+        <v>1005.400280116</v>
+      </c>
+      <c r="K507">
+        <v>72.188500334666656</v>
+      </c>
+      <c r="L507">
+        <v>145714</v>
+      </c>
+      <c r="M507">
+        <v>145253</v>
+      </c>
+      <c r="N507">
+        <v>80882</v>
+      </c>
+      <c r="O507">
+        <v>80681</v>
+      </c>
+      <c r="P507">
+        <v>0.99683626830640848</v>
+      </c>
+      <c r="Q507">
+        <v>0.99751489824682871</v>
+      </c>
+      <c r="R507">
+        <v>0.21518962962962959</v>
+      </c>
+      <c r="S507">
+        <v>0.1195274074074074</v>
+      </c>
+      <c r="T507" t="s">
+        <v>23</v>
+      </c>
+      <c r="U507">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="508" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A508">
+        <v>0.35</v>
+      </c>
+      <c r="B508" t="s">
+        <v>27</v>
+      </c>
+      <c r="C508">
+        <v>25000</v>
+      </c>
+      <c r="D508">
+        <v>2708.6296430860002</v>
+      </c>
+      <c r="E508">
+        <v>85.87209898399999</v>
+      </c>
+      <c r="F508">
+        <v>2622.7575441039999</v>
+      </c>
+      <c r="G508">
+        <v>78.525408177333347</v>
+      </c>
+      <c r="H508">
+        <v>1447.303870494</v>
+      </c>
+      <c r="I508">
+        <v>75.772700255999993</v>
+      </c>
+      <c r="J508">
+        <v>1371.531170238</v>
+      </c>
+      <c r="K508">
+        <v>81.398165682000013</v>
+      </c>
+      <c r="L508">
+        <v>154659</v>
+      </c>
+      <c r="M508">
+        <v>154127</v>
+      </c>
+      <c r="N508">
+        <v>86063</v>
+      </c>
+      <c r="O508">
+        <v>85803</v>
+      </c>
+      <c r="P508">
+        <v>0.99656017431898569</v>
+      </c>
+      <c r="Q508">
+        <v>0.99697895727548425</v>
+      </c>
+      <c r="R508">
+        <v>0.22833629629629629</v>
+      </c>
+      <c r="S508">
+        <v>0.12711555555555551</v>
+      </c>
+      <c r="T508" t="s">
+        <v>23</v>
+      </c>
+      <c r="U508">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="509" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A509">
+        <v>0.4</v>
+      </c>
+      <c r="B509" t="s">
+        <v>27</v>
+      </c>
+      <c r="C509">
+        <v>25000</v>
+      </c>
+      <c r="D509">
+        <v>3008.0895528860001</v>
+      </c>
+      <c r="E509">
+        <v>84.852252898000003</v>
+      </c>
+      <c r="F509">
+        <v>2923.2372999859999</v>
+      </c>
+      <c r="G509">
+        <v>78.995865413999994</v>
+      </c>
+      <c r="H509">
+        <v>1996.5063146959999</v>
+      </c>
+      <c r="I509">
+        <v>77.272062353999999</v>
+      </c>
+      <c r="J509">
+        <v>1919.234252342</v>
+      </c>
+      <c r="K509">
+        <v>81.874532254000002</v>
+      </c>
+      <c r="L509">
+        <v>162161</v>
+      </c>
+      <c r="M509">
+        <v>161614</v>
+      </c>
+      <c r="N509">
+        <v>89837</v>
+      </c>
+      <c r="O509">
+        <v>89553</v>
+      </c>
+      <c r="P509">
+        <v>0.99662680915879898</v>
+      </c>
+      <c r="Q509">
+        <v>0.9968387190133241</v>
+      </c>
+      <c r="R509">
+        <v>0.23942814814814811</v>
+      </c>
+      <c r="S509">
+        <v>0.1326711111111111</v>
+      </c>
+      <c r="T509" t="s">
+        <v>23</v>
+      </c>
+      <c r="U509">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="510" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A510">
+        <v>0.45</v>
+      </c>
+      <c r="B510" t="s">
+        <v>27</v>
+      </c>
+      <c r="C510">
+        <v>25000</v>
+      </c>
+      <c r="D510">
+        <v>3225.4548491999999</v>
+      </c>
+      <c r="E510">
+        <v>85.016526954</v>
+      </c>
+      <c r="F510">
+        <v>3140.4383222460001</v>
+      </c>
+      <c r="G510">
+        <v>79.483710385333339</v>
+      </c>
+      <c r="H510">
+        <v>2442.8474463980001</v>
+      </c>
+      <c r="I510">
+        <v>78.171931005999994</v>
+      </c>
+      <c r="J510">
+        <v>2364.6755153919999</v>
+      </c>
+      <c r="K510">
+        <v>82.339811572666676</v>
+      </c>
+      <c r="L510">
+        <v>168191</v>
+      </c>
+      <c r="M510">
+        <v>167605</v>
+      </c>
+      <c r="N510">
+        <v>92375</v>
+      </c>
+      <c r="O510">
+        <v>92066</v>
+      </c>
+      <c r="P510">
+        <v>0.99651586589056484</v>
+      </c>
+      <c r="Q510">
+        <v>0.99665493910690117</v>
+      </c>
+      <c r="R510">
+        <v>0.24830370370370369</v>
+      </c>
+      <c r="S510">
+        <v>0.13639407407407411</v>
+      </c>
+      <c r="T510" t="s">
+        <v>23</v>
+      </c>
+      <c r="U510">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="511" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A511">
+        <v>0.5</v>
+      </c>
+      <c r="B511" t="s">
+        <v>27</v>
+      </c>
+      <c r="C511">
+        <v>25000</v>
+      </c>
+      <c r="D511">
+        <v>3273.7525276820002</v>
+      </c>
+      <c r="E511">
+        <v>82.736553314000005</v>
+      </c>
+      <c r="F511">
+        <v>3191.0159743660001</v>
+      </c>
+      <c r="G511">
+        <v>77.834703986666668</v>
+      </c>
+      <c r="H511">
+        <v>2615.0325051919999</v>
+      </c>
+      <c r="I511">
+        <v>77.239920807999994</v>
+      </c>
+      <c r="J511">
+        <v>2537.7925843839998</v>
+      </c>
+      <c r="K511">
+        <v>80.665217679999998</v>
+      </c>
+      <c r="L511">
+        <v>173225</v>
+      </c>
+      <c r="M511">
+        <v>172589</v>
+      </c>
+      <c r="N511">
+        <v>93261</v>
+      </c>
+      <c r="O511">
+        <v>92939</v>
+      </c>
+      <c r="P511">
+        <v>0.99632847452734885</v>
+      </c>
+      <c r="Q511">
+        <v>0.99654732417623659</v>
+      </c>
+      <c r="R511">
+        <v>0.25568740740740742</v>
+      </c>
+      <c r="S511">
+        <v>0.1376874074074074</v>
+      </c>
+      <c r="T511" t="s">
+        <v>23</v>
+      </c>
+      <c r="U511">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="512" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A512">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="B512" t="s">
+        <v>27</v>
+      </c>
+      <c r="C512">
+        <v>25000</v>
+      </c>
+      <c r="D512">
+        <v>3169.0480200279999</v>
+      </c>
+      <c r="E512">
+        <v>83.081538539999997</v>
+      </c>
+      <c r="F512">
+        <v>3085.9664814880002</v>
+      </c>
+      <c r="G512">
+        <v>77.660654414666652</v>
+      </c>
+      <c r="H512">
+        <v>2549.7998280319998</v>
+      </c>
+      <c r="I512">
+        <v>77.070623327999996</v>
+      </c>
+      <c r="J512">
+        <v>2472.729204704</v>
+      </c>
+      <c r="K512">
+        <v>80.495483187333335</v>
+      </c>
+      <c r="L512">
+        <v>177556</v>
+      </c>
+      <c r="M512">
+        <v>176947</v>
+      </c>
+      <c r="N512">
+        <v>94504</v>
+      </c>
+      <c r="O512">
+        <v>94204</v>
+      </c>
+      <c r="P512">
+        <v>0.99657009619500325</v>
+      </c>
+      <c r="Q512">
+        <v>0.99682553119444683</v>
+      </c>
+      <c r="R512">
+        <v>0.26214370370370371</v>
+      </c>
+      <c r="S512">
+        <v>0.13956148148148151</v>
+      </c>
+      <c r="T512" t="s">
+        <v>23</v>
+      </c>
+      <c r="U512">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="513" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A513">
+        <v>0.6</v>
+      </c>
+      <c r="B513" t="s">
+        <v>27</v>
+      </c>
+      <c r="C513">
+        <v>25000</v>
+      </c>
+      <c r="D513">
+        <v>3193.5955986119998</v>
+      </c>
+      <c r="E513">
+        <v>83.671493278</v>
+      </c>
+      <c r="F513">
+        <v>3109.9241053360001</v>
+      </c>
+      <c r="G513">
+        <v>78.191045055999993</v>
+      </c>
+      <c r="H513">
+        <v>2739.0419657480002</v>
+      </c>
+      <c r="I513">
+        <v>77.597901198000002</v>
+      </c>
+      <c r="J513">
+        <v>2661.4440645499999</v>
+      </c>
+      <c r="K513">
+        <v>80.993784945333317</v>
+      </c>
+      <c r="L513">
+        <v>183418</v>
+      </c>
+      <c r="M513">
+        <v>182806</v>
+      </c>
+      <c r="N513">
+        <v>97426</v>
+      </c>
+      <c r="O513">
+        <v>97103</v>
+      </c>
+      <c r="P513">
+        <v>0.99666335910325055</v>
+      </c>
+      <c r="Q513">
+        <v>0.99668466323158089</v>
+      </c>
+      <c r="R513">
+        <v>0.27082370370370368</v>
+      </c>
+      <c r="S513">
+        <v>0.14385629629629629</v>
+      </c>
+      <c r="T513" t="s">
+        <v>23</v>
+      </c>
+      <c r="U513">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="514" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A514">
+        <v>0.65</v>
+      </c>
+      <c r="B514" t="s">
+        <v>27</v>
+      </c>
+      <c r="C514">
+        <v>25000</v>
+      </c>
+      <c r="D514">
+        <v>3027.4881223920002</v>
+      </c>
+      <c r="E514">
+        <v>83.720709428000006</v>
+      </c>
+      <c r="F514">
+        <v>2943.767412962</v>
+      </c>
+      <c r="G514">
+        <v>78.004735053999994</v>
+      </c>
+      <c r="H514">
+        <v>2624.2198783959998</v>
+      </c>
+      <c r="I514">
+        <v>77.713767215999994</v>
+      </c>
+      <c r="J514">
+        <v>2546.5061111800001</v>
+      </c>
+      <c r="K514">
+        <v>80.777052747333315</v>
+      </c>
+      <c r="L514">
+        <v>186543</v>
+      </c>
+      <c r="M514">
+        <v>185896</v>
+      </c>
+      <c r="N514">
+        <v>97015</v>
+      </c>
+      <c r="O514">
+        <v>96708</v>
+      </c>
+      <c r="P514">
+        <v>0.99653163077681817</v>
+      </c>
+      <c r="Q514">
+        <v>0.99683554089573778</v>
+      </c>
+      <c r="R514">
+        <v>0.27540148148148152</v>
+      </c>
+      <c r="S514">
+        <v>0.1432711111111111</v>
+      </c>
+      <c r="T514" t="s">
+        <v>23</v>
+      </c>
+      <c r="U514">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="515" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A515">
+        <v>0.7</v>
+      </c>
+      <c r="B515" t="s">
+        <v>27</v>
+      </c>
+      <c r="C515">
+        <v>25000</v>
+      </c>
+      <c r="D515">
+        <v>2812.2450884979999</v>
+      </c>
+      <c r="E515">
+        <v>84.636211967999998</v>
+      </c>
+      <c r="F515">
+        <v>2727.6088765300001</v>
+      </c>
+      <c r="G515">
+        <v>78.281719548000012</v>
+      </c>
+      <c r="H515">
+        <v>2446.1987824319999</v>
+      </c>
+      <c r="I515">
+        <v>77.986896557999998</v>
+      </c>
+      <c r="J515">
+        <v>2368.211885874</v>
+      </c>
+      <c r="K515">
+        <v>80.981372394000005</v>
+      </c>
+      <c r="L515">
+        <v>187681</v>
+      </c>
+      <c r="M515">
+        <v>187010</v>
+      </c>
+      <c r="N515">
+        <v>96241</v>
+      </c>
+      <c r="O515">
+        <v>95929</v>
+      </c>
+      <c r="P515">
+        <v>0.99642478460792516</v>
+      </c>
+      <c r="Q515">
+        <v>0.99675813842333305</v>
+      </c>
+      <c r="R515">
+        <v>0.27705185185185188</v>
+      </c>
+      <c r="S515">
+        <v>0.14211703703703699</v>
+      </c>
+      <c r="T515" t="s">
+        <v>23</v>
+      </c>
+      <c r="U515">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="516" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A516">
+        <v>0.75</v>
+      </c>
+      <c r="B516" t="s">
+        <v>27</v>
+      </c>
+      <c r="C516">
+        <v>25000</v>
+      </c>
+      <c r="D516">
+        <v>2691.08714835</v>
+      </c>
+      <c r="E516">
+        <v>84.161824207999999</v>
+      </c>
+      <c r="F516">
+        <v>2606.9253241420001</v>
+      </c>
+      <c r="G516">
+        <v>76.900874776666683</v>
+      </c>
+      <c r="H516">
+        <v>2402.0931184239998</v>
+      </c>
+      <c r="I516">
+        <v>76.501367545999997</v>
+      </c>
+      <c r="J516">
+        <v>2325.5917508759999</v>
+      </c>
+      <c r="K516">
+        <v>79.588836955999994</v>
+      </c>
+      <c r="L516">
+        <v>189200</v>
+      </c>
+      <c r="M516">
+        <v>188575</v>
+      </c>
+      <c r="N516">
+        <v>96104</v>
+      </c>
+      <c r="O516">
+        <v>95792</v>
+      </c>
+      <c r="P516">
+        <v>0.99669661733615222</v>
+      </c>
+      <c r="Q516">
+        <v>0.99675351702322479</v>
+      </c>
+      <c r="R516">
+        <v>0.27937037037037038</v>
+      </c>
+      <c r="S516">
+        <v>0.14191407407407411</v>
+      </c>
+      <c r="T516" t="s">
+        <v>23</v>
+      </c>
+      <c r="U516">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="517" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A517">
+        <v>0.8</v>
+      </c>
+      <c r="B517" t="s">
+        <v>27</v>
+      </c>
+      <c r="C517">
+        <v>25000</v>
+      </c>
+      <c r="D517">
+        <v>2900.4616132020001</v>
+      </c>
+      <c r="E517">
+        <v>84.974810611999999</v>
+      </c>
+      <c r="F517">
+        <v>2815.48680259</v>
+      </c>
+      <c r="G517">
+        <v>77.583409559333333</v>
+      </c>
+      <c r="H517">
+        <v>2645.7168150580001</v>
+      </c>
+      <c r="I517">
+        <v>76.976531690000002</v>
+      </c>
+      <c r="J517">
+        <v>2568.7402833679998</v>
+      </c>
+      <c r="K517">
+        <v>80.254372073333329</v>
+      </c>
+      <c r="L517">
+        <v>193149</v>
+      </c>
+      <c r="M517">
+        <v>192462</v>
+      </c>
+      <c r="N517">
+        <v>98709</v>
+      </c>
+      <c r="O517">
+        <v>98388</v>
+      </c>
+      <c r="P517">
+        <v>0.99644316046161252</v>
+      </c>
+      <c r="Q517">
+        <v>0.99674801689815518</v>
+      </c>
+      <c r="R517">
+        <v>0.28512888888888888</v>
+      </c>
+      <c r="S517">
+        <v>0.14576</v>
+      </c>
+      <c r="T517" t="s">
+        <v>23</v>
+      </c>
+      <c r="U517">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="518" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A518">
+        <v>0.85</v>
+      </c>
+      <c r="B518" t="s">
+        <v>27</v>
+      </c>
+      <c r="C518">
+        <v>25000</v>
+      </c>
+      <c r="D518">
+        <v>3012.0942247040002</v>
+      </c>
+      <c r="E518">
+        <v>84.395392336</v>
+      </c>
+      <c r="F518">
+        <v>2927.6988323679998</v>
+      </c>
+      <c r="G518">
+        <v>76.285272170666659</v>
+      </c>
+      <c r="H518">
+        <v>2793.4478198820002</v>
+      </c>
+      <c r="I518">
+        <v>75.202532907999995</v>
+      </c>
+      <c r="J518">
+        <v>2718.245286974</v>
+      </c>
+      <c r="K518">
+        <v>78.96412642866666</v>
+      </c>
+      <c r="L518">
+        <v>194757</v>
+      </c>
+      <c r="M518">
+        <v>194068</v>
+      </c>
+      <c r="N518">
+        <v>100529</v>
+      </c>
+      <c r="O518">
+        <v>100201</v>
+      </c>
+      <c r="P518">
+        <v>0.99646225809598632</v>
+      </c>
+      <c r="Q518">
+        <v>0.9967372598951546</v>
+      </c>
+      <c r="R518">
+        <v>0.28750814814814812</v>
+      </c>
+      <c r="S518">
+        <v>0.1484459259259259</v>
+      </c>
+      <c r="T518" t="s">
+        <v>23</v>
+      </c>
+      <c r="U518">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="519" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A519">
+        <v>0.9</v>
+      </c>
+      <c r="B519" t="s">
+        <v>27</v>
+      </c>
+      <c r="C519">
+        <v>25000</v>
+      </c>
+      <c r="D519">
+        <v>3072.342505694</v>
+      </c>
+      <c r="E519">
+        <v>84.592814615999998</v>
+      </c>
+      <c r="F519">
+        <v>2987.7496910780001</v>
+      </c>
+      <c r="G519">
+        <v>76.356438684666657</v>
+      </c>
+      <c r="H519">
+        <v>2898.6910375500001</v>
+      </c>
+      <c r="I519">
+        <v>74.972738320000005</v>
+      </c>
+      <c r="J519">
+        <v>2823.7182992319999</v>
+      </c>
+      <c r="K519">
+        <v>79.027033118000006</v>
+      </c>
+      <c r="L519">
+        <v>196543</v>
+      </c>
+      <c r="M519">
+        <v>195842</v>
+      </c>
+      <c r="N519">
+        <v>102371</v>
+      </c>
+      <c r="O519">
+        <v>102048</v>
+      </c>
+      <c r="P519">
+        <v>0.99643335046274861</v>
+      </c>
+      <c r="Q519">
+        <v>0.99684480956520893</v>
+      </c>
+      <c r="R519">
+        <v>0.29013629629629628</v>
+      </c>
+      <c r="S519">
+        <v>0.15118222222222219</v>
+      </c>
+      <c r="T519" t="s">
+        <v>23</v>
+      </c>
+      <c r="U519">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="520" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A520">
+        <v>0.95</v>
+      </c>
+      <c r="B520" t="s">
+        <v>27</v>
+      </c>
+      <c r="C520">
+        <v>25000</v>
+      </c>
+      <c r="D520">
+        <v>3385.903799836</v>
+      </c>
+      <c r="E520">
+        <v>84.468917973999993</v>
+      </c>
+      <c r="F520">
+        <v>3301.4348818620001</v>
+      </c>
+      <c r="G520">
+        <v>75.672818558000003</v>
+      </c>
+      <c r="H520">
+        <v>3122.7398204740002</v>
+      </c>
+      <c r="I520">
+        <v>73.782505730000011</v>
+      </c>
+      <c r="J520">
+        <v>3048.9573147440001</v>
+      </c>
+      <c r="K520">
+        <v>78.353914479999986</v>
+      </c>
+      <c r="L520">
+        <v>199587</v>
+      </c>
+      <c r="M520">
+        <v>198877</v>
+      </c>
+      <c r="N520">
+        <v>105043</v>
+      </c>
+      <c r="O520">
+        <v>104720</v>
+      </c>
+      <c r="P520">
+        <v>0.99644265408067656</v>
+      </c>
+      <c r="Q520">
+        <v>0.99692506878135623</v>
+      </c>
+      <c r="R520">
+        <v>0.29463259259259261</v>
+      </c>
+      <c r="S520">
+        <v>0.15514074074074069</v>
+      </c>
+      <c r="T520" t="s">
+        <v>23</v>
+      </c>
+      <c r="U520">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="521" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A521">
+        <v>1</v>
+      </c>
+      <c r="B521" t="s">
+        <v>27</v>
+      </c>
+      <c r="C521">
+        <v>25000</v>
+      </c>
+      <c r="D521">
+        <v>3624.266141434</v>
+      </c>
+      <c r="E521">
+        <v>84.515774386000004</v>
+      </c>
+      <c r="F521">
+        <v>3539.750367048</v>
+      </c>
+      <c r="G521">
+        <v>75.867883434000007</v>
+      </c>
+      <c r="H521">
+        <v>3247.1756642800001</v>
+      </c>
+      <c r="I521">
+        <v>73.788207847999999</v>
+      </c>
+      <c r="J521">
+        <v>3173.3874564319999</v>
+      </c>
+      <c r="K521">
+        <v>78.559803549999998</v>
+      </c>
+      <c r="L521">
+        <v>201633</v>
+      </c>
+      <c r="M521">
+        <v>200927</v>
+      </c>
+      <c r="N521">
+        <v>107057</v>
+      </c>
+      <c r="O521">
+        <v>106732</v>
+      </c>
+      <c r="P521">
+        <v>0.99649858902064647</v>
+      </c>
+      <c r="Q521">
+        <v>0.99696423400618361</v>
+      </c>
+      <c r="R521">
+        <v>0.29766962962962962</v>
+      </c>
+      <c r="S521">
+        <v>0.1581214814814815</v>
+      </c>
+      <c r="T521" t="s">
+        <v>23</v>
+      </c>
+      <c r="U521">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="522" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A522">
+        <v>0.05</v>
+      </c>
+      <c r="B522" t="s">
+        <v>24</v>
+      </c>
+      <c r="C522">
+        <v>25000</v>
+      </c>
+      <c r="D522">
+        <v>32.719008658</v>
+      </c>
+      <c r="E522">
+        <v>30.717462657999999</v>
+      </c>
+      <c r="F522">
+        <v>2.0015459999999998</v>
+      </c>
+      <c r="G522">
+        <v>29.346809709999999</v>
+      </c>
+      <c r="H522">
+        <v>33.373002198000002</v>
+      </c>
+      <c r="I522">
+        <v>31.372229814000001</v>
+      </c>
+      <c r="J522">
+        <v>2.0007723839999998</v>
+      </c>
+      <c r="K522">
+        <v>31.049618927333331</v>
+      </c>
+      <c r="L522">
+        <v>42073</v>
+      </c>
+      <c r="M522">
+        <v>42044</v>
+      </c>
+      <c r="N522">
+        <v>16845</v>
+      </c>
+      <c r="O522">
+        <v>16831</v>
+      </c>
+      <c r="P522">
+        <v>0.99931072184061032</v>
+      </c>
+      <c r="Q522">
+        <v>0.99916889284654198</v>
+      </c>
+      <c r="R522">
+        <v>6.2287407407407402E-2</v>
+      </c>
+      <c r="S522">
+        <v>2.4934814814814809E-2</v>
+      </c>
+      <c r="T522" t="s">
+        <v>23</v>
+      </c>
+      <c r="U522">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="523" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A523">
+        <v>0.1</v>
+      </c>
+      <c r="B523" t="s">
+        <v>24</v>
+      </c>
+      <c r="C523">
+        <v>25000</v>
+      </c>
+      <c r="D523">
+        <v>36.861546924000002</v>
+      </c>
+      <c r="E523">
+        <v>34.822204151999998</v>
+      </c>
+      <c r="F523">
+        <v>2.0393427719999999</v>
+      </c>
+      <c r="G523">
+        <v>31.66006376266667</v>
+      </c>
+      <c r="H523">
+        <v>36.075463855999999</v>
+      </c>
+      <c r="I523">
+        <v>34.055929939999999</v>
+      </c>
+      <c r="J523">
+        <v>2.019533918</v>
+      </c>
+      <c r="K523">
+        <v>33.61333702466667</v>
+      </c>
+      <c r="L523">
+        <v>83734</v>
+      </c>
+      <c r="M523">
+        <v>83624</v>
+      </c>
+      <c r="N523">
+        <v>33734</v>
+      </c>
+      <c r="O523">
+        <v>33685</v>
+      </c>
+      <c r="P523">
+        <v>0.99868631619175008</v>
+      </c>
+      <c r="Q523">
+        <v>0.99854745953637281</v>
+      </c>
+      <c r="R523">
+        <v>0.1238874074074074</v>
+      </c>
+      <c r="S523">
+        <v>4.9903703703703707E-2</v>
+      </c>
+      <c r="T523" t="s">
+        <v>23</v>
+      </c>
+      <c r="U523">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="524" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A524">
+        <v>0.15</v>
+      </c>
+      <c r="B524" t="s">
+        <v>24</v>
+      </c>
+      <c r="C524">
+        <v>25000</v>
+      </c>
+      <c r="D524">
+        <v>661.29651272799993</v>
+      </c>
+      <c r="E524">
+        <v>61.773258511999998</v>
+      </c>
+      <c r="F524">
+        <v>599.52325421599994</v>
+      </c>
+      <c r="G524">
+        <v>44.599388717999993</v>
+      </c>
+      <c r="H524">
+        <v>334.190435192</v>
+      </c>
+      <c r="I524">
+        <v>47.372752804000001</v>
+      </c>
+      <c r="J524">
+        <v>286.81768239000002</v>
+      </c>
+      <c r="K524">
+        <v>46.760032569333333</v>
+      </c>
+      <c r="L524">
+        <v>116659</v>
+      </c>
+      <c r="M524">
+        <v>116366</v>
+      </c>
+      <c r="N524">
+        <v>48871</v>
+      </c>
+      <c r="O524">
+        <v>48783</v>
+      </c>
+      <c r="P524">
+        <v>0.99748840638099079</v>
+      </c>
+      <c r="Q524">
+        <v>0.99819934112254716</v>
+      </c>
+      <c r="R524">
+        <v>0.17239407407407409</v>
+      </c>
+      <c r="S524">
+        <v>7.2271111111111119E-2</v>
+      </c>
+      <c r="T524" t="s">
+        <v>23</v>
+      </c>
+      <c r="U524">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="525" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A525">
+        <v>0.2</v>
+      </c>
+      <c r="B525" t="s">
+        <v>24</v>
+      </c>
+      <c r="C525">
+        <v>25000</v>
+      </c>
+      <c r="D525">
+        <v>1668.228871498</v>
+      </c>
+      <c r="E525">
+        <v>61.622408131999997</v>
+      </c>
+      <c r="F525">
+        <v>1606.6064633660001</v>
+      </c>
+      <c r="G525">
+        <v>45.799489387333338</v>
+      </c>
+      <c r="H525">
+        <v>753.34515389800004</v>
+      </c>
+      <c r="I525">
+        <v>46.238109369999997</v>
+      </c>
+      <c r="J525">
+        <v>707.10704452999994</v>
+      </c>
+      <c r="K525">
+        <v>48.016389954666657</v>
+      </c>
+      <c r="L525">
+        <v>133745</v>
+      </c>
+      <c r="M525">
+        <v>133398</v>
+      </c>
+      <c r="N525">
+        <v>60781</v>
+      </c>
+      <c r="O525">
+        <v>60657</v>
+      </c>
+      <c r="P525">
+        <v>0.99740551048637327</v>
+      </c>
+      <c r="Q525">
+        <v>0.99795988878103359</v>
+      </c>
+      <c r="R525">
+        <v>0.19762666666666659</v>
+      </c>
+      <c r="S525">
+        <v>8.9862222222222232E-2</v>
+      </c>
+      <c r="T525" t="s">
+        <v>23</v>
+      </c>
+      <c r="U525">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="526" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A526">
+        <v>0.25</v>
+      </c>
+      <c r="B526" t="s">
+        <v>24</v>
+      </c>
+      <c r="C526">
+        <v>25000</v>
+      </c>
+      <c r="D526">
+        <v>2191.9617078800002</v>
+      </c>
+      <c r="E526">
+        <v>57.406239286000002</v>
+      </c>
+      <c r="F526">
+        <v>2134.5554685940001</v>
+      </c>
+      <c r="G526">
+        <v>45.964569640000001</v>
+      </c>
+      <c r="H526">
+        <v>950.01274468200006</v>
+      </c>
+      <c r="I526">
+        <v>45.938516808000003</v>
+      </c>
+      <c r="J526">
+        <v>904.07422787400003</v>
+      </c>
+      <c r="K526">
+        <v>48.258675838666669</v>
+      </c>
+      <c r="L526">
+        <v>154976</v>
+      </c>
+      <c r="M526">
+        <v>154601</v>
+      </c>
+      <c r="N526">
+        <v>73348</v>
+      </c>
+      <c r="O526">
+        <v>73207</v>
+      </c>
+      <c r="P526">
+        <v>0.99758027049349574</v>
+      </c>
+      <c r="Q526">
+        <v>0.99807765719583352</v>
+      </c>
+      <c r="R526">
+        <v>0.2290385185185185</v>
+      </c>
+      <c r="S526">
+        <v>0.1084548148148148</v>
+      </c>
+      <c r="T526" t="s">
+        <v>23</v>
+      </c>
+      <c r="U526">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="527" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A527">
+        <v>0.3</v>
+      </c>
+      <c r="B527" t="s">
+        <v>24</v>
+      </c>
+      <c r="C527">
+        <v>25000</v>
+      </c>
+      <c r="D527">
+        <v>2206.7366427799998</v>
+      </c>
+      <c r="E527">
+        <v>57.99400705</v>
+      </c>
+      <c r="F527">
+        <v>2148.7426357320001</v>
+      </c>
+      <c r="G527">
+        <v>51.095299124666667</v>
+      </c>
+      <c r="H527">
+        <v>1146.8636866280001</v>
+      </c>
+      <c r="I527">
+        <v>51.465323685999998</v>
+      </c>
+      <c r="J527">
+        <v>1095.3983629419999</v>
+      </c>
+      <c r="K527">
+        <v>53.50318279333333</v>
+      </c>
+      <c r="L527">
+        <v>171764</v>
+      </c>
+      <c r="M527">
+        <v>171368</v>
+      </c>
+      <c r="N527">
+        <v>83372</v>
+      </c>
+      <c r="O527">
+        <v>83198</v>
+      </c>
+      <c r="P527">
+        <v>0.99769451107333318</v>
+      </c>
+      <c r="Q527">
+        <v>0.99791296838267041</v>
+      </c>
+      <c r="R527">
+        <v>0.25387851851851861</v>
+      </c>
+      <c r="S527">
+        <v>0.12325629629629629</v>
+      </c>
+      <c r="T527" t="s">
+        <v>23</v>
+      </c>
+      <c r="U527">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="528" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A528">
+        <v>0.35</v>
+      </c>
+      <c r="B528" t="s">
+        <v>24</v>
+      </c>
+      <c r="C528">
+        <v>25000</v>
+      </c>
+      <c r="D528">
+        <v>2553.6727833939999</v>
+      </c>
+      <c r="E528">
+        <v>58.041656615999997</v>
+      </c>
+      <c r="F528">
+        <v>2495.6311267800002</v>
+      </c>
+      <c r="G528">
+        <v>51.814311253333329</v>
+      </c>
+      <c r="H528">
+        <v>1241.4518411260001</v>
+      </c>
+      <c r="I528">
+        <v>51.860069981999999</v>
+      </c>
+      <c r="J528">
+        <v>1189.5917711459999</v>
+      </c>
+      <c r="K528">
+        <v>54.265725409999988</v>
+      </c>
+      <c r="L528">
+        <v>182795</v>
+      </c>
+      <c r="M528">
+        <v>182396</v>
+      </c>
+      <c r="N528">
+        <v>91351</v>
+      </c>
+      <c r="O528">
+        <v>91167</v>
+      </c>
+      <c r="P528">
+        <v>0.99781722694822073</v>
+      </c>
+      <c r="Q528">
+        <v>0.99798579106961061</v>
+      </c>
+      <c r="R528">
+        <v>0.27021629629629629</v>
+      </c>
+      <c r="S528">
+        <v>0.13506222222222219</v>
+      </c>
+      <c r="T528" t="s">
+        <v>23</v>
+      </c>
+      <c r="U528">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="529" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A529">
+        <v>0.4</v>
+      </c>
+      <c r="B529" t="s">
+        <v>24</v>
+      </c>
+      <c r="C529">
+        <v>25000</v>
+      </c>
+      <c r="D529">
+        <v>2655.5945213800001</v>
+      </c>
+      <c r="E529">
+        <v>54.707410314000001</v>
+      </c>
+      <c r="F529">
+        <v>2600.8871110660002</v>
+      </c>
+      <c r="G529">
+        <v>51.370655816666662</v>
+      </c>
+      <c r="H529">
+        <v>1516.45111739</v>
+      </c>
+      <c r="I529">
+        <v>52.381433341999987</v>
+      </c>
+      <c r="J529">
+        <v>1464.069684048</v>
+      </c>
+      <c r="K529">
+        <v>53.815230407333331</v>
+      </c>
+      <c r="L529">
+        <v>197925</v>
+      </c>
+      <c r="M529">
+        <v>197495</v>
+      </c>
+      <c r="N529">
+        <v>97525</v>
+      </c>
+      <c r="O529">
+        <v>97325</v>
+      </c>
+      <c r="P529">
+        <v>0.99782745989642541</v>
+      </c>
+      <c r="Q529">
+        <v>0.99794924378364525</v>
+      </c>
+      <c r="R529">
+        <v>0.29258518518518523</v>
+      </c>
+      <c r="S529">
+        <v>0.14418518518518519</v>
+      </c>
+      <c r="T529" t="s">
+        <v>23</v>
+      </c>
+      <c r="U529">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="530" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A530">
+        <v>0.45</v>
+      </c>
+      <c r="B530" t="s">
+        <v>24</v>
+      </c>
+      <c r="C530">
+        <v>25000</v>
+      </c>
+      <c r="D530">
+        <v>2825.94191688</v>
+      </c>
+      <c r="E530">
+        <v>56.445809099999998</v>
+      </c>
+      <c r="F530">
+        <v>2769.4961077819999</v>
+      </c>
+      <c r="G530">
+        <v>52.350530838666657</v>
+      </c>
+      <c r="H530">
+        <v>1724.2258235419999</v>
+      </c>
+      <c r="I530">
+        <v>52.157896727999997</v>
+      </c>
+      <c r="J530">
+        <v>1672.067926814</v>
+      </c>
+      <c r="K530">
+        <v>54.797711320666657</v>
+      </c>
+      <c r="L530">
+        <v>203689</v>
+      </c>
+      <c r="M530">
+        <v>203226</v>
+      </c>
+      <c r="N530">
+        <v>105925</v>
+      </c>
+      <c r="O530">
+        <v>105702</v>
+      </c>
+      <c r="P530">
+        <v>0.99772692683453701</v>
+      </c>
+      <c r="Q530">
+        <v>0.99789473684210528</v>
+      </c>
+      <c r="R530">
+        <v>0.30107555555555549</v>
+      </c>
+      <c r="S530">
+        <v>0.15659555555555549</v>
+      </c>
+      <c r="T530" t="s">
+        <v>23</v>
+      </c>
+      <c r="U530">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="531" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A531">
+        <v>0.5</v>
+      </c>
+      <c r="B531" t="s">
+        <v>24</v>
+      </c>
+      <c r="C531">
+        <v>25000</v>
+      </c>
+      <c r="D531">
+        <v>3081.2470914300002</v>
+      </c>
+      <c r="E531">
+        <v>52.361536684000001</v>
+      </c>
+      <c r="F531">
+        <v>3028.8855547459998</v>
+      </c>
+      <c r="G531">
+        <v>51.07002549333334</v>
+      </c>
+      <c r="H531">
+        <v>1838.0838080640001</v>
+      </c>
+      <c r="I531">
+        <v>52.288197487999987</v>
+      </c>
+      <c r="J531">
+        <v>1785.7956105759999</v>
+      </c>
+      <c r="K531">
+        <v>53.490498666000001</v>
+      </c>
+      <c r="L531">
+        <v>221277</v>
+      </c>
+      <c r="M531">
+        <v>220813</v>
+      </c>
+      <c r="N531">
+        <v>109777</v>
+      </c>
+      <c r="O531">
+        <v>109536</v>
+      </c>
+      <c r="P531">
+        <v>0.99790308075398704</v>
+      </c>
+      <c r="Q531">
+        <v>0.99780464031627758</v>
+      </c>
+      <c r="R531">
+        <v>0.3271303703703704</v>
+      </c>
+      <c r="S531">
+        <v>0.16227555555555551</v>
+      </c>
+      <c r="T531" t="s">
+        <v>23</v>
+      </c>
+      <c r="U531">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="532" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A532">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="B532" t="s">
+        <v>24</v>
+      </c>
+      <c r="C532">
+        <v>25000</v>
+      </c>
+      <c r="D532">
+        <v>3173.3969920159998</v>
+      </c>
+      <c r="E532">
+        <v>53.329686478000013</v>
+      </c>
+      <c r="F532">
+        <v>3120.0673055379998</v>
+      </c>
+      <c r="G532">
+        <v>50.642223813999998</v>
+      </c>
+      <c r="H532">
+        <v>2228.4459226600002</v>
+      </c>
+      <c r="I532">
+        <v>51.142206127999998</v>
+      </c>
+      <c r="J532">
+        <v>2177.3037165320002</v>
+      </c>
+      <c r="K532">
+        <v>53.065331508666659</v>
+      </c>
+      <c r="L532">
+        <v>223654</v>
+      </c>
+      <c r="M532">
+        <v>223206</v>
+      </c>
+      <c r="N532">
+        <v>114550</v>
+      </c>
+      <c r="O532">
+        <v>114327</v>
+      </c>
+      <c r="P532">
+        <v>0.99799690593506041</v>
+      </c>
+      <c r="Q532">
+        <v>0.99805325185508509</v>
+      </c>
+      <c r="R532">
+        <v>0.33067555555555561</v>
+      </c>
+      <c r="S532">
+        <v>0.16937333333333329</v>
+      </c>
+      <c r="T532" t="s">
+        <v>23</v>
+      </c>
+      <c r="U532">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="533" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A533">
+        <v>0.6</v>
+      </c>
+      <c r="B533" t="s">
+        <v>24</v>
+      </c>
+      <c r="C533">
+        <v>25000</v>
+      </c>
+      <c r="D533">
+        <v>3234.2137104439998</v>
+      </c>
+      <c r="E533">
+        <v>52.578042007999997</v>
+      </c>
+      <c r="F533">
+        <v>3181.6356684379998</v>
+      </c>
+      <c r="G533">
+        <v>50.101565239999999</v>
+      </c>
+      <c r="H533">
+        <v>2343.5878197400002</v>
+      </c>
+      <c r="I533">
+        <v>50.225090397999999</v>
+      </c>
+      <c r="J533">
+        <v>2293.362729342</v>
+      </c>
+      <c r="K533">
+        <v>52.512803195999993</v>
+      </c>
+      <c r="L533">
+        <v>231663</v>
+      </c>
+      <c r="M533">
+        <v>231196</v>
+      </c>
+      <c r="N533">
+        <v>119711</v>
+      </c>
+      <c r="O533">
+        <v>119472</v>
+      </c>
+      <c r="P533">
+        <v>0.99798414075618458</v>
+      </c>
+      <c r="Q533">
+        <v>0.99800352515641833</v>
+      </c>
+      <c r="R533">
+        <v>0.34251259259259259</v>
+      </c>
+      <c r="S533">
+        <v>0.17699555555555549</v>
+      </c>
+      <c r="T533" t="s">
+        <v>23</v>
+      </c>
+      <c r="U533">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="534" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A534">
+        <v>0.65</v>
+      </c>
+      <c r="B534" t="s">
+        <v>24</v>
+      </c>
+      <c r="C534">
+        <v>25000</v>
+      </c>
+      <c r="D534">
+        <v>3436.65066144</v>
+      </c>
+      <c r="E534">
+        <v>49.072931142000002</v>
+      </c>
+      <c r="F534">
+        <v>3387.5777303</v>
+      </c>
+      <c r="G534">
+        <v>47.483542736666656</v>
+      </c>
+      <c r="H534">
+        <v>2710.205980146</v>
+      </c>
+      <c r="I534">
+        <v>48.307585484000001</v>
+      </c>
+      <c r="J534">
+        <v>2661.8983946620001</v>
+      </c>
+      <c r="K534">
+        <v>49.944610145333343</v>
+      </c>
+      <c r="L534">
+        <v>249513</v>
+      </c>
+      <c r="M534">
+        <v>249002</v>
+      </c>
+      <c r="N534">
+        <v>126261</v>
+      </c>
+      <c r="O534">
+        <v>126017</v>
+      </c>
+      <c r="P534">
+        <v>0.99795201051648608</v>
+      </c>
+      <c r="Q534">
+        <v>0.99806749510933701</v>
+      </c>
+      <c r="R534">
+        <v>0.36889185185185192</v>
+      </c>
+      <c r="S534">
+        <v>0.18669185185185189</v>
+      </c>
+      <c r="T534" t="s">
+        <v>23</v>
+      </c>
+      <c r="U534">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="535" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A535">
+        <v>0.7</v>
+      </c>
+      <c r="B535" t="s">
+        <v>24</v>
+      </c>
+      <c r="C535">
+        <v>25000</v>
+      </c>
+      <c r="D535">
+        <v>3297.6621718060001</v>
+      </c>
+      <c r="E535">
+        <v>49.330283014000003</v>
+      </c>
+      <c r="F535">
+        <v>3248.331888792</v>
+      </c>
+      <c r="G535">
+        <v>46.894669661333339</v>
+      </c>
+      <c r="H535">
+        <v>2660.1173233519999</v>
+      </c>
+      <c r="I535">
+        <v>47.345533130000007</v>
+      </c>
+      <c r="J535">
+        <v>2612.7717902220002</v>
+      </c>
+      <c r="K535">
+        <v>49.385465574000001</v>
+      </c>
+      <c r="L535">
+        <v>252715</v>
+      </c>
+      <c r="M535">
+        <v>252214</v>
+      </c>
+      <c r="N535">
+        <v>129811</v>
+      </c>
+      <c r="O535">
+        <v>129565</v>
+      </c>
+      <c r="P535">
+        <v>0.99801752962823731</v>
+      </c>
+      <c r="Q535">
+        <v>0.99810493717789706</v>
+      </c>
+      <c r="R535">
+        <v>0.37365037037037041</v>
+      </c>
+      <c r="S535">
+        <v>0.19194814814814809</v>
+      </c>
+      <c r="T535" t="s">
+        <v>23</v>
+      </c>
+      <c r="U535">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="536" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A536">
+        <v>0.75</v>
+      </c>
+      <c r="B536" t="s">
+        <v>24</v>
+      </c>
+      <c r="C536">
+        <v>25000</v>
+      </c>
+      <c r="D536">
+        <v>3359.9751719340002</v>
+      </c>
+      <c r="E536">
+        <v>47.328542740000003</v>
+      </c>
+      <c r="F536">
+        <v>3312.6466291940001</v>
+      </c>
+      <c r="G536">
+        <v>45.996824592666663</v>
+      </c>
+      <c r="H536">
+        <v>2928.5858676859998</v>
+      </c>
+      <c r="I536">
+        <v>46.565506698</v>
+      </c>
+      <c r="J536">
+        <v>2882.020360988</v>
+      </c>
+      <c r="K536">
+        <v>48.622054667333337</v>
+      </c>
+      <c r="L536">
+        <v>267913</v>
+      </c>
+      <c r="M536">
+        <v>267399</v>
+      </c>
+      <c r="N536">
+        <v>135645</v>
+      </c>
+      <c r="O536">
+        <v>135406</v>
+      </c>
+      <c r="P536">
+        <v>0.99808146674480147</v>
+      </c>
+      <c r="Q536">
+        <v>0.99823804784547898</v>
+      </c>
+      <c r="R536">
+        <v>0.39614666666666659</v>
+      </c>
+      <c r="S536">
+        <v>0.20060148148148149</v>
+      </c>
+      <c r="T536" t="s">
+        <v>23</v>
+      </c>
+      <c r="U536">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="537" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A537">
+        <v>0.8</v>
+      </c>
+      <c r="B537" t="s">
+        <v>24</v>
+      </c>
+      <c r="C537">
+        <v>25000</v>
+      </c>
+      <c r="D537">
+        <v>3445.1971909580002</v>
+      </c>
+      <c r="E537">
+        <v>47.479725442000003</v>
+      </c>
+      <c r="F537">
+        <v>3397.7174655160002</v>
+      </c>
+      <c r="G537">
+        <v>45.166016125333329</v>
+      </c>
+      <c r="H537">
+        <v>2931.0462004659998</v>
+      </c>
+      <c r="I537">
+        <v>45.756606417999997</v>
+      </c>
+      <c r="J537">
+        <v>2885.2895940479998</v>
+      </c>
+      <c r="K537">
+        <v>47.905711362666658</v>
+      </c>
+      <c r="L537">
+        <v>274716</v>
+      </c>
+      <c r="M537">
+        <v>274186</v>
+      </c>
+      <c r="N537">
+        <v>140840</v>
+      </c>
+      <c r="O537">
+        <v>140583</v>
+      </c>
+      <c r="P537">
+        <v>0.99807073486800912</v>
+      </c>
+      <c r="Q537">
+        <v>0.99817523430843513</v>
+      </c>
+      <c r="R537">
+        <v>0.4062014814814815</v>
+      </c>
+      <c r="S537">
+        <v>0.2082711111111111</v>
+      </c>
+      <c r="T537" t="s">
+        <v>23</v>
+      </c>
+      <c r="U537">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="538" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A538">
+        <v>0.85</v>
+      </c>
+      <c r="B538" t="s">
+        <v>24</v>
+      </c>
+      <c r="C538">
+        <v>25000</v>
+      </c>
+      <c r="D538">
+        <v>3534.148178124</v>
+      </c>
+      <c r="E538">
+        <v>46.720731213999997</v>
+      </c>
+      <c r="F538">
+        <v>3487.4274469100001</v>
+      </c>
+      <c r="G538">
+        <v>44.822318492666668</v>
+      </c>
+      <c r="H538">
+        <v>2989.5050039560001</v>
+      </c>
+      <c r="I538">
+        <v>46.045403440000001</v>
+      </c>
+      <c r="J538">
+        <v>2943.4596005160001</v>
+      </c>
+      <c r="K538">
+        <v>47.994519891333333</v>
+      </c>
+      <c r="L538">
+        <v>284737</v>
+      </c>
+      <c r="M538">
+        <v>284185</v>
+      </c>
+      <c r="N538">
+        <v>144377</v>
+      </c>
+      <c r="O538">
+        <v>144086</v>
+      </c>
+      <c r="P538">
+        <v>0.99806136891236474</v>
+      </c>
+      <c r="Q538">
+        <v>0.99798444350554449</v>
+      </c>
+      <c r="R538">
+        <v>0.42101481481481479</v>
+      </c>
+      <c r="S538">
+        <v>0.2134607407407407</v>
+      </c>
+      <c r="T538" t="s">
+        <v>23</v>
+      </c>
+      <c r="U538">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="539" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A539">
+        <v>0.9</v>
+      </c>
+      <c r="B539" t="s">
+        <v>24</v>
+      </c>
+      <c r="C539">
+        <v>25000</v>
+      </c>
+      <c r="D539">
+        <v>4067.705550786</v>
+      </c>
+      <c r="E539">
+        <v>45.782937014000012</v>
+      </c>
+      <c r="F539">
+        <v>4021.9226137720002</v>
+      </c>
+      <c r="G539">
+        <v>43.871187644666662</v>
+      </c>
+      <c r="H539">
+        <v>3299.1944764479999</v>
+      </c>
+      <c r="I539">
+        <v>45.085862419999998</v>
+      </c>
+      <c r="J539">
+        <v>3254.1086140299999</v>
+      </c>
+      <c r="K539">
+        <v>47.122542680666669</v>
+      </c>
+      <c r="L539">
+        <v>289393</v>
+      </c>
+      <c r="M539">
+        <v>288824</v>
+      </c>
+      <c r="N539">
+        <v>147829</v>
+      </c>
+      <c r="O539">
+        <v>147550</v>
+      </c>
+      <c r="P539">
+        <v>0.9980338156071501</v>
+      </c>
+      <c r="Q539">
+        <v>0.99811268425004562</v>
+      </c>
+      <c r="R539">
+        <v>0.42788740740740738</v>
+      </c>
+      <c r="S539">
+        <v>0.21859259259259259</v>
+      </c>
+      <c r="T539" t="s">
+        <v>23</v>
+      </c>
+      <c r="U539">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="540" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A540">
+        <v>0.95</v>
+      </c>
+      <c r="B540" t="s">
+        <v>24</v>
+      </c>
+      <c r="C540">
+        <v>25000</v>
+      </c>
+      <c r="D540">
+        <v>4455.814912244</v>
+      </c>
+      <c r="E540">
+        <v>45.523661659999988</v>
+      </c>
+      <c r="F540">
+        <v>4410.2912505839986</v>
+      </c>
+      <c r="G540">
+        <v>43.471766473333332</v>
+      </c>
+      <c r="H540">
+        <v>3596.6849593759998</v>
+      </c>
+      <c r="I540">
+        <v>44.597562601999996</v>
+      </c>
+      <c r="J540">
+        <v>3552.0873967739999</v>
+      </c>
+      <c r="K540">
+        <v>46.797296066000001</v>
+      </c>
+      <c r="L540">
+        <v>291403</v>
+      </c>
+      <c r="M540">
+        <v>290808</v>
+      </c>
+      <c r="N540">
+        <v>150199</v>
+      </c>
+      <c r="O540">
+        <v>149914</v>
+      </c>
+      <c r="P540">
+        <v>0.9979581541713709</v>
+      </c>
+      <c r="Q540">
+        <v>0.99810251732701283</v>
+      </c>
+      <c r="R540">
+        <v>0.43082666666666669</v>
+      </c>
+      <c r="S540">
+        <v>0.2220948148148148</v>
+      </c>
+      <c r="T540" t="s">
+        <v>23</v>
+      </c>
+      <c r="U540">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="541" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A541">
+        <v>1</v>
+      </c>
+      <c r="B541" t="s">
+        <v>24</v>
+      </c>
+      <c r="C541">
+        <v>25000</v>
+      </c>
+      <c r="D541">
+        <v>4577.44285459</v>
+      </c>
+      <c r="E541">
+        <v>46.894391091999999</v>
+      </c>
+      <c r="F541">
+        <v>4530.5484634980003</v>
+      </c>
+      <c r="G541">
+        <v>43.970538946666657</v>
+      </c>
+      <c r="H541">
+        <v>3727.99425488</v>
+      </c>
+      <c r="I541">
+        <v>44.253516580000003</v>
+      </c>
+      <c r="J541">
+        <v>3683.7407383</v>
+      </c>
+      <c r="K541">
+        <v>47.310155113333337</v>
+      </c>
+      <c r="L541">
+        <v>285966</v>
+      </c>
+      <c r="M541">
+        <v>285421</v>
+      </c>
+      <c r="N541">
+        <v>152050</v>
+      </c>
+      <c r="O541">
+        <v>151781</v>
+      </c>
+      <c r="P541">
+        <v>0.99809417902827613</v>
+      </c>
+      <c r="Q541">
+        <v>0.99823084511673787</v>
+      </c>
+      <c r="R541">
+        <v>0.42284592592592601</v>
+      </c>
+      <c r="S541">
+        <v>0.22486074074074069</v>
+      </c>
+      <c r="T541" t="s">
+        <v>23</v>
+      </c>
+      <c r="U541">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="542" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A542">
+        <v>0.05</v>
+      </c>
+      <c r="B542" t="s">
+        <v>26</v>
+      </c>
+      <c r="C542">
+        <v>25000</v>
+      </c>
+      <c r="D542">
+        <v>33.716349893999997</v>
+      </c>
+      <c r="E542">
+        <v>31.713849060000001</v>
+      </c>
+      <c r="F542">
+        <v>2.0025008340000001</v>
+      </c>
+      <c r="G542">
+        <v>29.48077198733333</v>
+      </c>
+      <c r="H542">
+        <v>32.612740442000003</v>
+      </c>
+      <c r="I542">
+        <v>30.611671812000001</v>
+      </c>
+      <c r="J542">
+        <v>2.0010686299999998</v>
+      </c>
+      <c r="K542">
+        <v>31.187764604666668</v>
+      </c>
+      <c r="L542">
+        <v>36025</v>
+      </c>
+      <c r="M542">
+        <v>35988</v>
+      </c>
+      <c r="N542">
+        <v>16865</v>
+      </c>
+      <c r="O542">
+        <v>16844</v>
+      </c>
+      <c r="P542">
+        <v>0.99897293546148513</v>
+      </c>
+      <c r="Q542">
+        <v>0.99875481766973018</v>
+      </c>
+      <c r="R542">
+        <v>5.3315555555555547E-2</v>
+      </c>
+      <c r="S542">
+        <v>2.4954074074074069E-2</v>
+      </c>
+      <c r="T542" t="s">
+        <v>23</v>
+      </c>
+      <c r="U542">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="543" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A543">
+        <v>0.1</v>
+      </c>
+      <c r="B543" t="s">
+        <v>26</v>
+      </c>
+      <c r="C543">
+        <v>25000</v>
+      </c>
+      <c r="D543">
+        <v>37.763762071999999</v>
+      </c>
+      <c r="E543">
+        <v>35.738337052000013</v>
+      </c>
+      <c r="F543">
+        <v>2.0254250200000001</v>
+      </c>
+      <c r="G543">
+        <v>31.94291149133333</v>
+      </c>
+      <c r="H543">
+        <v>35.176435656000002</v>
+      </c>
+      <c r="I543">
+        <v>33.165538333999997</v>
+      </c>
+      <c r="J543">
+        <v>2.0108973219999999</v>
+      </c>
+      <c r="K543">
+        <v>33.98616410266667</v>
+      </c>
+      <c r="L543">
+        <v>72294</v>
+      </c>
+      <c r="M543">
+        <v>72173</v>
+      </c>
+      <c r="N543">
+        <v>33726</v>
+      </c>
+      <c r="O543">
+        <v>33678</v>
+      </c>
+      <c r="P543">
+        <v>0.99832627880598668</v>
+      </c>
+      <c r="Q543">
+        <v>0.99857676570005338</v>
+      </c>
+      <c r="R543">
+        <v>0.106922962962963</v>
+      </c>
+      <c r="S543">
+        <v>4.9893333333333331E-2</v>
+      </c>
+      <c r="T543" t="s">
+        <v>23</v>
+      </c>
+      <c r="U543">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="544" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A544">
+        <v>0.15</v>
+      </c>
+      <c r="B544" t="s">
+        <v>26</v>
+      </c>
+      <c r="C544">
+        <v>25000</v>
+      </c>
+      <c r="D544">
+        <v>473.75671332799999</v>
+      </c>
+      <c r="E544">
+        <v>60.395830048000001</v>
+      </c>
+      <c r="F544">
+        <v>413.36088328</v>
+      </c>
+      <c r="G544">
+        <v>45.065246571333347</v>
+      </c>
+      <c r="H544">
+        <v>215.44123329799999</v>
+      </c>
+      <c r="I544">
+        <v>43.749069536</v>
+      </c>
+      <c r="J544">
+        <v>171.69216376200001</v>
+      </c>
+      <c r="K544">
+        <v>47.479416000000008</v>
+      </c>
+      <c r="L544">
+        <v>101687</v>
+      </c>
+      <c r="M544">
+        <v>101440</v>
+      </c>
+      <c r="N544">
+        <v>49259</v>
+      </c>
+      <c r="O544">
+        <v>49169</v>
+      </c>
+      <c r="P544">
+        <v>0.99757097760775715</v>
+      </c>
+      <c r="Q544">
+        <v>0.99817292271463087</v>
+      </c>
+      <c r="R544">
+        <v>0.15028148148148149</v>
+      </c>
+      <c r="S544">
+        <v>7.284296296296297E-2</v>
+      </c>
+      <c r="T544" t="s">
+        <v>23</v>
+      </c>
+      <c r="U544">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="545" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A545">
+        <v>0.2</v>
+      </c>
+      <c r="B545" t="s">
+        <v>26</v>
+      </c>
+      <c r="C545">
+        <v>25000</v>
+      </c>
+      <c r="D545">
+        <v>1251.617463844</v>
+      </c>
+      <c r="E545">
+        <v>61.055129045999998</v>
+      </c>
+      <c r="F545">
+        <v>1190.5623347979999</v>
+      </c>
+      <c r="G545">
+        <v>47.595976195333328</v>
+      </c>
+      <c r="H545">
+        <v>498.77602579400002</v>
+      </c>
+      <c r="I545">
+        <v>43.973420808</v>
+      </c>
+      <c r="J545">
+        <v>454.80260498600001</v>
+      </c>
+      <c r="K545">
+        <v>50.106574856000002</v>
+      </c>
+      <c r="L545">
+        <v>119062</v>
+      </c>
+      <c r="M545">
+        <v>118794</v>
+      </c>
+      <c r="N545">
+        <v>62434</v>
+      </c>
+      <c r="O545">
+        <v>62342</v>
+      </c>
+      <c r="P545">
+        <v>0.99774907191211304</v>
+      </c>
+      <c r="Q545">
+        <v>0.99852644392478462</v>
+      </c>
+      <c r="R545">
+        <v>0.1759911111111111</v>
+      </c>
+      <c r="S545">
+        <v>9.235851851851852E-2</v>
+      </c>
+      <c r="T545" t="s">
+        <v>23</v>
+      </c>
+      <c r="U545">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="546" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A546">
+        <v>0.25</v>
+      </c>
+      <c r="B546" t="s">
+        <v>26</v>
+      </c>
+      <c r="C546">
+        <v>25000</v>
+      </c>
+      <c r="D546">
+        <v>1654.789954372</v>
+      </c>
+      <c r="E546">
+        <v>61.195678753999999</v>
+      </c>
+      <c r="F546">
+        <v>1593.594275618</v>
+      </c>
+      <c r="G546">
+        <v>51.037484640666669</v>
+      </c>
+      <c r="H546">
+        <v>746.95411003200002</v>
+      </c>
+      <c r="I546">
+        <v>47.958796608</v>
+      </c>
+      <c r="J546">
+        <v>698.99531342400007</v>
+      </c>
+      <c r="K546">
+        <v>53.563293408666659</v>
+      </c>
+      <c r="L546">
+        <v>134447</v>
+      </c>
+      <c r="M546">
+        <v>134128</v>
+      </c>
+      <c r="N546">
+        <v>72903</v>
+      </c>
+      <c r="O546">
+        <v>72761</v>
+      </c>
+      <c r="P546">
+        <v>0.99762731782784297</v>
+      </c>
+      <c r="Q546">
+        <v>0.99805220635639136</v>
+      </c>
+      <c r="R546">
+        <v>0.19870814814814819</v>
+      </c>
+      <c r="S546">
+        <v>0.1077940740740741</v>
+      </c>
+      <c r="T546" t="s">
+        <v>23</v>
+      </c>
+      <c r="U546">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="547" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A547">
+        <v>0.3</v>
+      </c>
+      <c r="B547" t="s">
+        <v>26</v>
+      </c>
+      <c r="C547">
+        <v>25000</v>
+      </c>
+      <c r="D547">
+        <v>1820.077775644</v>
+      </c>
+      <c r="E547">
+        <v>61.457518311999998</v>
+      </c>
+      <c r="F547">
+        <v>1758.6202573319999</v>
+      </c>
+      <c r="G547">
+        <v>54.134167134000009</v>
+      </c>
+      <c r="H547">
+        <v>827.05697020000002</v>
+      </c>
+      <c r="I547">
+        <v>51.030227343999996</v>
+      </c>
+      <c r="J547">
+        <v>776.02674285399996</v>
+      </c>
+      <c r="K547">
+        <v>56.704097738666668</v>
+      </c>
+      <c r="L547">
+        <v>146163</v>
+      </c>
+      <c r="M547">
+        <v>145804</v>
+      </c>
+      <c r="N547">
+        <v>82243</v>
+      </c>
+      <c r="O547">
+        <v>82078</v>
+      </c>
+      <c r="P547">
+        <v>0.99754383804382774</v>
+      </c>
+      <c r="Q547">
+        <v>0.99799375022798298</v>
+      </c>
+      <c r="R547">
+        <v>0.21600592592592591</v>
+      </c>
+      <c r="S547">
+        <v>0.121597037037037</v>
+      </c>
+      <c r="T547" t="s">
+        <v>23</v>
+      </c>
+      <c r="U547">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="548" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A548">
+        <v>0.35</v>
+      </c>
+      <c r="B548" t="s">
+        <v>26</v>
+      </c>
+      <c r="C548">
+        <v>25000</v>
+      </c>
+      <c r="D548">
+        <v>2133.5417448759999</v>
+      </c>
+      <c r="E548">
+        <v>60.260266588</v>
+      </c>
+      <c r="F548">
+        <v>2073.281478288</v>
+      </c>
+      <c r="G548">
+        <v>54.633863067999997</v>
+      </c>
+      <c r="H548">
+        <v>1147.903128376</v>
+      </c>
+      <c r="I548">
+        <v>51.93634119</v>
+      </c>
+      <c r="J548">
+        <v>1095.9667871859999</v>
+      </c>
+      <c r="K548">
+        <v>57.222879537333327</v>
+      </c>
+      <c r="L548">
+        <v>158084</v>
+      </c>
+      <c r="M548">
+        <v>157696</v>
+      </c>
+      <c r="N548">
+        <v>90908</v>
+      </c>
+      <c r="O548">
+        <v>90718</v>
+      </c>
+      <c r="P548">
+        <v>0.99754560866374842</v>
+      </c>
+      <c r="Q548">
+        <v>0.99790997491969902</v>
+      </c>
+      <c r="R548">
+        <v>0.23362370370370369</v>
+      </c>
+      <c r="S548">
+        <v>0.13439703703703701</v>
+      </c>
+      <c r="T548" t="s">
+        <v>23</v>
+      </c>
+      <c r="U548">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="549" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A549">
+        <v>0.4</v>
+      </c>
+      <c r="B549" t="s">
+        <v>26</v>
+      </c>
+      <c r="C549">
+        <v>25000</v>
+      </c>
+      <c r="D549">
+        <v>2165.7092902260001</v>
+      </c>
+      <c r="E549">
+        <v>60.014141426000002</v>
+      </c>
+      <c r="F549">
+        <v>2105.6951488019999</v>
+      </c>
+      <c r="G549">
+        <v>55.649558900666683</v>
+      </c>
+      <c r="H549">
+        <v>1146.564937244</v>
+      </c>
+      <c r="I549">
+        <v>53.427514209999998</v>
+      </c>
+      <c r="J549">
+        <v>1093.137423034</v>
+      </c>
+      <c r="K549">
+        <v>58.190588349999999</v>
+      </c>
+      <c r="L549">
+        <v>174390</v>
+      </c>
+      <c r="M549">
+        <v>173957</v>
+      </c>
+      <c r="N549">
+        <v>101566</v>
+      </c>
+      <c r="O549">
+        <v>101344</v>
+      </c>
+      <c r="P549">
+        <v>0.99751705946441882</v>
+      </c>
+      <c r="Q549">
+        <v>0.99781422917117935</v>
+      </c>
+      <c r="R549">
+        <v>0.2577140740740741</v>
+      </c>
+      <c r="S549">
+        <v>0.15013925925925931</v>
+      </c>
+      <c r="T549" t="s">
+        <v>23</v>
+      </c>
+      <c r="U549">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="550" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A550">
+        <v>0.45</v>
+      </c>
+      <c r="B550" t="s">
+        <v>26</v>
+      </c>
+      <c r="C550">
+        <v>25000</v>
+      </c>
+      <c r="D550">
+        <v>2507.69980197</v>
+      </c>
+      <c r="E550">
+        <v>57.882771329999997</v>
+      </c>
+      <c r="F550">
+        <v>2449.8170306400002</v>
+      </c>
+      <c r="G550">
+        <v>54.657085546000012</v>
+      </c>
+      <c r="H550">
+        <v>1595.969749052</v>
+      </c>
+      <c r="I550">
+        <v>53.207286148000001</v>
+      </c>
+      <c r="J550">
+        <v>1542.7624629019999</v>
+      </c>
+      <c r="K550">
+        <v>57.155040088</v>
+      </c>
+      <c r="L550">
+        <v>182223</v>
+      </c>
+      <c r="M550">
+        <v>181790</v>
+      </c>
+      <c r="N550">
+        <v>106707</v>
+      </c>
+      <c r="O550">
+        <v>106476</v>
+      </c>
+      <c r="P550">
+        <v>0.99762379063016193</v>
+      </c>
+      <c r="Q550">
+        <v>0.99783519356743233</v>
+      </c>
+      <c r="R550">
+        <v>0.26931851851851851</v>
+      </c>
+      <c r="S550">
+        <v>0.1577422222222222</v>
+      </c>
+      <c r="T550" t="s">
+        <v>23</v>
+      </c>
+      <c r="U550">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="551" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A551">
+        <v>0.5</v>
+      </c>
+      <c r="B551" t="s">
+        <v>26</v>
+      </c>
+      <c r="C551">
+        <v>25000</v>
+      </c>
+      <c r="D551">
+        <v>2709.5631736780001</v>
+      </c>
+      <c r="E551">
+        <v>56.811548461999998</v>
+      </c>
+      <c r="F551">
+        <v>2652.7516252139999</v>
+      </c>
+      <c r="G551">
+        <v>53.940497702666669</v>
+      </c>
+      <c r="H551">
+        <v>1949.0580339160001</v>
+      </c>
+      <c r="I551">
+        <v>52.690930242</v>
+      </c>
+      <c r="J551">
+        <v>1896.367103674</v>
+      </c>
+      <c r="K551">
+        <v>56.405614343333333</v>
+      </c>
+      <c r="L551">
+        <v>191144</v>
+      </c>
+      <c r="M551">
+        <v>190744</v>
+      </c>
+      <c r="N551">
+        <v>111964</v>
+      </c>
+      <c r="O551">
+        <v>111745</v>
+      </c>
+      <c r="P551">
+        <v>0.99790733687690958</v>
+      </c>
+      <c r="Q551">
+        <v>0.99804401414740451</v>
+      </c>
+      <c r="R551">
+        <v>0.28258370370370373</v>
+      </c>
+      <c r="S551">
+        <v>0.16554814814814811</v>
+      </c>
+      <c r="T551" t="s">
+        <v>23</v>
+      </c>
+      <c r="U551">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="552" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A552">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="B552" t="s">
+        <v>26</v>
+      </c>
+      <c r="C552">
+        <v>25000</v>
+      </c>
+      <c r="D552">
+        <v>2871.0350737899998</v>
+      </c>
+      <c r="E552">
+        <v>53.82024431</v>
+      </c>
+      <c r="F552">
+        <v>2817.2148294799999</v>
+      </c>
+      <c r="G552">
+        <v>51.662528985333338</v>
+      </c>
+      <c r="H552">
+        <v>2232.9678713459998</v>
+      </c>
+      <c r="I552">
+        <v>50.967152177999999</v>
+      </c>
+      <c r="J552">
+        <v>2182.0007191680002</v>
+      </c>
+      <c r="K552">
+        <v>54.092580859333331</v>
+      </c>
+      <c r="L552">
+        <v>199464</v>
+      </c>
+      <c r="M552">
+        <v>199009</v>
+      </c>
+      <c r="N552">
+        <v>115656</v>
+      </c>
+      <c r="O552">
+        <v>115411</v>
+      </c>
+      <c r="P552">
+        <v>0.99771888661613128</v>
+      </c>
+      <c r="Q552">
+        <v>0.99788164902815246</v>
+      </c>
+      <c r="R552">
+        <v>0.29482814814814812</v>
+      </c>
+      <c r="S552">
+        <v>0.1709792592592593</v>
+      </c>
+      <c r="T552" t="s">
+        <v>23</v>
+      </c>
+      <c r="U552">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="553" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A553">
+        <v>0.6</v>
+      </c>
+      <c r="B553" t="s">
+        <v>26</v>
+      </c>
+      <c r="C553">
+        <v>25000</v>
+      </c>
+      <c r="D553">
+        <v>3009.1124991679999</v>
+      </c>
+      <c r="E553">
+        <v>53.265958156000003</v>
+      </c>
+      <c r="F553">
+        <v>2955.8465410120002</v>
+      </c>
+      <c r="G553">
+        <v>51.187751308666662</v>
+      </c>
+      <c r="H553">
+        <v>2460.7523198240001</v>
+      </c>
+      <c r="I553">
+        <v>50.390287888000003</v>
+      </c>
+      <c r="J553">
+        <v>2410.3620319360002</v>
+      </c>
+      <c r="K553">
+        <v>53.627341724666671</v>
+      </c>
+      <c r="L553">
+        <v>210669</v>
+      </c>
+      <c r="M553">
+        <v>210206</v>
+      </c>
+      <c r="N553">
+        <v>122237</v>
+      </c>
+      <c r="O553">
+        <v>121992</v>
+      </c>
+      <c r="P553">
+        <v>0.99780223953215708</v>
+      </c>
+      <c r="Q553">
+        <v>0.9979956968839222</v>
+      </c>
+      <c r="R553">
+        <v>0.31141629629629619</v>
+      </c>
+      <c r="S553">
+        <v>0.18072888888888891</v>
+      </c>
+      <c r="T553" t="s">
+        <v>23</v>
+      </c>
+      <c r="U553">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="554" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A554">
+        <v>0.65</v>
+      </c>
+      <c r="B554" t="s">
+        <v>26</v>
+      </c>
+      <c r="C554">
+        <v>25000</v>
+      </c>
+      <c r="D554">
+        <v>3076.5667713359999</v>
+      </c>
+      <c r="E554">
+        <v>52.119069150000001</v>
+      </c>
+      <c r="F554">
+        <v>3024.4477021859998</v>
+      </c>
+      <c r="G554">
+        <v>50.013749657999988</v>
+      </c>
+      <c r="H554">
+        <v>2620.2343887420002</v>
+      </c>
+      <c r="I554">
+        <v>49.173765548000013</v>
+      </c>
+      <c r="J554">
+        <v>2571.0606231940001</v>
+      </c>
+      <c r="K554">
+        <v>52.478049437999992</v>
+      </c>
+      <c r="L554">
+        <v>220559</v>
+      </c>
+      <c r="M554">
+        <v>220057</v>
+      </c>
+      <c r="N554">
+        <v>127615</v>
+      </c>
+      <c r="O554">
+        <v>127344</v>
+      </c>
+      <c r="P554">
+        <v>0.99772396501616345</v>
+      </c>
+      <c r="Q554">
+        <v>0.99787642518512709</v>
+      </c>
+      <c r="R554">
+        <v>0.32601037037037028</v>
+      </c>
+      <c r="S554">
+        <v>0.18865777777777781</v>
+      </c>
+      <c r="T554" t="s">
+        <v>23</v>
+      </c>
+      <c r="U554">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="555" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A555">
+        <v>0.7</v>
+      </c>
+      <c r="B555" t="s">
+        <v>26</v>
+      </c>
+      <c r="C555">
+        <v>25000</v>
+      </c>
+      <c r="D555">
+        <v>3041.0739377899999</v>
+      </c>
+      <c r="E555">
+        <v>49.894538820000001</v>
+      </c>
+      <c r="F555">
+        <v>2991.17939897</v>
+      </c>
+      <c r="G555">
+        <v>47.966328984666667</v>
+      </c>
+      <c r="H555">
+        <v>2651.6676144459998</v>
+      </c>
+      <c r="I555">
+        <v>47.244767205999999</v>
+      </c>
+      <c r="J555">
+        <v>2604.42284724</v>
+      </c>
+      <c r="K555">
+        <v>50.491692010666661</v>
+      </c>
+      <c r="L555">
+        <v>230092</v>
+      </c>
+      <c r="M555">
+        <v>229639</v>
+      </c>
+      <c r="N555">
+        <v>133536</v>
+      </c>
+      <c r="O555">
+        <v>133294</v>
+      </c>
+      <c r="P555">
+        <v>0.99803122229369123</v>
+      </c>
+      <c r="Q555">
+        <v>0.99818775461298825</v>
+      </c>
+      <c r="R555">
+        <v>0.34020592592592602</v>
+      </c>
+      <c r="S555">
+        <v>0.19747259259259259</v>
+      </c>
+      <c r="T555" t="s">
+        <v>23</v>
+      </c>
+      <c r="U555">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="556" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A556">
+        <v>0.75</v>
+      </c>
+      <c r="B556" t="s">
+        <v>26</v>
+      </c>
+      <c r="C556">
+        <v>25000</v>
+      </c>
+      <c r="D556">
+        <v>3147.5731419600002</v>
+      </c>
+      <c r="E556">
+        <v>49.722579912</v>
+      </c>
+      <c r="F556">
+        <v>3097.850562048</v>
+      </c>
+      <c r="G556">
+        <v>47.769983586666669</v>
+      </c>
+      <c r="H556">
+        <v>2802.7897289500002</v>
+      </c>
+      <c r="I556">
+        <v>47.039492273999997</v>
+      </c>
+      <c r="J556">
+        <v>2755.750236676</v>
+      </c>
+      <c r="K556">
+        <v>50.384936932000002</v>
+      </c>
+      <c r="L556">
+        <v>238271</v>
+      </c>
+      <c r="M556">
+        <v>237791</v>
+      </c>
+      <c r="N556">
+        <v>137571</v>
+      </c>
+      <c r="O556">
+        <v>137318</v>
+      </c>
+      <c r="P556">
+        <v>0.99798548711341284</v>
+      </c>
+      <c r="Q556">
+        <v>0.99816094961874235</v>
+      </c>
+      <c r="R556">
+        <v>0.35228296296296302</v>
+      </c>
+      <c r="S556">
+        <v>0.2034340740740741</v>
+      </c>
+      <c r="T556" t="s">
+        <v>23</v>
+      </c>
+      <c r="U556">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="557" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A557">
+        <v>0.8</v>
+      </c>
+      <c r="B557" t="s">
+        <v>26</v>
+      </c>
+      <c r="C557">
+        <v>25000</v>
+      </c>
+      <c r="D557">
+        <v>3055.2491214500001</v>
+      </c>
+      <c r="E557">
+        <v>48.464116451999999</v>
+      </c>
+      <c r="F557">
+        <v>3006.7850049980002</v>
+      </c>
+      <c r="G557">
+        <v>46.584189069333327</v>
+      </c>
+      <c r="H557">
+        <v>2723.3823318159998</v>
+      </c>
+      <c r="I557">
+        <v>45.992580144000001</v>
+      </c>
+      <c r="J557">
+        <v>2677.3897516719999</v>
+      </c>
+      <c r="K557">
+        <v>49.397938735333327</v>
+      </c>
+      <c r="L557">
+        <v>248619</v>
+      </c>
+      <c r="M557">
+        <v>248136</v>
+      </c>
+      <c r="N557">
+        <v>143663</v>
+      </c>
+      <c r="O557">
+        <v>143399</v>
+      </c>
+      <c r="P557">
+        <v>0.99805726835036745</v>
+      </c>
+      <c r="Q557">
+        <v>0.99816236609287012</v>
+      </c>
+      <c r="R557">
+        <v>0.36760888888888887</v>
+      </c>
+      <c r="S557">
+        <v>0.21244296296296289</v>
+      </c>
+      <c r="T557" t="s">
+        <v>23</v>
+      </c>
+      <c r="U557">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="558" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A558">
+        <v>0.85</v>
+      </c>
+      <c r="B558" t="s">
+        <v>26</v>
+      </c>
+      <c r="C558">
+        <v>25000</v>
+      </c>
+      <c r="D558">
+        <v>3190.357940458</v>
+      </c>
+      <c r="E558">
+        <v>48.049561943999997</v>
+      </c>
+      <c r="F558">
+        <v>3142.3083785140002</v>
+      </c>
+      <c r="G558">
+        <v>46.309902099333343</v>
+      </c>
+      <c r="H558">
+        <v>2905.653849282</v>
+      </c>
+      <c r="I558">
+        <v>45.903236079999999</v>
+      </c>
+      <c r="J558">
+        <v>2859.7506132019998</v>
+      </c>
+      <c r="K558">
+        <v>49.457872655999999</v>
+      </c>
+      <c r="L558">
+        <v>257430</v>
+      </c>
+      <c r="M558">
+        <v>256931</v>
+      </c>
+      <c r="N558">
+        <v>147870</v>
+      </c>
+      <c r="O558">
+        <v>147586</v>
+      </c>
+      <c r="P558">
+        <v>0.9980616089810822</v>
+      </c>
+      <c r="Q558">
+        <v>0.99807939406235202</v>
+      </c>
+      <c r="R558">
+        <v>0.38063851851851849</v>
+      </c>
+      <c r="S558">
+        <v>0.21864592592592591</v>
+      </c>
+      <c r="T558" t="s">
+        <v>23</v>
+      </c>
+      <c r="U558">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="559" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A559">
+        <v>0.9</v>
+      </c>
+      <c r="B559" t="s">
+        <v>26</v>
+      </c>
+      <c r="C559">
+        <v>25000</v>
+      </c>
+      <c r="D559">
+        <v>3542.449195314</v>
+      </c>
+      <c r="E559">
+        <v>47.974616198000007</v>
+      </c>
+      <c r="F559">
+        <v>3494.4745791159999</v>
+      </c>
+      <c r="G559">
+        <v>45.944127451333337</v>
+      </c>
+      <c r="H559">
+        <v>3067.7499816240002</v>
+      </c>
+      <c r="I559">
+        <v>45.103423159999998</v>
+      </c>
+      <c r="J559">
+        <v>3022.646558464</v>
+      </c>
+      <c r="K559">
+        <v>49.284942954000002</v>
+      </c>
+      <c r="L559">
+        <v>256700</v>
+      </c>
+      <c r="M559">
+        <v>256187</v>
+      </c>
+      <c r="N559">
+        <v>149928</v>
+      </c>
+      <c r="O559">
+        <v>149657</v>
+      </c>
+      <c r="P559">
+        <v>0.99800155823918968</v>
+      </c>
+      <c r="Q559">
+        <v>0.99819246571687748</v>
+      </c>
+      <c r="R559">
+        <v>0.37953629629629632</v>
+      </c>
+      <c r="S559">
+        <v>0.22171407407407409</v>
+      </c>
+      <c r="T559" t="s">
+        <v>23</v>
+      </c>
+      <c r="U559">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="560" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A560">
+        <v>0.95</v>
+      </c>
+      <c r="B560" t="s">
+        <v>26</v>
+      </c>
+      <c r="C560">
+        <v>25000</v>
+      </c>
+      <c r="D560">
+        <v>3907.9549754220002</v>
+      </c>
+      <c r="E560">
+        <v>47.267269400000004</v>
+      </c>
+      <c r="F560">
+        <v>3860.6877060219999</v>
+      </c>
+      <c r="G560">
+        <v>45.330876482000001</v>
+      </c>
+      <c r="H560">
+        <v>3253.4912799560002</v>
+      </c>
+      <c r="I560">
+        <v>44.367753024000002</v>
+      </c>
+      <c r="J560">
+        <v>3209.123526932</v>
+      </c>
+      <c r="K560">
+        <v>48.684176625333329</v>
+      </c>
+      <c r="L560">
+        <v>261110</v>
+      </c>
+      <c r="M560">
+        <v>260591</v>
+      </c>
+      <c r="N560">
+        <v>154490</v>
+      </c>
+      <c r="O560">
+        <v>154185</v>
+      </c>
+      <c r="P560">
+        <v>0.99801233196737005</v>
+      </c>
+      <c r="Q560">
+        <v>0.99802576218525474</v>
+      </c>
+      <c r="R560">
+        <v>0.38606074074074082</v>
+      </c>
+      <c r="S560">
+        <v>0.22842222222222219</v>
+      </c>
+      <c r="T560" t="s">
+        <v>23</v>
+      </c>
+      <c r="U560">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="561" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A561">
+        <v>1</v>
+      </c>
+      <c r="B561" t="s">
+        <v>26</v>
+      </c>
+      <c r="C561">
+        <v>25000</v>
+      </c>
+      <c r="D561">
+        <v>4343.9926845959999</v>
+      </c>
+      <c r="E561">
+        <v>48.728522349999999</v>
+      </c>
+      <c r="F561">
+        <v>4295.2641622459996</v>
+      </c>
+      <c r="G561">
+        <v>46.441862360666683</v>
+      </c>
+      <c r="H561">
+        <v>3548.7245084880001</v>
+      </c>
+      <c r="I561">
+        <v>44.874722638000001</v>
+      </c>
+      <c r="J561">
+        <v>3503.84978585</v>
+      </c>
+      <c r="K561">
+        <v>49.949569469333333</v>
+      </c>
+      <c r="L561">
+        <v>259316</v>
+      </c>
+      <c r="M561">
+        <v>258769</v>
+      </c>
+      <c r="N561">
+        <v>155332</v>
+      </c>
+      <c r="O561">
+        <v>155032</v>
+      </c>
+      <c r="P561">
+        <v>0.99789060451341216</v>
+      </c>
+      <c r="Q561">
+        <v>0.99806865294981073</v>
+      </c>
+      <c r="R561">
+        <v>0.38336148148148153</v>
+      </c>
+      <c r="S561">
+        <v>0.22967703703703701</v>
+      </c>
+      <c r="T561" t="s">
+        <v>23</v>
+      </c>
+      <c r="U561">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="562" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A562">
+        <v>0.05</v>
+      </c>
+      <c r="B562" t="s">
+        <v>21</v>
+      </c>
+      <c r="C562">
+        <v>25000</v>
+      </c>
+      <c r="D562">
+        <v>41.832844338000001</v>
+      </c>
+      <c r="E562">
+        <v>39.829303332000002</v>
+      </c>
+      <c r="F562">
+        <v>2.0035410040000001</v>
+      </c>
+      <c r="G562">
+        <v>28.897621462</v>
+      </c>
+      <c r="H562">
+        <v>41.455269571999999</v>
+      </c>
+      <c r="I562">
+        <v>39.453189086000002</v>
+      </c>
+      <c r="J562">
+        <v>2.0020804860000001</v>
+      </c>
+      <c r="K562">
+        <v>30.672987375999998</v>
+      </c>
+      <c r="L562">
+        <v>49526</v>
+      </c>
+      <c r="M562">
+        <v>49421</v>
+      </c>
+      <c r="N562">
+        <v>16858</v>
+      </c>
+      <c r="O562">
+        <v>16823</v>
+      </c>
+      <c r="P562">
+        <v>0.99787990146589667</v>
+      </c>
+      <c r="Q562">
+        <v>0.99792383438130261</v>
+      </c>
+      <c r="R562">
+        <v>7.3216296296296293E-2</v>
+      </c>
+      <c r="S562">
+        <v>2.4922962962962959E-2</v>
+      </c>
+      <c r="T562" t="s">
+        <v>23</v>
+      </c>
+      <c r="U562">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="563" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A563">
+        <v>0.1</v>
+      </c>
+      <c r="B563" t="s">
+        <v>21</v>
+      </c>
+      <c r="C563">
+        <v>25000</v>
+      </c>
+      <c r="D563">
+        <v>1115.853038384</v>
+      </c>
+      <c r="E563">
+        <v>99.192252461999999</v>
+      </c>
+      <c r="F563">
+        <v>1016.6607859219999</v>
+      </c>
+      <c r="G563">
+        <v>54.545518791333343</v>
+      </c>
+      <c r="H563">
+        <v>642.04045580399998</v>
+      </c>
+      <c r="I563">
+        <v>73.999936340000005</v>
+      </c>
+      <c r="J563">
+        <v>568.040519464</v>
+      </c>
+      <c r="K563">
+        <v>56.614457383333331</v>
+      </c>
+      <c r="L563">
+        <v>88110</v>
+      </c>
+      <c r="M563">
+        <v>87744</v>
+      </c>
+      <c r="N563">
+        <v>31518</v>
+      </c>
+      <c r="O563">
+        <v>31417</v>
+      </c>
+      <c r="P563">
+        <v>0.99584610146407904</v>
+      </c>
+      <c r="Q563">
+        <v>0.99679548194682399</v>
+      </c>
+      <c r="R563">
+        <v>0.12999111111111111</v>
+      </c>
+      <c r="S563">
+        <v>4.6543703703703712E-2</v>
+      </c>
+      <c r="T563" t="s">
+        <v>23</v>
+      </c>
+      <c r="U563">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="564" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A564">
+        <v>0.15</v>
+      </c>
+      <c r="B564" t="s">
+        <v>21</v>
+      </c>
+      <c r="C564">
+        <v>25000</v>
+      </c>
+      <c r="D564">
+        <v>2480.8558084460001</v>
+      </c>
+      <c r="E564">
+        <v>100.374495258</v>
+      </c>
+      <c r="F564">
+        <v>2380.4813131880001</v>
+      </c>
+      <c r="G564">
+        <v>57.754891632000003</v>
+      </c>
+      <c r="H564">
+        <v>1231.390124128</v>
+      </c>
+      <c r="I564">
+        <v>70.399624903999992</v>
+      </c>
+      <c r="J564">
+        <v>1160.9904992219999</v>
+      </c>
+      <c r="K564">
+        <v>59.92508131866667</v>
+      </c>
+      <c r="L564">
+        <v>99201</v>
+      </c>
+      <c r="M564">
+        <v>98813</v>
+      </c>
+      <c r="N564">
+        <v>40641</v>
+      </c>
+      <c r="O564">
+        <v>40523</v>
+      </c>
+      <c r="P564">
+        <v>0.99608874910535172</v>
+      </c>
+      <c r="Q564">
+        <v>0.99709652813661076</v>
+      </c>
+      <c r="R564">
+        <v>0.14638962962962959</v>
+      </c>
+      <c r="S564">
+        <v>6.003407407407408E-2</v>
+      </c>
+      <c r="T564" t="s">
+        <v>23</v>
+      </c>
+      <c r="U564">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="565" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A565">
+        <v>0.2</v>
+      </c>
+      <c r="B565" t="s">
+        <v>21</v>
+      </c>
+      <c r="C565">
+        <v>25000</v>
+      </c>
+      <c r="D565">
+        <v>3177.9482527079999</v>
+      </c>
+      <c r="E565">
+        <v>102.30149607</v>
+      </c>
+      <c r="F565">
+        <v>3075.6467566380002</v>
+      </c>
+      <c r="G565">
+        <v>62.693070209333328</v>
+      </c>
+      <c r="H565">
+        <v>1465.1701266340001</v>
+      </c>
+      <c r="I565">
+        <v>72.836122067999995</v>
+      </c>
+      <c r="J565">
+        <v>1392.334004568</v>
+      </c>
+      <c r="K565">
+        <v>64.89368936933333</v>
+      </c>
+      <c r="L565">
+        <v>106931</v>
+      </c>
+      <c r="M565">
+        <v>106479</v>
+      </c>
+      <c r="N565">
+        <v>48335</v>
+      </c>
+      <c r="O565">
+        <v>48170</v>
+      </c>
+      <c r="P565">
+        <v>0.99577297509608997</v>
+      </c>
+      <c r="Q565">
+        <v>0.99658632460949625</v>
+      </c>
+      <c r="R565">
+        <v>0.15774666666666659</v>
+      </c>
+      <c r="S565">
+        <v>7.1362962962962961E-2</v>
+      </c>
+      <c r="T565" t="s">
+        <v>23</v>
+      </c>
+      <c r="U565">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="566" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A566">
+        <v>0.25</v>
+      </c>
+      <c r="B566" t="s">
+        <v>21</v>
+      </c>
+      <c r="C566">
+        <v>25000</v>
+      </c>
+      <c r="D566">
+        <v>4469.3866604040004</v>
+      </c>
+      <c r="E566">
+        <v>106.89465348</v>
+      </c>
+      <c r="F566">
+        <v>4362.4920069239997</v>
+      </c>
+      <c r="G566">
+        <v>69.29256315133334</v>
+      </c>
+      <c r="H566">
+        <v>2518.50608633</v>
+      </c>
+      <c r="I566">
+        <v>84.578541684000001</v>
+      </c>
+      <c r="J566">
+        <v>2433.9275446460001</v>
+      </c>
+      <c r="K566">
+        <v>71.430455092000003</v>
+      </c>
+      <c r="L566">
+        <v>109100</v>
+      </c>
+      <c r="M566">
+        <v>108594</v>
+      </c>
+      <c r="N566">
+        <v>50136</v>
+      </c>
+      <c r="O566">
+        <v>49948</v>
+      </c>
+      <c r="P566">
+        <v>0.99536205316223647</v>
+      </c>
+      <c r="Q566">
+        <v>0.99625019945747562</v>
+      </c>
+      <c r="R566">
+        <v>0.16088</v>
+      </c>
+      <c r="S566">
+        <v>7.3997037037037028E-2</v>
+      </c>
+      <c r="T566" t="s">
+        <v>23</v>
+      </c>
+      <c r="U566">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="567" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A567">
+        <v>0.3</v>
+      </c>
+      <c r="B567" t="s">
+        <v>21</v>
+      </c>
+      <c r="C567">
+        <v>25000</v>
+      </c>
+      <c r="D567">
+        <v>5030.9507376199999</v>
+      </c>
+      <c r="E567">
+        <v>102.97814749</v>
+      </c>
+      <c r="F567">
+        <v>4927.9725901319998</v>
+      </c>
+      <c r="G567">
+        <v>67.600684255333334</v>
+      </c>
+      <c r="H567">
+        <v>2711.8943366459998</v>
+      </c>
+      <c r="I567">
+        <v>78.878304222000011</v>
+      </c>
+      <c r="J567">
+        <v>2633.0160324240001</v>
+      </c>
+      <c r="K567">
+        <v>69.79697932933334</v>
+      </c>
+      <c r="L567">
+        <v>114575</v>
+      </c>
+      <c r="M567">
+        <v>114083</v>
+      </c>
+      <c r="N567">
+        <v>55951</v>
+      </c>
+      <c r="O567">
+        <v>55762</v>
+      </c>
+      <c r="P567">
+        <v>0.99570586951778306</v>
+      </c>
+      <c r="Q567">
+        <v>0.99662204428875267</v>
+      </c>
+      <c r="R567">
+        <v>0.16901185185185191</v>
+      </c>
+      <c r="S567">
+        <v>8.2610370370370362E-2</v>
+      </c>
+      <c r="T567" t="s">
+        <v>23</v>
+      </c>
+      <c r="U567">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="568" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A568">
+        <v>0.35</v>
+      </c>
+      <c r="B568" t="s">
+        <v>21</v>
+      </c>
+      <c r="C568">
+        <v>25000</v>
+      </c>
+      <c r="D568">
+        <v>5534.9348457960004</v>
+      </c>
+      <c r="E568">
+        <v>103.78591443800001</v>
+      </c>
+      <c r="F568">
+        <v>5431.1489313559996</v>
+      </c>
+      <c r="G568">
+        <v>68.515437875333348</v>
+      </c>
+      <c r="H568">
+        <v>2993.4472273179999</v>
+      </c>
+      <c r="I568">
+        <v>79.807275059999995</v>
+      </c>
+      <c r="J568">
+        <v>2913.63995226</v>
+      </c>
+      <c r="K568">
+        <v>70.639169045333333</v>
+      </c>
+      <c r="L568">
+        <v>115417</v>
+      </c>
+      <c r="M568">
+        <v>114912</v>
+      </c>
+      <c r="N568">
+        <v>56329</v>
+      </c>
+      <c r="O568">
+        <v>56137</v>
+      </c>
+      <c r="P568">
+        <v>0.99562456137310795</v>
+      </c>
+      <c r="Q568">
+        <v>0.99659145378046832</v>
+      </c>
+      <c r="R568">
+        <v>0.17024</v>
+      </c>
+      <c r="S568">
+        <v>8.3165925925925935E-2</v>
+      </c>
+      <c r="T568" t="s">
+        <v>23</v>
+      </c>
+      <c r="U568">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="569" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A569">
+        <v>0.4</v>
+      </c>
+      <c r="B569" t="s">
+        <v>21</v>
+      </c>
+      <c r="C569">
+        <v>25000</v>
+      </c>
+      <c r="D569">
+        <v>5692.1705160659994</v>
+      </c>
+      <c r="E569">
+        <v>96.549972343999997</v>
+      </c>
+      <c r="F569">
+        <v>5595.6205437200006</v>
+      </c>
+      <c r="G569">
+        <v>64.616426776000012</v>
+      </c>
+      <c r="H569">
+        <v>2990.5814252499999</v>
+      </c>
+      <c r="I569">
+        <v>72.688360285999991</v>
+      </c>
+      <c r="J569">
+        <v>2917.8930649660001</v>
+      </c>
+      <c r="K569">
+        <v>66.775051823333328</v>
+      </c>
+      <c r="L569">
+        <v>119831</v>
+      </c>
+      <c r="M569">
+        <v>119326</v>
+      </c>
+      <c r="N569">
+        <v>60863</v>
+      </c>
+      <c r="O569">
+        <v>60663</v>
+      </c>
+      <c r="P569">
+        <v>0.99578573157196382</v>
+      </c>
+      <c r="Q569">
+        <v>0.99671393128830321</v>
+      </c>
+      <c r="R569">
+        <v>0.17677925925925919</v>
+      </c>
+      <c r="S569">
+        <v>8.987111111111111E-2</v>
+      </c>
+      <c r="T569" t="s">
+        <v>23</v>
+      </c>
+      <c r="U569">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="570" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A570">
+        <v>0.45</v>
+      </c>
+      <c r="B570" t="s">
+        <v>21</v>
+      </c>
+      <c r="C570">
+        <v>25000</v>
+      </c>
+      <c r="D570">
+        <v>5990.4835402260014</v>
+      </c>
+      <c r="E570">
+        <v>97.544579715999987</v>
+      </c>
+      <c r="F570">
+        <v>5892.9389605099996</v>
+      </c>
+      <c r="G570">
+        <v>66.945465998000003</v>
+      </c>
+      <c r="H570">
+        <v>3458.8186097960001</v>
+      </c>
+      <c r="I570">
+        <v>74.751475842000005</v>
+      </c>
+      <c r="J570">
+        <v>3384.0671339539999</v>
+      </c>
+      <c r="K570">
+        <v>69.107710168666657</v>
+      </c>
+      <c r="L570">
+        <v>125960</v>
+      </c>
+      <c r="M570">
+        <v>125427</v>
+      </c>
+      <c r="N570">
+        <v>67128</v>
+      </c>
+      <c r="O570">
+        <v>66911</v>
+      </c>
+      <c r="P570">
+        <v>0.99576849793585265</v>
+      </c>
+      <c r="Q570">
+        <v>0.99676736980097724</v>
+      </c>
+      <c r="R570">
+        <v>0.1858177777777778</v>
+      </c>
+      <c r="S570">
+        <v>9.9127407407407414E-2</v>
+      </c>
+      <c r="T570" t="s">
+        <v>23</v>
+      </c>
+      <c r="U570">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="571" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A571">
+        <v>0.5</v>
+      </c>
+      <c r="B571" t="s">
+        <v>21</v>
+      </c>
+      <c r="C571">
+        <v>25000</v>
+      </c>
+      <c r="D571">
+        <v>6404.8112792499996</v>
+      </c>
+      <c r="E571">
+        <v>94.446128434000002</v>
+      </c>
+      <c r="F571">
+        <v>6310.3651508160001</v>
+      </c>
+      <c r="G571">
+        <v>65.568485703999997</v>
+      </c>
+      <c r="H571">
+        <v>3945.287110108</v>
+      </c>
+      <c r="I571">
+        <v>72.794481542</v>
+      </c>
+      <c r="J571">
+        <v>3872.4926285659999</v>
+      </c>
+      <c r="K571">
+        <v>67.737285065999998</v>
+      </c>
+      <c r="L571">
+        <v>128268</v>
+      </c>
+      <c r="M571">
+        <v>127739</v>
+      </c>
+      <c r="N571">
+        <v>69408</v>
+      </c>
+      <c r="O571">
+        <v>69186</v>
+      </c>
+      <c r="P571">
+        <v>0.99587582249664763</v>
+      </c>
+      <c r="Q571">
+        <v>0.99680152143845091</v>
+      </c>
+      <c r="R571">
+        <v>0.189242962962963</v>
+      </c>
+      <c r="S571">
+        <v>0.1024977777777778</v>
+      </c>
+      <c r="T571" t="s">
+        <v>23</v>
+      </c>
+      <c r="U571">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="572" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A572">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="B572" t="s">
+        <v>21</v>
+      </c>
+      <c r="C572">
+        <v>25000</v>
+      </c>
+      <c r="D572">
+        <v>6365.327292508</v>
+      </c>
+      <c r="E572">
+        <v>89.704709356000009</v>
+      </c>
+      <c r="F572">
+        <v>6275.6225831519996</v>
+      </c>
+      <c r="G572">
+        <v>62.47581504266666</v>
+      </c>
+      <c r="H572">
+        <v>3674.4000200139999</v>
+      </c>
+      <c r="I572">
+        <v>67.985819251999999</v>
+      </c>
+      <c r="J572">
+        <v>3606.4142007599999</v>
+      </c>
+      <c r="K572">
+        <v>64.576528662666675</v>
+      </c>
+      <c r="L572">
+        <v>129207</v>
+      </c>
+      <c r="M572">
+        <v>128680</v>
+      </c>
+      <c r="N572">
+        <v>70163</v>
+      </c>
+      <c r="O572">
+        <v>69954</v>
+      </c>
+      <c r="P572">
+        <v>0.99592127361520666</v>
+      </c>
+      <c r="Q572">
+        <v>0.99702122201160159</v>
+      </c>
+      <c r="R572">
+        <v>0.19063703703703699</v>
+      </c>
+      <c r="S572">
+        <v>0.10363555555555561</v>
+      </c>
+      <c r="T572" t="s">
+        <v>23</v>
+      </c>
+      <c r="U572">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="573" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A573">
+        <v>0.6</v>
+      </c>
+      <c r="B573" t="s">
+        <v>21</v>
+      </c>
+      <c r="C573">
+        <v>25000</v>
+      </c>
+      <c r="D573">
+        <v>6737.9993814999998</v>
+      </c>
+      <c r="E573">
+        <v>94.663436722</v>
+      </c>
+      <c r="F573">
+        <v>6643.3359447780003</v>
+      </c>
+      <c r="G573">
+        <v>66.252305161333339</v>
+      </c>
+      <c r="H573">
+        <v>4217.0646098899997</v>
+      </c>
+      <c r="I573">
+        <v>71.311021605999997</v>
+      </c>
+      <c r="J573">
+        <v>4145.7535882840002</v>
+      </c>
+      <c r="K573">
+        <v>68.386647186000005</v>
+      </c>
+      <c r="L573">
+        <v>131492</v>
+      </c>
+      <c r="M573">
+        <v>130962</v>
+      </c>
+      <c r="N573">
+        <v>72464</v>
+      </c>
+      <c r="O573">
+        <v>72249</v>
+      </c>
+      <c r="P573">
+        <v>0.99596933653758402</v>
+      </c>
+      <c r="Q573">
+        <v>0.99703300949436957</v>
+      </c>
+      <c r="R573">
+        <v>0.19401777777777779</v>
+      </c>
+      <c r="S573">
+        <v>0.10703555555555561</v>
+      </c>
+      <c r="T573" t="s">
+        <v>23</v>
+      </c>
+      <c r="U573">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="574" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A574">
+        <v>0.65</v>
+      </c>
+      <c r="B574" t="s">
+        <v>21</v>
+      </c>
+      <c r="C574">
+        <v>25000</v>
+      </c>
+      <c r="D574">
+        <v>6807.3057779400006</v>
+      </c>
+      <c r="E574">
+        <v>93.046563582000005</v>
+      </c>
+      <c r="F574">
+        <v>6714.2592143579996</v>
+      </c>
+      <c r="G574">
+        <v>65.111837948666675</v>
+      </c>
+      <c r="H574">
+        <v>4182.7433121100003</v>
+      </c>
+      <c r="I574">
+        <v>68.668581766000003</v>
+      </c>
+      <c r="J574">
+        <v>4114.0747303439994</v>
+      </c>
+      <c r="K574">
+        <v>67.319579859333331</v>
+      </c>
+      <c r="L574">
+        <v>131677</v>
+      </c>
+      <c r="M574">
+        <v>131154</v>
+      </c>
+      <c r="N574">
+        <v>72613</v>
+      </c>
+      <c r="O574">
+        <v>72407</v>
+      </c>
+      <c r="P574">
+        <v>0.99602815981530568</v>
+      </c>
+      <c r="Q574">
+        <v>0.99716304243041876</v>
+      </c>
+      <c r="R574">
+        <v>0.19430222222222221</v>
+      </c>
+      <c r="S574">
+        <v>0.1072696296296296</v>
+      </c>
+      <c r="T574" t="s">
+        <v>23</v>
+      </c>
+      <c r="U574">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="575" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A575">
+        <v>0.7</v>
+      </c>
+      <c r="B575" t="s">
+        <v>21</v>
+      </c>
+      <c r="C575">
+        <v>25000</v>
+      </c>
+      <c r="D575">
+        <v>7136.3515418699999</v>
+      </c>
+      <c r="E575">
+        <v>93.785259134</v>
+      </c>
+      <c r="F575">
+        <v>7042.5662827359993</v>
+      </c>
+      <c r="G575">
+        <v>66.450639681999988</v>
+      </c>
+      <c r="H575">
+        <v>4696.1084780339997</v>
+      </c>
+      <c r="I575">
+        <v>70.500523336000001</v>
+      </c>
+      <c r="J575">
+        <v>4625.607954698</v>
+      </c>
+      <c r="K575">
+        <v>68.639385329333322</v>
+      </c>
+      <c r="L575">
+        <v>133459</v>
+      </c>
+      <c r="M575">
+        <v>132923</v>
+      </c>
+      <c r="N575">
+        <v>74747</v>
+      </c>
+      <c r="O575">
+        <v>74522</v>
+      </c>
+      <c r="P575">
+        <v>0.99598378528237141</v>
+      </c>
+      <c r="Q575">
+        <v>0.99698984574631755</v>
+      </c>
+      <c r="R575">
+        <v>0.19692296296296291</v>
+      </c>
+      <c r="S575">
+        <v>0.11040296296296299</v>
+      </c>
+      <c r="T575" t="s">
+        <v>23</v>
+      </c>
+      <c r="U575">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="576" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A576">
+        <v>0.75</v>
+      </c>
+      <c r="B576" t="s">
+        <v>21</v>
+      </c>
+      <c r="C576">
+        <v>25000</v>
+      </c>
+      <c r="D576">
+        <v>7278.8376352300002</v>
+      </c>
+      <c r="E576">
+        <v>95.091716419999997</v>
+      </c>
+      <c r="F576">
+        <v>7183.7459188100001</v>
+      </c>
+      <c r="G576">
+        <v>67.732919093999996</v>
+      </c>
+      <c r="H576">
+        <v>4898.4717939239999</v>
+      </c>
+      <c r="I576">
+        <v>70.756492608000002</v>
+      </c>
+      <c r="J576">
+        <v>4827.7153013179995</v>
+      </c>
+      <c r="K576">
+        <v>69.988138187999994</v>
+      </c>
+      <c r="L576">
+        <v>134198</v>
+      </c>
+      <c r="M576">
+        <v>133662</v>
+      </c>
+      <c r="N576">
+        <v>76042</v>
+      </c>
+      <c r="O576">
+        <v>75817</v>
+      </c>
+      <c r="P576">
+        <v>0.99600590172729841</v>
+      </c>
+      <c r="Q576">
+        <v>0.9970411088608927</v>
+      </c>
+      <c r="R576">
+        <v>0.19801777777777779</v>
+      </c>
+      <c r="S576">
+        <v>0.11232148148148149</v>
+      </c>
+      <c r="T576" t="s">
+        <v>23</v>
+      </c>
+      <c r="U576">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="577" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A577">
+        <v>0.8</v>
+      </c>
+      <c r="B577" t="s">
+        <v>21</v>
+      </c>
+      <c r="C577">
+        <v>25000</v>
+      </c>
+      <c r="D577">
+        <v>7423.4658530659999</v>
+      </c>
+      <c r="E577">
+        <v>93.010287930000004</v>
+      </c>
+      <c r="F577">
+        <v>7330.4555651359997</v>
+      </c>
+      <c r="G577">
+        <v>66.54728716466667</v>
+      </c>
+      <c r="H577">
+        <v>5113.9367250800015</v>
+      </c>
+      <c r="I577">
+        <v>68.887893769999991</v>
+      </c>
+      <c r="J577">
+        <v>5045.0488313100004</v>
+      </c>
+      <c r="K577">
+        <v>68.726492504000007</v>
+      </c>
+      <c r="L577">
+        <v>136229</v>
+      </c>
+      <c r="M577">
+        <v>135693</v>
+      </c>
+      <c r="N577">
+        <v>77489</v>
+      </c>
+      <c r="O577">
+        <v>77266</v>
+      </c>
+      <c r="P577">
+        <v>0.99606544861960378</v>
+      </c>
+      <c r="Q577">
+        <v>0.99712217217927701</v>
+      </c>
+      <c r="R577">
+        <v>0.20102666666666669</v>
+      </c>
+      <c r="S577">
+        <v>0.11446814814814819</v>
+      </c>
+      <c r="T577" t="s">
+        <v>23</v>
+      </c>
+      <c r="U577">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="578" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A578">
+        <v>0.85</v>
+      </c>
+      <c r="B578" t="s">
+        <v>21</v>
+      </c>
+      <c r="C578">
+        <v>25000</v>
+      </c>
+      <c r="D578">
+        <v>7549.5947040459996</v>
+      </c>
+      <c r="E578">
+        <v>92.977351001999992</v>
+      </c>
+      <c r="F578">
+        <v>7456.6173530440001</v>
+      </c>
+      <c r="G578">
+        <v>66.80219575933333</v>
+      </c>
+      <c r="H578">
+        <v>5301.6395360679999</v>
+      </c>
+      <c r="I578">
+        <v>68.388371146000011</v>
+      </c>
+      <c r="J578">
+        <v>5233.2511649219996</v>
+      </c>
+      <c r="K578">
+        <v>69.015681892666677</v>
+      </c>
+      <c r="L578">
+        <v>137589</v>
+      </c>
+      <c r="M578">
+        <v>137048</v>
+      </c>
+      <c r="N578">
+        <v>78777</v>
+      </c>
+      <c r="O578">
+        <v>78546</v>
+      </c>
+      <c r="P578">
+        <v>0.99606799962206283</v>
+      </c>
+      <c r="Q578">
+        <v>0.99706767203625424</v>
+      </c>
+      <c r="R578">
+        <v>0.20303407407407409</v>
+      </c>
+      <c r="S578">
+        <v>0.11636444444444451</v>
+      </c>
+      <c r="T578" t="s">
+        <v>23</v>
+      </c>
+      <c r="U578">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="579" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A579">
+        <v>0.9</v>
+      </c>
+      <c r="B579" t="s">
+        <v>21</v>
+      </c>
+      <c r="C579">
+        <v>25000</v>
+      </c>
+      <c r="D579">
+        <v>7708.9451863059994</v>
+      </c>
+      <c r="E579">
+        <v>96.102381771999987</v>
+      </c>
+      <c r="F579">
+        <v>7612.8428045340006</v>
+      </c>
+      <c r="G579">
+        <v>70.03928087333334</v>
+      </c>
+      <c r="H579">
+        <v>5470.2055164879994</v>
+      </c>
+      <c r="I579">
+        <v>69.680866187999996</v>
+      </c>
+      <c r="J579">
+        <v>5400.5246502999998</v>
+      </c>
+      <c r="K579">
+        <v>72.449080351333322</v>
+      </c>
+      <c r="L579">
+        <v>134143</v>
+      </c>
+      <c r="M579">
+        <v>133598</v>
+      </c>
+      <c r="N579">
+        <v>79015</v>
+      </c>
+      <c r="O579">
+        <v>78782</v>
+      </c>
+      <c r="P579">
+        <v>0.99593717152590888</v>
+      </c>
+      <c r="Q579">
+        <v>0.99705119281149146</v>
+      </c>
+      <c r="R579">
+        <v>0.19792296296296299</v>
+      </c>
+      <c r="S579">
+        <v>0.1167140740740741</v>
+      </c>
+      <c r="T579" t="s">
+        <v>23</v>
+      </c>
+      <c r="U579">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="580" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A580">
+        <v>0.95</v>
+      </c>
+      <c r="B580" t="s">
+        <v>21</v>
+      </c>
+      <c r="C580">
+        <v>25000</v>
+      </c>
+      <c r="D580">
+        <v>7630.4460190819991</v>
+      </c>
+      <c r="E580">
+        <v>86.877807435999998</v>
+      </c>
+      <c r="F580">
+        <v>7543.5682116480002</v>
+      </c>
+      <c r="G580">
+        <v>63.465399927999997</v>
+      </c>
+      <c r="H580">
+        <v>5323.2273389419997</v>
+      </c>
+      <c r="I580">
+        <v>62.211440412000002</v>
+      </c>
+      <c r="J580">
+        <v>5261.0158985300004</v>
+      </c>
+      <c r="K580">
+        <v>65.734837046666669</v>
+      </c>
+      <c r="L580">
+        <v>136154</v>
+      </c>
+      <c r="M580">
+        <v>135622</v>
+      </c>
+      <c r="N580">
+        <v>79850</v>
+      </c>
+      <c r="O580">
+        <v>79630</v>
+      </c>
+      <c r="P580">
+        <v>0.99609265978230532</v>
+      </c>
+      <c r="Q580">
+        <v>0.99724483406386977</v>
+      </c>
+      <c r="R580">
+        <v>0.20092148148148151</v>
+      </c>
+      <c r="S580">
+        <v>0.11797037037037041</v>
+      </c>
+      <c r="T580" t="s">
+        <v>23</v>
+      </c>
+      <c r="U580">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="581" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A581">
+        <v>1</v>
+      </c>
+      <c r="B581" t="s">
+        <v>21</v>
+      </c>
+      <c r="C581">
+        <v>25000</v>
+      </c>
+      <c r="D581">
+        <v>7823.0868002019997</v>
+      </c>
+      <c r="E581">
+        <v>90.385762096000008</v>
+      </c>
+      <c r="F581">
+        <v>7732.7010381059999</v>
+      </c>
+      <c r="G581">
+        <v>66.016564884666664</v>
+      </c>
+      <c r="H581">
+        <v>5608.8581786340001</v>
+      </c>
+      <c r="I581">
+        <v>66.143439332</v>
+      </c>
+      <c r="J581">
+        <v>5542.7147392999996</v>
+      </c>
+      <c r="K581">
+        <v>68.210525877333339</v>
+      </c>
+      <c r="L581">
+        <v>141278</v>
+      </c>
+      <c r="M581">
+        <v>140737</v>
+      </c>
+      <c r="N581">
+        <v>82430</v>
+      </c>
+      <c r="O581">
+        <v>82202</v>
+      </c>
+      <c r="P581">
+        <v>0.99617067059273201</v>
+      </c>
+      <c r="Q581">
+        <v>0.9972340167414776</v>
+      </c>
+      <c r="R581">
+        <v>0.2084992592592593</v>
+      </c>
+      <c r="S581">
+        <v>0.1217807407407407</v>
+      </c>
+      <c r="T581" t="s">
+        <v>23</v>
+      </c>
+      <c r="U581">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="582" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A582">
+        <v>0.05</v>
+      </c>
+      <c r="B582" t="s">
+        <v>25</v>
+      </c>
+      <c r="C582">
+        <v>25000</v>
+      </c>
+      <c r="D582">
+        <v>34.924548438000002</v>
+      </c>
+      <c r="E582">
+        <v>32.920946612000002</v>
+      </c>
+      <c r="F582">
+        <v>2.003601824</v>
+      </c>
+      <c r="G582">
+        <v>33.308271394000002</v>
+      </c>
+      <c r="H582">
+        <v>36.819590382000001</v>
+      </c>
+      <c r="I582">
+        <v>34.817987533999997</v>
+      </c>
+      <c r="J582">
+        <v>2.0016028499999998</v>
+      </c>
+      <c r="K582">
+        <v>35.019756764</v>
+      </c>
+      <c r="L582">
+        <v>37522</v>
+      </c>
+      <c r="M582">
+        <v>37481</v>
+      </c>
+      <c r="N582">
+        <v>16866</v>
+      </c>
+      <c r="O582">
+        <v>16845</v>
+      </c>
+      <c r="P582">
+        <v>0.99890730771280845</v>
+      </c>
+      <c r="Q582">
+        <v>0.9987548914976877</v>
+      </c>
+      <c r="R582">
+        <v>5.5527407407407407E-2</v>
+      </c>
+      <c r="S582">
+        <v>2.4955555555555561E-2</v>
+      </c>
+      <c r="T582" t="s">
+        <v>23</v>
+      </c>
+      <c r="U582">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="583" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A583">
+        <v>0.1</v>
+      </c>
+      <c r="B583" t="s">
+        <v>25</v>
+      </c>
+      <c r="C583">
+        <v>25000</v>
+      </c>
+      <c r="D583">
+        <v>41.383993940000003</v>
+      </c>
+      <c r="E583">
+        <v>38.936844762</v>
+      </c>
+      <c r="F583">
+        <v>2.4471491780000001</v>
+      </c>
+      <c r="G583">
+        <v>36.746281051333327</v>
+      </c>
+      <c r="H583">
+        <v>40.670513354000001</v>
+      </c>
+      <c r="I583">
+        <v>38.470346796000001</v>
+      </c>
+      <c r="J583">
+        <v>2.2001665579999998</v>
+      </c>
+      <c r="K583">
+        <v>38.841555742666671</v>
+      </c>
+      <c r="L583">
+        <v>75396</v>
+      </c>
+      <c r="M583">
+        <v>75259</v>
+      </c>
+      <c r="N583">
+        <v>33680</v>
+      </c>
+      <c r="O583">
+        <v>33622</v>
+      </c>
+      <c r="P583">
+        <v>0.9981829274762587</v>
+      </c>
+      <c r="Q583">
+        <v>0.99827790973871733</v>
+      </c>
+      <c r="R583">
+        <v>0.1114948148148148</v>
+      </c>
+      <c r="S583">
+        <v>4.9810370370370373E-2</v>
+      </c>
+      <c r="T583" t="s">
+        <v>23</v>
+      </c>
+      <c r="U583">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="584" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A584">
+        <v>0.15</v>
+      </c>
+      <c r="B584" t="s">
+        <v>25</v>
+      </c>
+      <c r="C584">
+        <v>25000</v>
+      </c>
+      <c r="D584">
+        <v>784.08198471000003</v>
+      </c>
+      <c r="E584">
+        <v>58.739453564000002</v>
+      </c>
+      <c r="F584">
+        <v>725.34253114399996</v>
+      </c>
+      <c r="G584">
+        <v>46.93934698333333</v>
+      </c>
+      <c r="H584">
+        <v>356.67752382600003</v>
+      </c>
+      <c r="I584">
+        <v>47.357997441999999</v>
+      </c>
+      <c r="J584">
+        <v>309.31952638400003</v>
+      </c>
+      <c r="K584">
+        <v>49.276548878666659</v>
+      </c>
+      <c r="L584">
+        <v>103325</v>
+      </c>
+      <c r="M584">
+        <v>103068</v>
+      </c>
+      <c r="N584">
+        <v>48581</v>
+      </c>
+      <c r="O584">
+        <v>48478</v>
+      </c>
+      <c r="P584">
+        <v>0.99751270263730951</v>
+      </c>
+      <c r="Q584">
+        <v>0.99787982956299792</v>
+      </c>
+      <c r="R584">
+        <v>0.15269333333333329</v>
+      </c>
+      <c r="S584">
+        <v>7.1819259259259263E-2</v>
+      </c>
+      <c r="T584" t="s">
+        <v>23</v>
+      </c>
+      <c r="U584">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="585" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A585">
+        <v>0.2</v>
+      </c>
+      <c r="B585" t="s">
+        <v>25</v>
+      </c>
+      <c r="C585">
+        <v>25000</v>
+      </c>
+      <c r="D585">
+        <v>1537.7625391199999</v>
+      </c>
+      <c r="E585">
+        <v>66.008945158000003</v>
+      </c>
+      <c r="F585">
+        <v>1471.753593962</v>
+      </c>
+      <c r="G585">
+        <v>55.519155586666663</v>
+      </c>
+      <c r="H585">
+        <v>668.54234066000004</v>
+      </c>
+      <c r="I585">
+        <v>55.978809183999999</v>
+      </c>
+      <c r="J585">
+        <v>612.563531474</v>
+      </c>
+      <c r="K585">
+        <v>57.993401920666663</v>
+      </c>
+      <c r="L585">
+        <v>119842</v>
+      </c>
+      <c r="M585">
+        <v>119506</v>
+      </c>
+      <c r="N585">
+        <v>61158</v>
+      </c>
+      <c r="O585">
+        <v>61017</v>
+      </c>
+      <c r="P585">
+        <v>0.99719630847282259</v>
+      </c>
+      <c r="Q585">
+        <v>0.99769449622289808</v>
+      </c>
+      <c r="R585">
+        <v>0.17704592592592591</v>
+      </c>
+      <c r="S585">
+        <v>9.0395555555555548E-2</v>
+      </c>
+      <c r="T585" t="s">
+        <v>23</v>
+      </c>
+      <c r="U585">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="586" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A586">
+        <v>0.25</v>
+      </c>
+      <c r="B586" t="s">
+        <v>25</v>
+      </c>
+      <c r="C586">
+        <v>25000</v>
+      </c>
+      <c r="D586">
+        <v>2446.0097140879998</v>
+      </c>
+      <c r="E586">
+        <v>68.232740078000006</v>
+      </c>
+      <c r="F586">
+        <v>2377.7769740120002</v>
+      </c>
+      <c r="G586">
+        <v>63.567069298666667</v>
+      </c>
+      <c r="H586">
+        <v>1441.3882514720001</v>
+      </c>
+      <c r="I586">
+        <v>64.880208179999997</v>
+      </c>
+      <c r="J586">
+        <v>1376.5080432919999</v>
+      </c>
+      <c r="K586">
+        <v>66.022516015999997</v>
+      </c>
+      <c r="L586">
+        <v>130999</v>
+      </c>
+      <c r="M586">
+        <v>130635</v>
+      </c>
+      <c r="N586">
+        <v>67819</v>
+      </c>
+      <c r="O586">
+        <v>67634</v>
+      </c>
+      <c r="P586">
+        <v>0.99722135283475444</v>
+      </c>
+      <c r="Q586">
+        <v>0.99727215087217447</v>
+      </c>
+      <c r="R586">
+        <v>0.19353333333333331</v>
+      </c>
+      <c r="S586">
+        <v>0.10019851851851851</v>
+      </c>
+      <c r="T586" t="s">
+        <v>23</v>
+      </c>
+      <c r="U586">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="587" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A587">
+        <v>0.3</v>
+      </c>
+      <c r="B587" t="s">
+        <v>25</v>
+      </c>
+      <c r="C587">
+        <v>25000</v>
+      </c>
+      <c r="D587">
+        <v>3080.3108834</v>
+      </c>
+      <c r="E587">
+        <v>67.693845973999998</v>
+      </c>
+      <c r="F587">
+        <v>3012.617037426</v>
+      </c>
+      <c r="G587">
+        <v>64.657697355333326</v>
+      </c>
+      <c r="H587">
+        <v>1983.6060660600001</v>
+      </c>
+      <c r="I587">
+        <v>65.553572912000007</v>
+      </c>
+      <c r="J587">
+        <v>1918.0524931479999</v>
+      </c>
+      <c r="K587">
+        <v>67.082721369333328</v>
+      </c>
+      <c r="L587">
+        <v>137403</v>
+      </c>
+      <c r="M587">
+        <v>137016</v>
+      </c>
+      <c r="N587">
+        <v>72431</v>
+      </c>
+      <c r="O587">
+        <v>72238</v>
+      </c>
+      <c r="P587">
+        <v>0.99718346760987753</v>
+      </c>
+      <c r="Q587">
+        <v>0.99733539506564872</v>
+      </c>
+      <c r="R587">
+        <v>0.2029866666666667</v>
+      </c>
+      <c r="S587">
+        <v>0.1070192592592593</v>
+      </c>
+      <c r="T587" t="s">
+        <v>23</v>
+      </c>
+      <c r="U587">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="588" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A588">
+        <v>0.35</v>
+      </c>
+      <c r="B588" t="s">
+        <v>25</v>
+      </c>
+      <c r="C588">
+        <v>25000</v>
+      </c>
+      <c r="D588">
+        <v>3467.6948523639999</v>
+      </c>
+      <c r="E588">
+        <v>68.10126798200001</v>
+      </c>
+      <c r="F588">
+        <v>3399.5935843840002</v>
+      </c>
+      <c r="G588">
+        <v>65.332431347999986</v>
+      </c>
+      <c r="H588">
+        <v>2437.403157278</v>
+      </c>
+      <c r="I588">
+        <v>68.268037958000008</v>
+      </c>
+      <c r="J588">
+        <v>2369.1351193199998</v>
+      </c>
+      <c r="K588">
+        <v>67.761224950666659</v>
+      </c>
+      <c r="L588">
+        <v>147041</v>
+      </c>
+      <c r="M588">
+        <v>146611</v>
+      </c>
+      <c r="N588">
+        <v>78841</v>
+      </c>
+      <c r="O588">
+        <v>78612</v>
+      </c>
+      <c r="P588">
+        <v>0.99707564556824291</v>
+      </c>
+      <c r="Q588">
+        <v>0.99709541989573958</v>
+      </c>
+      <c r="R588">
+        <v>0.2172014814814815</v>
+      </c>
+      <c r="S588">
+        <v>0.1164622222222222</v>
+      </c>
+      <c r="T588" t="s">
+        <v>23</v>
+      </c>
+      <c r="U588">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="589" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A589">
+        <v>0.4</v>
+      </c>
+      <c r="B589" t="s">
+        <v>25</v>
+      </c>
+      <c r="C589">
+        <v>25000</v>
+      </c>
+      <c r="D589">
+        <v>3895.4876270099999</v>
+      </c>
+      <c r="E589">
+        <v>68.350297346000005</v>
+      </c>
+      <c r="F589">
+        <v>3827.1373296639999</v>
+      </c>
+      <c r="G589">
+        <v>66.630672468666674</v>
+      </c>
+      <c r="H589">
+        <v>3091.044039162</v>
+      </c>
+      <c r="I589">
+        <v>70.821578038000013</v>
+      </c>
+      <c r="J589">
+        <v>3020.2224611239999</v>
+      </c>
+      <c r="K589">
+        <v>69.103914357333323</v>
+      </c>
+      <c r="L589">
+        <v>147552</v>
+      </c>
+      <c r="M589">
+        <v>147135</v>
+      </c>
+      <c r="N589">
+        <v>78360</v>
+      </c>
+      <c r="O589">
+        <v>78135</v>
+      </c>
+      <c r="P589">
+        <v>0.99717387768379961</v>
+      </c>
+      <c r="Q589">
+        <v>0.99712863705972432</v>
+      </c>
+      <c r="R589">
+        <v>0.2179777777777778</v>
+      </c>
+      <c r="S589">
+        <v>0.1157555555555555</v>
+      </c>
+      <c r="T589" t="s">
+        <v>23</v>
+      </c>
+      <c r="U589">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="590" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A590">
+        <v>0.45</v>
+      </c>
+      <c r="B590" t="s">
+        <v>25</v>
+      </c>
+      <c r="C590">
+        <v>25000</v>
+      </c>
+      <c r="D590">
+        <v>4477.2641183039996</v>
+      </c>
+      <c r="E590">
+        <v>68.979275204000004</v>
+      </c>
+      <c r="F590">
+        <v>4408.2848431000002</v>
+      </c>
+      <c r="G590">
+        <v>67.371516490666664</v>
+      </c>
+      <c r="H590">
+        <v>3763.048529878</v>
+      </c>
+      <c r="I590">
+        <v>71.509227153999987</v>
+      </c>
+      <c r="J590">
+        <v>3691.5393027240002</v>
+      </c>
+      <c r="K590">
+        <v>69.821786850000009</v>
+      </c>
+      <c r="L590">
+        <v>148991</v>
+      </c>
+      <c r="M590">
+        <v>148566</v>
+      </c>
+      <c r="N590">
+        <v>78967</v>
+      </c>
+      <c r="O590">
+        <v>78735</v>
+      </c>
+      <c r="P590">
+        <v>0.99714747870676756</v>
+      </c>
+      <c r="Q590">
+        <v>0.99706206390011021</v>
+      </c>
+      <c r="R590">
+        <v>0.22009777777777781</v>
+      </c>
+      <c r="S590">
+        <v>0.1166444444444445</v>
+      </c>
+      <c r="T590" t="s">
+        <v>23</v>
+      </c>
+      <c r="U590">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="591" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A591">
+        <v>0.5</v>
+      </c>
+      <c r="B591" t="s">
+        <v>25</v>
+      </c>
+      <c r="C591">
+        <v>25000</v>
+      </c>
+      <c r="D591">
+        <v>4989.9191239419997</v>
+      </c>
+      <c r="E591">
+        <v>67.802800730000001</v>
+      </c>
+      <c r="F591">
+        <v>4922.1163232119998</v>
+      </c>
+      <c r="G591">
+        <v>66.635218299999991</v>
+      </c>
+      <c r="H591">
+        <v>4234.809125236</v>
+      </c>
+      <c r="I591">
+        <v>70.676450598000002</v>
+      </c>
+      <c r="J591">
+        <v>4164.132674638</v>
+      </c>
+      <c r="K591">
+        <v>69.081010772666659</v>
+      </c>
+      <c r="L591">
+        <v>151109</v>
+      </c>
+      <c r="M591">
+        <v>150675</v>
+      </c>
+      <c r="N591">
+        <v>79685</v>
+      </c>
+      <c r="O591">
+        <v>79450</v>
+      </c>
+      <c r="P591">
+        <v>0.9971279010515588</v>
+      </c>
+      <c r="Q591">
+        <v>0.99705088787099205</v>
+      </c>
+      <c r="R591">
+        <v>0.22322222222222221</v>
+      </c>
+      <c r="S591">
+        <v>0.1177037037037037</v>
+      </c>
+      <c r="T591" t="s">
+        <v>23</v>
+      </c>
+      <c r="U591">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="592" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A592">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="B592" t="s">
+        <v>25</v>
+      </c>
+      <c r="C592">
+        <v>25000</v>
+      </c>
+      <c r="D592">
+        <v>5433.709012024</v>
+      </c>
+      <c r="E592">
+        <v>68.275179280000003</v>
+      </c>
+      <c r="F592">
+        <v>5365.433832742</v>
+      </c>
+      <c r="G592">
+        <v>67.354159128666666</v>
+      </c>
+      <c r="H592">
+        <v>4533.2951107540002</v>
+      </c>
+      <c r="I592">
+        <v>71.485161677999997</v>
+      </c>
+      <c r="J592">
+        <v>4461.8099490759996</v>
+      </c>
+      <c r="K592">
+        <v>69.856474743333337</v>
+      </c>
+      <c r="L592">
+        <v>150499</v>
+      </c>
+      <c r="M592">
+        <v>150044</v>
+      </c>
+      <c r="N592">
+        <v>79971</v>
+      </c>
+      <c r="O592">
+        <v>79726</v>
+      </c>
+      <c r="P592">
+        <v>0.99697672409783455</v>
+      </c>
+      <c r="Q592">
+        <v>0.99693638944117247</v>
+      </c>
+      <c r="R592">
+        <v>0.22228740740740741</v>
+      </c>
+      <c r="S592">
+        <v>0.1181125925925926</v>
+      </c>
+      <c r="T592" t="s">
+        <v>23</v>
+      </c>
+      <c r="U592">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="593" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A593">
+        <v>0.6</v>
+      </c>
+      <c r="B593" t="s">
+        <v>25</v>
+      </c>
+      <c r="C593">
+        <v>25000</v>
+      </c>
+      <c r="D593">
+        <v>5651.1699084900001</v>
+      </c>
+      <c r="E593">
+        <v>66.890422046000012</v>
+      </c>
+      <c r="F593">
+        <v>5584.2794864440002</v>
+      </c>
+      <c r="G593">
+        <v>66.456698516000003</v>
+      </c>
+      <c r="H593">
+        <v>4752.9146216319996</v>
+      </c>
+      <c r="I593">
+        <v>70.570549037999996</v>
+      </c>
+      <c r="J593">
+        <v>4682.3440725959999</v>
+      </c>
+      <c r="K593">
+        <v>68.928079149333342</v>
+      </c>
+      <c r="L593">
+        <v>153652</v>
+      </c>
+      <c r="M593">
+        <v>153206</v>
+      </c>
+      <c r="N593">
+        <v>81140</v>
+      </c>
+      <c r="O593">
+        <v>80887</v>
+      </c>
+      <c r="P593">
+        <v>0.99709733683909096</v>
+      </c>
+      <c r="Q593">
+        <v>0.99688193246241064</v>
+      </c>
+      <c r="R593">
+        <v>0.22697185185185181</v>
+      </c>
+      <c r="S593">
+        <v>0.1198325925925926</v>
+      </c>
+      <c r="T593" t="s">
+        <v>23</v>
+      </c>
+      <c r="U593">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="594" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A594">
+        <v>0.65</v>
+      </c>
+      <c r="B594" t="s">
+        <v>25</v>
+      </c>
+      <c r="C594">
+        <v>25000</v>
+      </c>
+      <c r="D594">
+        <v>5906.4475570040004</v>
+      </c>
+      <c r="E594">
+        <v>66.242435580000006</v>
+      </c>
+      <c r="F594">
+        <v>5840.205121424</v>
+      </c>
+      <c r="G594">
+        <v>65.795938719999995</v>
+      </c>
+      <c r="H594">
+        <v>4998.7263967540002</v>
+      </c>
+      <c r="I594">
+        <v>69.942465188</v>
+      </c>
+      <c r="J594">
+        <v>4928.7839315660003</v>
+      </c>
+      <c r="K594">
+        <v>68.293542289999991</v>
+      </c>
+      <c r="L594">
+        <v>155467</v>
+      </c>
+      <c r="M594">
+        <v>155035</v>
+      </c>
+      <c r="N594">
+        <v>82535</v>
+      </c>
+      <c r="O594">
+        <v>82298</v>
+      </c>
+      <c r="P594">
+        <v>0.99722127525455562</v>
+      </c>
+      <c r="Q594">
+        <v>0.99712849094323619</v>
+      </c>
+      <c r="R594">
+        <v>0.22968148148148149</v>
+      </c>
+      <c r="S594">
+        <v>0.121922962962963</v>
+      </c>
+      <c r="T594" t="s">
+        <v>23</v>
+      </c>
+      <c r="U594">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="595" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A595">
+        <v>0.7</v>
+      </c>
+      <c r="B595" t="s">
+        <v>25</v>
+      </c>
+      <c r="C595">
+        <v>25000</v>
+      </c>
+      <c r="D595">
+        <v>6005.0987279160008</v>
+      </c>
+      <c r="E595">
+        <v>66.123668486</v>
+      </c>
+      <c r="F595">
+        <v>5938.9750594279994</v>
+      </c>
+      <c r="G595">
+        <v>65.363549000666666</v>
+      </c>
+      <c r="H595">
+        <v>5073.0658581140005</v>
+      </c>
+      <c r="I595">
+        <v>69.371276773999995</v>
+      </c>
+      <c r="J595">
+        <v>5003.6945813399998</v>
+      </c>
+      <c r="K595">
+        <v>67.917852761999995</v>
+      </c>
+      <c r="L595">
+        <v>156090</v>
+      </c>
+      <c r="M595">
+        <v>155650</v>
+      </c>
+      <c r="N595">
+        <v>83438</v>
+      </c>
+      <c r="O595">
+        <v>83194</v>
+      </c>
+      <c r="P595">
+        <v>0.99718111346018323</v>
+      </c>
+      <c r="Q595">
+        <v>0.99707567295476884</v>
+      </c>
+      <c r="R595">
+        <v>0.2305925925925926</v>
+      </c>
+      <c r="S595">
+        <v>0.1232503703703704</v>
+      </c>
+      <c r="T595" t="s">
+        <v>23</v>
+      </c>
+      <c r="U595">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="596" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A596">
+        <v>0.75</v>
+      </c>
+      <c r="B596" t="s">
+        <v>25</v>
+      </c>
+      <c r="C596">
+        <v>25000</v>
+      </c>
+      <c r="D596">
+        <v>6031.6104828979996</v>
+      </c>
+      <c r="E596">
+        <v>65.527095627999998</v>
+      </c>
+      <c r="F596">
+        <v>5966.0833872699995</v>
+      </c>
+      <c r="G596">
+        <v>65.040524277999992</v>
+      </c>
+      <c r="H596">
+        <v>5176.9800210679996</v>
+      </c>
+      <c r="I596">
+        <v>68.952810425999999</v>
+      </c>
+      <c r="J596">
+        <v>5108.0272106419998</v>
+      </c>
+      <c r="K596">
+        <v>67.578176922666671</v>
+      </c>
+      <c r="L596">
+        <v>158043</v>
+      </c>
+      <c r="M596">
+        <v>157590</v>
+      </c>
+      <c r="N596">
+        <v>84743</v>
+      </c>
+      <c r="O596">
+        <v>84489</v>
+      </c>
+      <c r="P596">
+        <v>0.99713369146371555</v>
+      </c>
+      <c r="Q596">
+        <v>0.99700270228809462</v>
+      </c>
+      <c r="R596">
+        <v>0.23346666666666671</v>
+      </c>
+      <c r="S596">
+        <v>0.12516888888888891</v>
+      </c>
+      <c r="T596" t="s">
+        <v>23</v>
+      </c>
+      <c r="U596">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="597" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A597">
+        <v>0.8</v>
+      </c>
+      <c r="B597" t="s">
+        <v>25</v>
+      </c>
+      <c r="C597">
+        <v>25000</v>
+      </c>
+      <c r="D597">
+        <v>6115.4079348619998</v>
+      </c>
+      <c r="E597">
+        <v>65.187846207999996</v>
+      </c>
+      <c r="F597">
+        <v>6050.2200886540004</v>
+      </c>
+      <c r="G597">
+        <v>64.467850757999997</v>
+      </c>
+      <c r="H597">
+        <v>5260.2285054419999</v>
+      </c>
+      <c r="I597">
+        <v>68.485833595999992</v>
+      </c>
+      <c r="J597">
+        <v>5191.7426718459992</v>
+      </c>
+      <c r="K597">
+        <v>67.072805850000009</v>
+      </c>
+      <c r="L597">
+        <v>159482</v>
+      </c>
+      <c r="M597">
+        <v>159045</v>
+      </c>
+      <c r="N597">
+        <v>85970</v>
+      </c>
+      <c r="O597">
+        <v>85731</v>
+      </c>
+      <c r="P597">
+        <v>0.9972598788578021</v>
+      </c>
+      <c r="Q597">
+        <v>0.99721996045132022</v>
+      </c>
+      <c r="R597">
+        <v>0.23562222222222221</v>
+      </c>
+      <c r="S597">
+        <v>0.12700888888888889</v>
+      </c>
+      <c r="T597" t="s">
+        <v>23</v>
+      </c>
+      <c r="U597">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="598" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A598">
+        <v>0.85</v>
+      </c>
+      <c r="B598" t="s">
+        <v>25</v>
+      </c>
+      <c r="C598">
+        <v>25000</v>
+      </c>
+      <c r="D598">
+        <v>6397.300753986</v>
+      </c>
+      <c r="E598">
+        <v>65.160391750000002</v>
+      </c>
+      <c r="F598">
+        <v>6332.1403622380003</v>
+      </c>
+      <c r="G598">
+        <v>64.412415445999997</v>
+      </c>
+      <c r="H598">
+        <v>5410.7908999779993</v>
+      </c>
+      <c r="I598">
+        <v>68.197336129999997</v>
+      </c>
+      <c r="J598">
+        <v>5342.5935638479996</v>
+      </c>
+      <c r="K598">
+        <v>67.19870609933335</v>
+      </c>
+      <c r="L598">
+        <v>161043</v>
+      </c>
+      <c r="M598">
+        <v>160613</v>
+      </c>
+      <c r="N598">
+        <v>87023</v>
+      </c>
+      <c r="O598">
+        <v>86791</v>
+      </c>
+      <c r="P598">
+        <v>0.99732990567736568</v>
+      </c>
+      <c r="Q598">
+        <v>0.99733403812785126</v>
+      </c>
+      <c r="R598">
+        <v>0.2379451851851852</v>
+      </c>
+      <c r="S598">
+        <v>0.12857925925925931</v>
+      </c>
+      <c r="T598" t="s">
+        <v>23</v>
+      </c>
+      <c r="U598">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="599" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A599">
+        <v>0.9</v>
+      </c>
+      <c r="B599" t="s">
+        <v>25</v>
+      </c>
+      <c r="C599">
+        <v>25000</v>
+      </c>
+      <c r="D599">
+        <v>6555.7672701880001</v>
+      </c>
+      <c r="E599">
+        <v>64.893217866000001</v>
+      </c>
+      <c r="F599">
+        <v>6490.8740523220004</v>
+      </c>
+      <c r="G599">
+        <v>63.754352411333343</v>
+      </c>
+      <c r="H599">
+        <v>5644.9596514000004</v>
+      </c>
+      <c r="I599">
+        <v>67.644245674000004</v>
+      </c>
+      <c r="J599">
+        <v>5577.3154057259999</v>
+      </c>
+      <c r="K599">
+        <v>66.479508984666666</v>
+      </c>
+      <c r="L599">
+        <v>160865</v>
+      </c>
+      <c r="M599">
+        <v>160392</v>
+      </c>
+      <c r="N599">
+        <v>87353</v>
+      </c>
+      <c r="O599">
+        <v>87091</v>
+      </c>
+      <c r="P599">
+        <v>0.99705964628725952</v>
+      </c>
+      <c r="Q599">
+        <v>0.99700067542042059</v>
+      </c>
+      <c r="R599">
+        <v>0.23761777777777779</v>
+      </c>
+      <c r="S599">
+        <v>0.1290237037037037</v>
+      </c>
+      <c r="T599" t="s">
+        <v>23</v>
+      </c>
+      <c r="U599">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="600" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A600">
+        <v>0.95</v>
+      </c>
+      <c r="B600" t="s">
+        <v>25</v>
+      </c>
+      <c r="C600">
+        <v>25000</v>
+      </c>
+      <c r="D600">
+        <v>6893.5030271920004</v>
+      </c>
+      <c r="E600">
+        <v>64.718307245999995</v>
+      </c>
+      <c r="F600">
+        <v>6828.7847199460002</v>
+      </c>
+      <c r="G600">
+        <v>63.554701261999988</v>
+      </c>
+      <c r="H600">
+        <v>5923.7441159340005</v>
+      </c>
+      <c r="I600">
+        <v>67.550652643999996</v>
+      </c>
+      <c r="J600">
+        <v>5856.1934632900002</v>
+      </c>
+      <c r="K600">
+        <v>66.322949283999989</v>
+      </c>
+      <c r="L600">
+        <v>162130</v>
+      </c>
+      <c r="M600">
+        <v>161701</v>
+      </c>
+      <c r="N600">
+        <v>87806</v>
+      </c>
+      <c r="O600">
+        <v>87567</v>
+      </c>
+      <c r="P600">
+        <v>0.99735397520508229</v>
+      </c>
+      <c r="Q600">
+        <v>0.9972780903355124</v>
+      </c>
+      <c r="R600">
+        <v>0.23955703703703701</v>
+      </c>
+      <c r="S600">
+        <v>0.12972888888888889</v>
+      </c>
+      <c r="T600" t="s">
+        <v>23</v>
+      </c>
+      <c r="U600">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="601" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A601">
+        <v>1</v>
+      </c>
+      <c r="B601" t="s">
+        <v>25</v>
+      </c>
+      <c r="C601">
+        <v>25000</v>
+      </c>
+      <c r="D601">
+        <v>7164.6241911340003</v>
+      </c>
+      <c r="E601">
+        <v>65.882370628000004</v>
+      </c>
+      <c r="F601">
+        <v>7098.7418205060003</v>
+      </c>
+      <c r="G601">
+        <v>63.995354563333329</v>
+      </c>
+      <c r="H601">
+        <v>6165.1104416059998</v>
+      </c>
+      <c r="I601">
+        <v>67.303201849999994</v>
+      </c>
+      <c r="J601">
+        <v>6097.8072397579999</v>
+      </c>
+      <c r="K601">
+        <v>66.835239458666663</v>
+      </c>
+      <c r="L601">
+        <v>160073</v>
+      </c>
+      <c r="M601">
+        <v>159637</v>
+      </c>
+      <c r="N601">
+        <v>88037</v>
+      </c>
+      <c r="O601">
+        <v>87793</v>
+      </c>
+      <c r="P601">
+        <v>0.99727624271426163</v>
+      </c>
+      <c r="Q601">
+        <v>0.99722843804309547</v>
+      </c>
+      <c r="R601">
+        <v>0.2364992592592593</v>
+      </c>
+      <c r="S601">
+        <v>0.13006370370370371</v>
+      </c>
+      <c r="T601" t="s">
+        <v>23</v>
+      </c>
+      <c r="U601">
+        <v>4</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
